--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A228B49-8AEA-4A49-BE22-D306E70FA0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63D5222-BF21-48D9-B468-CA057630A483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L951"/>
+  <dimension ref="A1:L973"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A926" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E948" sqref="E948"/>
+      <pane ySplit="1" topLeftCell="A947" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B964" sqref="B964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -36913,7 +36913,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="2">
-        <f t="shared" ref="B912:B951" si="59">B911*1.5</f>
+        <f t="shared" ref="B912:B973" si="59">B911*1.5</f>
         <v>1.4755067841270238E+121</v>
       </c>
       <c r="C912" s="1">
@@ -38545,6 +38545,908 @@
         <v>0</v>
       </c>
       <c r="L951" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="952" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A952" s="2">
+        <v>950</v>
+      </c>
+      <c r="B952" s="2">
+        <f t="shared" si="59"/>
+        <v>1.6315168853893994E+128</v>
+      </c>
+      <c r="C952" s="1">
+        <v>30</v>
+      </c>
+      <c r="D952" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E952" s="1">
+        <v>3</v>
+      </c>
+      <c r="F952" s="1">
+        <v>14</v>
+      </c>
+      <c r="G952" s="1">
+        <v>1</v>
+      </c>
+      <c r="H952" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I952" s="1">
+        <v>1</v>
+      </c>
+      <c r="J952" s="2">
+        <f t="shared" ref="J952:J960" si="64">IF(MOD(A952,5)=0,14,-1)</f>
+        <v>14</v>
+      </c>
+      <c r="K952" s="2">
+        <f t="shared" ref="K952:K960" si="65">IF(J952=14,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L952" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="953" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A953" s="2">
+        <v>951</v>
+      </c>
+      <c r="B953" s="2">
+        <f t="shared" si="59"/>
+        <v>2.4472753280840991E+128</v>
+      </c>
+      <c r="C953" s="1">
+        <v>30</v>
+      </c>
+      <c r="D953" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E953" s="1">
+        <v>3</v>
+      </c>
+      <c r="F953" s="1">
+        <v>14</v>
+      </c>
+      <c r="G953" s="1">
+        <v>1</v>
+      </c>
+      <c r="H953" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I953" s="1">
+        <v>1</v>
+      </c>
+      <c r="J953" s="2">
+        <f t="shared" si="64"/>
+        <v>-1</v>
+      </c>
+      <c r="K953" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L953" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="954" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A954" s="2">
+        <v>952</v>
+      </c>
+      <c r="B954" s="2">
+        <f t="shared" si="59"/>
+        <v>3.6709129921261488E+128</v>
+      </c>
+      <c r="C954" s="1">
+        <v>30</v>
+      </c>
+      <c r="D954" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E954" s="1">
+        <v>3</v>
+      </c>
+      <c r="F954" s="1">
+        <v>14</v>
+      </c>
+      <c r="G954" s="1">
+        <v>1</v>
+      </c>
+      <c r="H954" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I954" s="1">
+        <v>1</v>
+      </c>
+      <c r="J954" s="2">
+        <f t="shared" si="64"/>
+        <v>-1</v>
+      </c>
+      <c r="K954" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L954" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="955" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A955" s="2">
+        <v>953</v>
+      </c>
+      <c r="B955" s="2">
+        <f t="shared" si="59"/>
+        <v>5.5063694881892235E+128</v>
+      </c>
+      <c r="C955" s="1">
+        <v>30</v>
+      </c>
+      <c r="D955" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E955" s="1">
+        <v>3</v>
+      </c>
+      <c r="F955" s="1">
+        <v>14</v>
+      </c>
+      <c r="G955" s="1">
+        <v>1</v>
+      </c>
+      <c r="H955" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I955" s="1">
+        <v>1</v>
+      </c>
+      <c r="J955" s="2">
+        <f t="shared" si="64"/>
+        <v>-1</v>
+      </c>
+      <c r="K955" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L955" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="956" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A956" s="2">
+        <v>954</v>
+      </c>
+      <c r="B956" s="2">
+        <f t="shared" si="59"/>
+        <v>8.2595542322838353E+128</v>
+      </c>
+      <c r="C956" s="1">
+        <v>30</v>
+      </c>
+      <c r="D956" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E956" s="1">
+        <v>3</v>
+      </c>
+      <c r="F956" s="1">
+        <v>14</v>
+      </c>
+      <c r="G956" s="1">
+        <v>1</v>
+      </c>
+      <c r="H956" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I956" s="1">
+        <v>1</v>
+      </c>
+      <c r="J956" s="2">
+        <f t="shared" si="64"/>
+        <v>-1</v>
+      </c>
+      <c r="K956" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L956" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="957" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A957" s="2">
+        <v>955</v>
+      </c>
+      <c r="B957" s="2">
+        <f t="shared" si="59"/>
+        <v>1.2389331348425752E+129</v>
+      </c>
+      <c r="C957" s="1">
+        <v>30</v>
+      </c>
+      <c r="D957" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E957" s="1">
+        <v>3</v>
+      </c>
+      <c r="F957" s="1">
+        <v>14</v>
+      </c>
+      <c r="G957" s="1">
+        <v>1</v>
+      </c>
+      <c r="H957" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I957" s="1">
+        <v>1</v>
+      </c>
+      <c r="J957" s="2">
+        <f t="shared" si="64"/>
+        <v>14</v>
+      </c>
+      <c r="K957" s="2">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="L957" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="958" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A958" s="2">
+        <v>956</v>
+      </c>
+      <c r="B958" s="2">
+        <f t="shared" si="59"/>
+        <v>1.8583997022638627E+129</v>
+      </c>
+      <c r="C958" s="1">
+        <v>30</v>
+      </c>
+      <c r="D958" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E958" s="1">
+        <v>3</v>
+      </c>
+      <c r="F958" s="1">
+        <v>14</v>
+      </c>
+      <c r="G958" s="1">
+        <v>1</v>
+      </c>
+      <c r="H958" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I958" s="1">
+        <v>1</v>
+      </c>
+      <c r="J958" s="2">
+        <f t="shared" si="64"/>
+        <v>-1</v>
+      </c>
+      <c r="K958" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L958" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="959" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A959" s="2">
+        <v>957</v>
+      </c>
+      <c r="B959" s="2">
+        <f t="shared" si="59"/>
+        <v>2.787599553395794E+129</v>
+      </c>
+      <c r="C959" s="1">
+        <v>30</v>
+      </c>
+      <c r="D959" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E959" s="1">
+        <v>3</v>
+      </c>
+      <c r="F959" s="1">
+        <v>14</v>
+      </c>
+      <c r="G959" s="1">
+        <v>1</v>
+      </c>
+      <c r="H959" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I959" s="1">
+        <v>1</v>
+      </c>
+      <c r="J959" s="2">
+        <f t="shared" si="64"/>
+        <v>-1</v>
+      </c>
+      <c r="K959" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L959" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="960" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A960" s="2">
+        <v>958</v>
+      </c>
+      <c r="B960" s="2">
+        <f t="shared" si="59"/>
+        <v>4.1813993300936907E+129</v>
+      </c>
+      <c r="C960" s="1">
+        <v>30</v>
+      </c>
+      <c r="D960" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E960" s="1">
+        <v>3</v>
+      </c>
+      <c r="F960" s="1">
+        <v>14</v>
+      </c>
+      <c r="G960" s="1">
+        <v>1</v>
+      </c>
+      <c r="H960" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I960" s="1">
+        <v>1</v>
+      </c>
+      <c r="J960" s="2">
+        <f t="shared" si="64"/>
+        <v>-1</v>
+      </c>
+      <c r="K960" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L960" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="961" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A961" s="2">
+        <v>959</v>
+      </c>
+      <c r="B961" s="2">
+        <f t="shared" si="59"/>
+        <v>6.2720989951405361E+129</v>
+      </c>
+      <c r="C961" s="1">
+        <v>30</v>
+      </c>
+      <c r="D961" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E961" s="1">
+        <v>3</v>
+      </c>
+      <c r="F961" s="1">
+        <v>14</v>
+      </c>
+      <c r="G961" s="1">
+        <v>1</v>
+      </c>
+      <c r="H961" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I961" s="1">
+        <v>1</v>
+      </c>
+      <c r="J961" s="2">
+        <f t="shared" ref="J961:J973" si="66">IF(MOD(A961,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K961" s="2">
+        <f t="shared" ref="K961:K973" si="67">IF(J961=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L961" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="962" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A962" s="2">
+        <v>960</v>
+      </c>
+      <c r="B962" s="2">
+        <f t="shared" si="59"/>
+        <v>9.4081484927108035E+129</v>
+      </c>
+      <c r="C962" s="1">
+        <v>30</v>
+      </c>
+      <c r="D962" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E962" s="1">
+        <v>3</v>
+      </c>
+      <c r="F962" s="1">
+        <v>14</v>
+      </c>
+      <c r="G962" s="1">
+        <v>1</v>
+      </c>
+      <c r="H962" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I962" s="1">
+        <v>1</v>
+      </c>
+      <c r="J962" s="2">
+        <f t="shared" si="66"/>
+        <v>14</v>
+      </c>
+      <c r="K962" s="2">
+        <f t="shared" si="67"/>
+        <v>4</v>
+      </c>
+      <c r="L962" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="963" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A963" s="2">
+        <v>961</v>
+      </c>
+      <c r="B963" s="2">
+        <f t="shared" si="59"/>
+        <v>1.4112222739066205E+130</v>
+      </c>
+      <c r="C963" s="1">
+        <v>30</v>
+      </c>
+      <c r="D963" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E963" s="1">
+        <v>3</v>
+      </c>
+      <c r="F963" s="1">
+        <v>14</v>
+      </c>
+      <c r="G963" s="1">
+        <v>1</v>
+      </c>
+      <c r="H963" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I963" s="1">
+        <v>1</v>
+      </c>
+      <c r="J963" s="2">
+        <f t="shared" si="66"/>
+        <v>-1</v>
+      </c>
+      <c r="K963" s="2">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L963" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="964" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A964" s="2">
+        <v>962</v>
+      </c>
+      <c r="B964" s="2">
+        <f t="shared" si="59"/>
+        <v>2.1168334108599307E+130</v>
+      </c>
+      <c r="C964" s="1">
+        <v>30</v>
+      </c>
+      <c r="D964" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E964" s="1">
+        <v>3</v>
+      </c>
+      <c r="F964" s="1">
+        <v>14</v>
+      </c>
+      <c r="G964" s="1">
+        <v>1</v>
+      </c>
+      <c r="H964" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I964" s="1">
+        <v>1</v>
+      </c>
+      <c r="J964" s="2">
+        <f t="shared" si="66"/>
+        <v>-1</v>
+      </c>
+      <c r="K964" s="2">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L964" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="965" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A965" s="2">
+        <v>963</v>
+      </c>
+      <c r="B965" s="2">
+        <f t="shared" si="59"/>
+        <v>3.175250116289896E+130</v>
+      </c>
+      <c r="C965" s="1">
+        <v>30</v>
+      </c>
+      <c r="D965" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E965" s="1">
+        <v>3</v>
+      </c>
+      <c r="F965" s="1">
+        <v>14</v>
+      </c>
+      <c r="G965" s="1">
+        <v>1</v>
+      </c>
+      <c r="H965" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I965" s="1">
+        <v>1</v>
+      </c>
+      <c r="J965" s="2">
+        <f t="shared" si="66"/>
+        <v>-1</v>
+      </c>
+      <c r="K965" s="2">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L965" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="966" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A966" s="2">
+        <v>964</v>
+      </c>
+      <c r="B966" s="2">
+        <f t="shared" si="59"/>
+        <v>4.7628751744348435E+130</v>
+      </c>
+      <c r="C966" s="1">
+        <v>30</v>
+      </c>
+      <c r="D966" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E966" s="1">
+        <v>3</v>
+      </c>
+      <c r="F966" s="1">
+        <v>14</v>
+      </c>
+      <c r="G966" s="1">
+        <v>1</v>
+      </c>
+      <c r="H966" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I966" s="1">
+        <v>1</v>
+      </c>
+      <c r="J966" s="2">
+        <f t="shared" si="66"/>
+        <v>-1</v>
+      </c>
+      <c r="K966" s="2">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L966" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="967" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A967" s="2">
+        <v>965</v>
+      </c>
+      <c r="B967" s="2">
+        <f t="shared" si="59"/>
+        <v>7.1443127616522653E+130</v>
+      </c>
+      <c r="C967" s="1">
+        <v>30</v>
+      </c>
+      <c r="D967" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E967" s="1">
+        <v>3</v>
+      </c>
+      <c r="F967" s="1">
+        <v>14</v>
+      </c>
+      <c r="G967" s="1">
+        <v>1</v>
+      </c>
+      <c r="H967" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I967" s="1">
+        <v>1</v>
+      </c>
+      <c r="J967" s="2">
+        <f t="shared" si="66"/>
+        <v>14</v>
+      </c>
+      <c r="K967" s="2">
+        <f t="shared" si="67"/>
+        <v>4</v>
+      </c>
+      <c r="L967" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="968" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A968" s="2">
+        <v>966</v>
+      </c>
+      <c r="B968" s="2">
+        <f t="shared" si="59"/>
+        <v>1.0716469142478398E+131</v>
+      </c>
+      <c r="C968" s="1">
+        <v>30</v>
+      </c>
+      <c r="D968" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E968" s="1">
+        <v>3</v>
+      </c>
+      <c r="F968" s="1">
+        <v>14</v>
+      </c>
+      <c r="G968" s="1">
+        <v>1</v>
+      </c>
+      <c r="H968" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I968" s="1">
+        <v>1</v>
+      </c>
+      <c r="J968" s="2">
+        <f t="shared" si="66"/>
+        <v>-1</v>
+      </c>
+      <c r="K968" s="2">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L968" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="969" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A969" s="2">
+        <v>967</v>
+      </c>
+      <c r="B969" s="2">
+        <f t="shared" si="59"/>
+        <v>1.6074703713717598E+131</v>
+      </c>
+      <c r="C969" s="1">
+        <v>30</v>
+      </c>
+      <c r="D969" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E969" s="1">
+        <v>3</v>
+      </c>
+      <c r="F969" s="1">
+        <v>14</v>
+      </c>
+      <c r="G969" s="1">
+        <v>1</v>
+      </c>
+      <c r="H969" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I969" s="1">
+        <v>1</v>
+      </c>
+      <c r="J969" s="2">
+        <f t="shared" si="66"/>
+        <v>-1</v>
+      </c>
+      <c r="K969" s="2">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L969" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="970" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A970" s="2">
+        <v>968</v>
+      </c>
+      <c r="B970" s="2">
+        <f t="shared" si="59"/>
+        <v>2.4112055570576399E+131</v>
+      </c>
+      <c r="C970" s="1">
+        <v>30</v>
+      </c>
+      <c r="D970" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E970" s="1">
+        <v>3</v>
+      </c>
+      <c r="F970" s="1">
+        <v>14</v>
+      </c>
+      <c r="G970" s="1">
+        <v>1</v>
+      </c>
+      <c r="H970" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I970" s="1">
+        <v>1</v>
+      </c>
+      <c r="J970" s="2">
+        <f t="shared" si="66"/>
+        <v>-1</v>
+      </c>
+      <c r="K970" s="2">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L970" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="971" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A971" s="2">
+        <v>969</v>
+      </c>
+      <c r="B971" s="2">
+        <f t="shared" si="59"/>
+        <v>3.6168083355864602E+131</v>
+      </c>
+      <c r="C971" s="1">
+        <v>30</v>
+      </c>
+      <c r="D971" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E971" s="1">
+        <v>3</v>
+      </c>
+      <c r="F971" s="1">
+        <v>14</v>
+      </c>
+      <c r="G971" s="1">
+        <v>1</v>
+      </c>
+      <c r="H971" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I971" s="1">
+        <v>1</v>
+      </c>
+      <c r="J971" s="2">
+        <f t="shared" si="66"/>
+        <v>-1</v>
+      </c>
+      <c r="K971" s="2">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L971" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="972" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A972" s="2">
+        <v>970</v>
+      </c>
+      <c r="B972" s="2">
+        <f t="shared" si="59"/>
+        <v>5.4252125033796903E+131</v>
+      </c>
+      <c r="C972" s="1">
+        <v>30</v>
+      </c>
+      <c r="D972" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E972" s="1">
+        <v>3</v>
+      </c>
+      <c r="F972" s="1">
+        <v>14</v>
+      </c>
+      <c r="G972" s="1">
+        <v>1</v>
+      </c>
+      <c r="H972" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I972" s="1">
+        <v>1</v>
+      </c>
+      <c r="J972" s="2">
+        <f t="shared" si="66"/>
+        <v>14</v>
+      </c>
+      <c r="K972" s="2">
+        <f t="shared" si="67"/>
+        <v>4</v>
+      </c>
+      <c r="L972" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="973" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A973" s="2">
+        <v>971</v>
+      </c>
+      <c r="B973" s="2">
+        <f t="shared" si="59"/>
+        <v>8.1378187550695362E+131</v>
+      </c>
+      <c r="C973" s="1">
+        <v>30</v>
+      </c>
+      <c r="D973" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E973" s="1">
+        <v>3</v>
+      </c>
+      <c r="F973" s="1">
+        <v>14</v>
+      </c>
+      <c r="G973" s="1">
+        <v>1</v>
+      </c>
+      <c r="H973" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I973" s="1">
+        <v>1</v>
+      </c>
+      <c r="J973" s="2">
+        <f t="shared" si="66"/>
+        <v>-1</v>
+      </c>
+      <c r="K973" s="2">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L973" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63D5222-BF21-48D9-B468-CA057630A483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF445E32-D7E1-4526-A5DD-5D7EC2096970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L973"/>
+  <dimension ref="A1:L1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A947" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B964" sqref="B964"/>
+      <pane ySplit="1" topLeftCell="A973" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B993" sqref="B993"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -36913,7 +36913,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="2">
-        <f t="shared" ref="B912:B973" si="59">B911*1.5</f>
+        <f t="shared" ref="B912:B975" si="59">B911*1.5</f>
         <v>1.4755067841270238E+121</v>
       </c>
       <c r="C912" s="1">
@@ -39447,6 +39447,1154 @@
         <v>0</v>
       </c>
       <c r="L973" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="974" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A974" s="2">
+        <v>972</v>
+      </c>
+      <c r="B974" s="2">
+        <f t="shared" si="59"/>
+        <v>1.2206728132604304E+132</v>
+      </c>
+      <c r="C974" s="1">
+        <v>30</v>
+      </c>
+      <c r="D974" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E974" s="1">
+        <v>3</v>
+      </c>
+      <c r="F974" s="1">
+        <v>14</v>
+      </c>
+      <c r="G974" s="1">
+        <v>1</v>
+      </c>
+      <c r="H974" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I974" s="1">
+        <v>1</v>
+      </c>
+      <c r="J974" s="2">
+        <f t="shared" ref="J974:J1001" si="68">IF(MOD(A974,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K974" s="2">
+        <f t="shared" ref="K974:K1001" si="69">IF(J974=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L974" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="975" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A975" s="2">
+        <v>973</v>
+      </c>
+      <c r="B975" s="2">
+        <f t="shared" si="59"/>
+        <v>1.8310092198906455E+132</v>
+      </c>
+      <c r="C975" s="1">
+        <v>30</v>
+      </c>
+      <c r="D975" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E975" s="1">
+        <v>3</v>
+      </c>
+      <c r="F975" s="1">
+        <v>14</v>
+      </c>
+      <c r="G975" s="1">
+        <v>1</v>
+      </c>
+      <c r="H975" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I975" s="1">
+        <v>1</v>
+      </c>
+      <c r="J975" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K975" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L975" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="976" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A976" s="2">
+        <v>974</v>
+      </c>
+      <c r="B976" s="2">
+        <f t="shared" ref="B976:B1001" si="70">B975*1.5</f>
+        <v>2.7465138298359682E+132</v>
+      </c>
+      <c r="C976" s="1">
+        <v>30</v>
+      </c>
+      <c r="D976" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E976" s="1">
+        <v>3</v>
+      </c>
+      <c r="F976" s="1">
+        <v>14</v>
+      </c>
+      <c r="G976" s="1">
+        <v>1</v>
+      </c>
+      <c r="H976" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I976" s="1">
+        <v>1</v>
+      </c>
+      <c r="J976" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K976" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L976" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="977" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A977" s="2">
+        <v>975</v>
+      </c>
+      <c r="B977" s="2">
+        <f t="shared" si="70"/>
+        <v>4.119770744753952E+132</v>
+      </c>
+      <c r="C977" s="1">
+        <v>30</v>
+      </c>
+      <c r="D977" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E977" s="1">
+        <v>3</v>
+      </c>
+      <c r="F977" s="1">
+        <v>14</v>
+      </c>
+      <c r="G977" s="1">
+        <v>1</v>
+      </c>
+      <c r="H977" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I977" s="1">
+        <v>1</v>
+      </c>
+      <c r="J977" s="2">
+        <f t="shared" si="68"/>
+        <v>14</v>
+      </c>
+      <c r="K977" s="2">
+        <f t="shared" si="69"/>
+        <v>4</v>
+      </c>
+      <c r="L977" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="978" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A978" s="2">
+        <v>976</v>
+      </c>
+      <c r="B978" s="2">
+        <f t="shared" si="70"/>
+        <v>6.1796561171309274E+132</v>
+      </c>
+      <c r="C978" s="1">
+        <v>30</v>
+      </c>
+      <c r="D978" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E978" s="1">
+        <v>3</v>
+      </c>
+      <c r="F978" s="1">
+        <v>14</v>
+      </c>
+      <c r="G978" s="1">
+        <v>1</v>
+      </c>
+      <c r="H978" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I978" s="1">
+        <v>1</v>
+      </c>
+      <c r="J978" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K978" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L978" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="979" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A979" s="2">
+        <v>977</v>
+      </c>
+      <c r="B979" s="2">
+        <f t="shared" si="70"/>
+        <v>9.2694841756963912E+132</v>
+      </c>
+      <c r="C979" s="1">
+        <v>30</v>
+      </c>
+      <c r="D979" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E979" s="1">
+        <v>3</v>
+      </c>
+      <c r="F979" s="1">
+        <v>14</v>
+      </c>
+      <c r="G979" s="1">
+        <v>1</v>
+      </c>
+      <c r="H979" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I979" s="1">
+        <v>1</v>
+      </c>
+      <c r="J979" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K979" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L979" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="980" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A980" s="2">
+        <v>978</v>
+      </c>
+      <c r="B980" s="2">
+        <f t="shared" si="70"/>
+        <v>1.3904226263544586E+133</v>
+      </c>
+      <c r="C980" s="1">
+        <v>30</v>
+      </c>
+      <c r="D980" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E980" s="1">
+        <v>3</v>
+      </c>
+      <c r="F980" s="1">
+        <v>14</v>
+      </c>
+      <c r="G980" s="1">
+        <v>1</v>
+      </c>
+      <c r="H980" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I980" s="1">
+        <v>1</v>
+      </c>
+      <c r="J980" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K980" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L980" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="981" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A981" s="2">
+        <v>979</v>
+      </c>
+      <c r="B981" s="2">
+        <f t="shared" si="70"/>
+        <v>2.0856339395316878E+133</v>
+      </c>
+      <c r="C981" s="1">
+        <v>30</v>
+      </c>
+      <c r="D981" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E981" s="1">
+        <v>3</v>
+      </c>
+      <c r="F981" s="1">
+        <v>14</v>
+      </c>
+      <c r="G981" s="1">
+        <v>1</v>
+      </c>
+      <c r="H981" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I981" s="1">
+        <v>1</v>
+      </c>
+      <c r="J981" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K981" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L981" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="982" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A982" s="2">
+        <v>980</v>
+      </c>
+      <c r="B982" s="2">
+        <f t="shared" si="70"/>
+        <v>3.1284509092975317E+133</v>
+      </c>
+      <c r="C982" s="1">
+        <v>30</v>
+      </c>
+      <c r="D982" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E982" s="1">
+        <v>3</v>
+      </c>
+      <c r="F982" s="1">
+        <v>14</v>
+      </c>
+      <c r="G982" s="1">
+        <v>1</v>
+      </c>
+      <c r="H982" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I982" s="1">
+        <v>1</v>
+      </c>
+      <c r="J982" s="2">
+        <f t="shared" si="68"/>
+        <v>14</v>
+      </c>
+      <c r="K982" s="2">
+        <f t="shared" si="69"/>
+        <v>4</v>
+      </c>
+      <c r="L982" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="983" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A983" s="2">
+        <v>981</v>
+      </c>
+      <c r="B983" s="2">
+        <f t="shared" si="70"/>
+        <v>4.6926763639462978E+133</v>
+      </c>
+      <c r="C983" s="1">
+        <v>30</v>
+      </c>
+      <c r="D983" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E983" s="1">
+        <v>3</v>
+      </c>
+      <c r="F983" s="1">
+        <v>14</v>
+      </c>
+      <c r="G983" s="1">
+        <v>1</v>
+      </c>
+      <c r="H983" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I983" s="1">
+        <v>1</v>
+      </c>
+      <c r="J983" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K983" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L983" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="984" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A984" s="2">
+        <v>982</v>
+      </c>
+      <c r="B984" s="2">
+        <f t="shared" si="70"/>
+        <v>7.0390145459194467E+133</v>
+      </c>
+      <c r="C984" s="1">
+        <v>30</v>
+      </c>
+      <c r="D984" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E984" s="1">
+        <v>3</v>
+      </c>
+      <c r="F984" s="1">
+        <v>14</v>
+      </c>
+      <c r="G984" s="1">
+        <v>1</v>
+      </c>
+      <c r="H984" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I984" s="1">
+        <v>1</v>
+      </c>
+      <c r="J984" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K984" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L984" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="985" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A985" s="2">
+        <v>983</v>
+      </c>
+      <c r="B985" s="2">
+        <f t="shared" si="70"/>
+        <v>1.0558521818879171E+134</v>
+      </c>
+      <c r="C985" s="1">
+        <v>30</v>
+      </c>
+      <c r="D985" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E985" s="1">
+        <v>3</v>
+      </c>
+      <c r="F985" s="1">
+        <v>14</v>
+      </c>
+      <c r="G985" s="1">
+        <v>1</v>
+      </c>
+      <c r="H985" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I985" s="1">
+        <v>1</v>
+      </c>
+      <c r="J985" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K985" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L985" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="986" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A986" s="2">
+        <v>984</v>
+      </c>
+      <c r="B986" s="2">
+        <f t="shared" si="70"/>
+        <v>1.5837782728318756E+134</v>
+      </c>
+      <c r="C986" s="1">
+        <v>30</v>
+      </c>
+      <c r="D986" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E986" s="1">
+        <v>3</v>
+      </c>
+      <c r="F986" s="1">
+        <v>14</v>
+      </c>
+      <c r="G986" s="1">
+        <v>1</v>
+      </c>
+      <c r="H986" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I986" s="1">
+        <v>1</v>
+      </c>
+      <c r="J986" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K986" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L986" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="987" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A987" s="2">
+        <v>985</v>
+      </c>
+      <c r="B987" s="2">
+        <f t="shared" si="70"/>
+        <v>2.3756674092478136E+134</v>
+      </c>
+      <c r="C987" s="1">
+        <v>30</v>
+      </c>
+      <c r="D987" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E987" s="1">
+        <v>3</v>
+      </c>
+      <c r="F987" s="1">
+        <v>14</v>
+      </c>
+      <c r="G987" s="1">
+        <v>1</v>
+      </c>
+      <c r="H987" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I987" s="1">
+        <v>1</v>
+      </c>
+      <c r="J987" s="2">
+        <f t="shared" si="68"/>
+        <v>14</v>
+      </c>
+      <c r="K987" s="2">
+        <f t="shared" si="69"/>
+        <v>4</v>
+      </c>
+      <c r="L987" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="988" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A988" s="2">
+        <v>986</v>
+      </c>
+      <c r="B988" s="2">
+        <f t="shared" si="70"/>
+        <v>3.5635011138717203E+134</v>
+      </c>
+      <c r="C988" s="1">
+        <v>30</v>
+      </c>
+      <c r="D988" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E988" s="1">
+        <v>3</v>
+      </c>
+      <c r="F988" s="1">
+        <v>14</v>
+      </c>
+      <c r="G988" s="1">
+        <v>1</v>
+      </c>
+      <c r="H988" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I988" s="1">
+        <v>1</v>
+      </c>
+      <c r="J988" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K988" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L988" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="989" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A989" s="2">
+        <v>987</v>
+      </c>
+      <c r="B989" s="2">
+        <f t="shared" si="70"/>
+        <v>5.3452516708075807E+134</v>
+      </c>
+      <c r="C989" s="1">
+        <v>30</v>
+      </c>
+      <c r="D989" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E989" s="1">
+        <v>3</v>
+      </c>
+      <c r="F989" s="1">
+        <v>14</v>
+      </c>
+      <c r="G989" s="1">
+        <v>1</v>
+      </c>
+      <c r="H989" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I989" s="1">
+        <v>1</v>
+      </c>
+      <c r="J989" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K989" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L989" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="990" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A990" s="2">
+        <v>988</v>
+      </c>
+      <c r="B990" s="2">
+        <f t="shared" si="70"/>
+        <v>8.0178775062113707E+134</v>
+      </c>
+      <c r="C990" s="1">
+        <v>30</v>
+      </c>
+      <c r="D990" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E990" s="1">
+        <v>3</v>
+      </c>
+      <c r="F990" s="1">
+        <v>14</v>
+      </c>
+      <c r="G990" s="1">
+        <v>1</v>
+      </c>
+      <c r="H990" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I990" s="1">
+        <v>1</v>
+      </c>
+      <c r="J990" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K990" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L990" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="991" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A991" s="2">
+        <v>989</v>
+      </c>
+      <c r="B991" s="2">
+        <f t="shared" si="70"/>
+        <v>1.2026816259317055E+135</v>
+      </c>
+      <c r="C991" s="1">
+        <v>30</v>
+      </c>
+      <c r="D991" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E991" s="1">
+        <v>3</v>
+      </c>
+      <c r="F991" s="1">
+        <v>14</v>
+      </c>
+      <c r="G991" s="1">
+        <v>1</v>
+      </c>
+      <c r="H991" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I991" s="1">
+        <v>1</v>
+      </c>
+      <c r="J991" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K991" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L991" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="992" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A992" s="2">
+        <v>990</v>
+      </c>
+      <c r="B992" s="2">
+        <f t="shared" si="70"/>
+        <v>1.8040224388975583E+135</v>
+      </c>
+      <c r="C992" s="1">
+        <v>30</v>
+      </c>
+      <c r="D992" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E992" s="1">
+        <v>3</v>
+      </c>
+      <c r="F992" s="1">
+        <v>14</v>
+      </c>
+      <c r="G992" s="1">
+        <v>1</v>
+      </c>
+      <c r="H992" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I992" s="1">
+        <v>1</v>
+      </c>
+      <c r="J992" s="2">
+        <f t="shared" si="68"/>
+        <v>14</v>
+      </c>
+      <c r="K992" s="2">
+        <f t="shared" si="69"/>
+        <v>4</v>
+      </c>
+      <c r="L992" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="993" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A993" s="2">
+        <v>991</v>
+      </c>
+      <c r="B993" s="2">
+        <f t="shared" si="70"/>
+        <v>2.7060336583463374E+135</v>
+      </c>
+      <c r="C993" s="1">
+        <v>30</v>
+      </c>
+      <c r="D993" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E993" s="1">
+        <v>3</v>
+      </c>
+      <c r="F993" s="1">
+        <v>14</v>
+      </c>
+      <c r="G993" s="1">
+        <v>1</v>
+      </c>
+      <c r="H993" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I993" s="1">
+        <v>1</v>
+      </c>
+      <c r="J993" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K993" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L993" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="994" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A994" s="2">
+        <v>992</v>
+      </c>
+      <c r="B994" s="2">
+        <f t="shared" si="70"/>
+        <v>4.059050487519506E+135</v>
+      </c>
+      <c r="C994" s="1">
+        <v>30</v>
+      </c>
+      <c r="D994" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E994" s="1">
+        <v>3</v>
+      </c>
+      <c r="F994" s="1">
+        <v>14</v>
+      </c>
+      <c r="G994" s="1">
+        <v>1</v>
+      </c>
+      <c r="H994" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I994" s="1">
+        <v>1</v>
+      </c>
+      <c r="J994" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K994" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L994" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="995" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A995" s="2">
+        <v>993</v>
+      </c>
+      <c r="B995" s="2">
+        <f t="shared" si="70"/>
+        <v>6.0885757312792593E+135</v>
+      </c>
+      <c r="C995" s="1">
+        <v>30</v>
+      </c>
+      <c r="D995" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E995" s="1">
+        <v>3</v>
+      </c>
+      <c r="F995" s="1">
+        <v>14</v>
+      </c>
+      <c r="G995" s="1">
+        <v>1</v>
+      </c>
+      <c r="H995" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I995" s="1">
+        <v>1</v>
+      </c>
+      <c r="J995" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K995" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L995" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="996" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A996" s="2">
+        <v>994</v>
+      </c>
+      <c r="B996" s="2">
+        <f t="shared" si="70"/>
+        <v>9.1328635969188883E+135</v>
+      </c>
+      <c r="C996" s="1">
+        <v>30</v>
+      </c>
+      <c r="D996" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E996" s="1">
+        <v>3</v>
+      </c>
+      <c r="F996" s="1">
+        <v>14</v>
+      </c>
+      <c r="G996" s="1">
+        <v>1</v>
+      </c>
+      <c r="H996" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I996" s="1">
+        <v>1</v>
+      </c>
+      <c r="J996" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K996" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L996" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="997" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A997" s="2">
+        <v>995</v>
+      </c>
+      <c r="B997" s="2">
+        <f t="shared" si="70"/>
+        <v>1.3699295395378331E+136</v>
+      </c>
+      <c r="C997" s="1">
+        <v>30</v>
+      </c>
+      <c r="D997" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E997" s="1">
+        <v>3</v>
+      </c>
+      <c r="F997" s="1">
+        <v>14</v>
+      </c>
+      <c r="G997" s="1">
+        <v>1</v>
+      </c>
+      <c r="H997" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I997" s="1">
+        <v>1</v>
+      </c>
+      <c r="J997" s="2">
+        <f t="shared" si="68"/>
+        <v>14</v>
+      </c>
+      <c r="K997" s="2">
+        <f t="shared" si="69"/>
+        <v>4</v>
+      </c>
+      <c r="L997" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="998" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A998" s="2">
+        <v>996</v>
+      </c>
+      <c r="B998" s="2">
+        <f t="shared" si="70"/>
+        <v>2.0548943093067497E+136</v>
+      </c>
+      <c r="C998" s="1">
+        <v>30</v>
+      </c>
+      <c r="D998" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E998" s="1">
+        <v>3</v>
+      </c>
+      <c r="F998" s="1">
+        <v>14</v>
+      </c>
+      <c r="G998" s="1">
+        <v>1</v>
+      </c>
+      <c r="H998" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I998" s="1">
+        <v>1</v>
+      </c>
+      <c r="J998" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K998" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L998" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="999" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A999" s="2">
+        <v>997</v>
+      </c>
+      <c r="B999" s="2">
+        <f t="shared" si="70"/>
+        <v>3.0823414639601246E+136</v>
+      </c>
+      <c r="C999" s="1">
+        <v>30</v>
+      </c>
+      <c r="D999" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E999" s="1">
+        <v>3</v>
+      </c>
+      <c r="F999" s="1">
+        <v>14</v>
+      </c>
+      <c r="G999" s="1">
+        <v>1</v>
+      </c>
+      <c r="H999" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I999" s="1">
+        <v>1</v>
+      </c>
+      <c r="J999" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K999" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L999" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1000" s="2">
+        <v>998</v>
+      </c>
+      <c r="B1000" s="2">
+        <f t="shared" si="70"/>
+        <v>4.6235121959401867E+136</v>
+      </c>
+      <c r="C1000" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1000" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1000" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1000" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1000" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1000" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1000" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1000" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K1000" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L1000" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1001" s="2">
+        <v>999</v>
+      </c>
+      <c r="B1001" s="2">
+        <f t="shared" si="70"/>
+        <v>6.93526829391028E+136</v>
+      </c>
+      <c r="C1001" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1001" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1001" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1001" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1001" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1001" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1001" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1001" s="2">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="K1001" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L1001" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF445E32-D7E1-4526-A5DD-5D7EC2096970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5413DD72-A2A5-4AD8-BED8-7FDEBCDFBCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1001"/>
+  <dimension ref="A1:L1018"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A973" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B993" sqref="B993"/>
+      <pane ySplit="1" topLeftCell="A992" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1014" sqref="F1014"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -39537,7 +39537,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="2">
-        <f t="shared" ref="B976:B1001" si="70">B975*1.5</f>
+        <f t="shared" ref="B976:B1018" si="70">B975*1.5</f>
         <v>2.7465138298359682E+132</v>
       </c>
       <c r="C976" s="1">
@@ -40595,6 +40595,703 @@
         <v>0</v>
       </c>
       <c r="L1001" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1002" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B1002" s="2">
+        <f t="shared" si="70"/>
+        <v>1.040290244086542E+137</v>
+      </c>
+      <c r="C1002" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1002" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1002" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1002" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1002" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1002" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1002" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1002" s="2">
+        <f t="shared" ref="J1002:J1018" si="71">IF(MOD(A1002,5)=0,14,-1)</f>
+        <v>14</v>
+      </c>
+      <c r="K1002" s="2">
+        <f t="shared" ref="K1002:K1018" si="72">IF(J1002=14,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L1002" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1003" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B1003" s="2">
+        <f t="shared" si="70"/>
+        <v>1.560435366129813E+137</v>
+      </c>
+      <c r="C1003" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1003" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1003" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1003" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1003" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1003" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1003" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1003" s="2">
+        <f t="shared" si="71"/>
+        <v>-1</v>
+      </c>
+      <c r="K1003" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L1003" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1004" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B1004" s="2">
+        <f t="shared" si="70"/>
+        <v>2.3406530491947193E+137</v>
+      </c>
+      <c r="C1004" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1004" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1004" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1004" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1004" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1004" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1004" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1004" s="2">
+        <f t="shared" si="71"/>
+        <v>-1</v>
+      </c>
+      <c r="K1004" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L1004" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1005" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B1005" s="2">
+        <f t="shared" si="70"/>
+        <v>3.510979573792079E+137</v>
+      </c>
+      <c r="C1005" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1005" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1005" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1005" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1005" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1005" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1005" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1005" s="2">
+        <f t="shared" si="71"/>
+        <v>-1</v>
+      </c>
+      <c r="K1005" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L1005" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1006" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B1006" s="2">
+        <f t="shared" si="70"/>
+        <v>5.266469360688118E+137</v>
+      </c>
+      <c r="C1006" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1006" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1006" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1006" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1006" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1006" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1006" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1006" s="2">
+        <f t="shared" si="71"/>
+        <v>-1</v>
+      </c>
+      <c r="K1006" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L1006" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1007" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B1007" s="2">
+        <f t="shared" si="70"/>
+        <v>7.8997040410321779E+137</v>
+      </c>
+      <c r="C1007" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1007" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1007" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1007" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1007" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1007" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1007" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1007" s="2">
+        <f t="shared" si="71"/>
+        <v>14</v>
+      </c>
+      <c r="K1007" s="2">
+        <f t="shared" si="72"/>
+        <v>4</v>
+      </c>
+      <c r="L1007" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1008" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B1008" s="2">
+        <f t="shared" si="70"/>
+        <v>1.1849556061548267E+138</v>
+      </c>
+      <c r="C1008" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1008" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1008" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1008" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1008" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1008" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1008" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1008" s="2">
+        <f t="shared" si="71"/>
+        <v>-1</v>
+      </c>
+      <c r="K1008" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L1008" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1009" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B1009" s="2">
+        <f t="shared" si="70"/>
+        <v>1.77743340923224E+138</v>
+      </c>
+      <c r="C1009" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1009" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1009" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1009" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1009" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1009" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1009" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1009" s="2">
+        <f t="shared" si="71"/>
+        <v>-1</v>
+      </c>
+      <c r="K1009" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L1009" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1010" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B1010" s="2">
+        <f t="shared" si="70"/>
+        <v>2.6661501138483602E+138</v>
+      </c>
+      <c r="C1010" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1010" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1010" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1010" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1010" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1010" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1010" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1010" s="2">
+        <f t="shared" si="71"/>
+        <v>-1</v>
+      </c>
+      <c r="K1010" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L1010" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1011" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B1011" s="2">
+        <f t="shared" si="70"/>
+        <v>3.99922517077254E+138</v>
+      </c>
+      <c r="C1011" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1011" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1011" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1011" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1011" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1011" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1011" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1011" s="2">
+        <f t="shared" si="71"/>
+        <v>-1</v>
+      </c>
+      <c r="K1011" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L1011" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1012" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B1012" s="2">
+        <f t="shared" si="70"/>
+        <v>5.9988377561588099E+138</v>
+      </c>
+      <c r="C1012" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1012" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1012" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1012" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1012" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1012" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1012" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1012" s="2">
+        <f t="shared" si="71"/>
+        <v>14</v>
+      </c>
+      <c r="K1012" s="2">
+        <f t="shared" si="72"/>
+        <v>4</v>
+      </c>
+      <c r="L1012" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1013" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B1013" s="2">
+        <f t="shared" si="70"/>
+        <v>8.9982566342382149E+138</v>
+      </c>
+      <c r="C1013" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1013" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1013" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1013" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1013" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1013" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1013" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1013" s="2">
+        <f t="shared" si="71"/>
+        <v>-1</v>
+      </c>
+      <c r="K1013" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L1013" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1014" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B1014" s="2">
+        <f t="shared" si="70"/>
+        <v>1.3497384951357323E+139</v>
+      </c>
+      <c r="C1014" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1014" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1014" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1014" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1014" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1014" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1014" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1014" s="2">
+        <f t="shared" si="71"/>
+        <v>-1</v>
+      </c>
+      <c r="K1014" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L1014" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1015" s="2">
+        <v>1013</v>
+      </c>
+      <c r="B1015" s="2">
+        <f t="shared" si="70"/>
+        <v>2.0246077427035985E+139</v>
+      </c>
+      <c r="C1015" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1015" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1015" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1015" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1015" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1015" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1015" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1015" s="2">
+        <f t="shared" si="71"/>
+        <v>-1</v>
+      </c>
+      <c r="K1015" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L1015" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1016" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B1016" s="2">
+        <f t="shared" si="70"/>
+        <v>3.0369116140553975E+139</v>
+      </c>
+      <c r="C1016" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1016" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1016" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1016" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1016" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1016" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1016" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1016" s="2">
+        <f t="shared" si="71"/>
+        <v>-1</v>
+      </c>
+      <c r="K1016" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L1016" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1017" s="2">
+        <v>1015</v>
+      </c>
+      <c r="B1017" s="2">
+        <f t="shared" si="70"/>
+        <v>4.5553674210830963E+139</v>
+      </c>
+      <c r="C1017" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1017" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1017" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1017" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1017" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1017" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1017" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1017" s="2">
+        <f t="shared" si="71"/>
+        <v>14</v>
+      </c>
+      <c r="K1017" s="2">
+        <f t="shared" si="72"/>
+        <v>4</v>
+      </c>
+      <c r="L1017" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1018" s="2">
+        <v>1016</v>
+      </c>
+      <c r="B1018" s="2">
+        <f t="shared" si="70"/>
+        <v>6.833051131624645E+139</v>
+      </c>
+      <c r="C1018" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1018" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1018" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1018" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1018" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1018" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1018" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1018" s="2">
+        <f t="shared" si="71"/>
+        <v>-1</v>
+      </c>
+      <c r="K1018" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L1018" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5413DD72-A2A5-4AD8-BED8-7FDEBCDFBCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E65FD22-3E79-413A-8837-CC473B3F2E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1018"/>
+  <dimension ref="A1:L1041"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A992" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1014" sqref="F1014"/>
+      <pane ySplit="1" topLeftCell="A1012" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1030" sqref="B1030"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -39537,7 +39537,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="2">
-        <f t="shared" ref="B976:B1018" si="70">B975*1.5</f>
+        <f t="shared" ref="B976:B1042" si="70">B975*1.5</f>
         <v>2.7465138298359682E+132</v>
       </c>
       <c r="C976" s="1">
@@ -41292,6 +41292,949 @@
         <v>0</v>
       </c>
       <c r="L1018" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1019" s="2">
+        <v>1017</v>
+      </c>
+      <c r="B1019" s="2">
+        <f t="shared" si="70"/>
+        <v>1.0249576697436969E+140</v>
+      </c>
+      <c r="C1019" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1019" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1019" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1019" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1019" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1019" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1019" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1019" s="2">
+        <f t="shared" ref="J1019:J1042" si="73">IF(MOD(A1019,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1019" s="2">
+        <f t="shared" ref="K1019:K1042" si="74">IF(J1019=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1019" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1020" s="2">
+        <v>1018</v>
+      </c>
+      <c r="B1020" s="2">
+        <f t="shared" si="70"/>
+        <v>1.5374365046155453E+140</v>
+      </c>
+      <c r="C1020" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1020" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1020" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1020" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1020" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1020" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1020" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1020" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1020" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1020" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1021" s="2">
+        <v>1019</v>
+      </c>
+      <c r="B1021" s="2">
+        <f t="shared" si="70"/>
+        <v>2.3061547569233179E+140</v>
+      </c>
+      <c r="C1021" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1021" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1021" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1021" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1021" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1021" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1021" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1021" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1021" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1021" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1022" s="2">
+        <v>1020</v>
+      </c>
+      <c r="B1022" s="2">
+        <f t="shared" si="70"/>
+        <v>3.4592321353849767E+140</v>
+      </c>
+      <c r="C1022" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1022" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1022" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1022" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1022" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1022" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1022" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1022" s="2">
+        <f t="shared" si="73"/>
+        <v>14</v>
+      </c>
+      <c r="K1022" s="2">
+        <f t="shared" si="74"/>
+        <v>4</v>
+      </c>
+      <c r="L1022" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1023" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B1023" s="2">
+        <f t="shared" si="70"/>
+        <v>5.188848203077465E+140</v>
+      </c>
+      <c r="C1023" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1023" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1023" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1023" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1023" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1023" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1023" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1023" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1023" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1023" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1024" s="2">
+        <v>1022</v>
+      </c>
+      <c r="B1024" s="2">
+        <f t="shared" si="70"/>
+        <v>7.7832723046161967E+140</v>
+      </c>
+      <c r="C1024" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1024" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1024" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1024" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1024" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1024" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1024" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1024" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1024" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1024" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1025" s="2">
+        <v>1023</v>
+      </c>
+      <c r="B1025" s="2">
+        <f t="shared" si="70"/>
+        <v>1.1674908456924295E+141</v>
+      </c>
+      <c r="C1025" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1025" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1025" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1025" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1025" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1025" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1025" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1025" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1025" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1025" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1026" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B1026" s="2">
+        <f t="shared" si="70"/>
+        <v>1.7512362685386443E+141</v>
+      </c>
+      <c r="C1026" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1026" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1026" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1026" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1026" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1026" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1026" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1026" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1026" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1026" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1027" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B1027" s="2">
+        <f t="shared" si="70"/>
+        <v>2.6268544028079664E+141</v>
+      </c>
+      <c r="C1027" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1027" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1027" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1027" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1027" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1027" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1027" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1027" s="2">
+        <f t="shared" si="73"/>
+        <v>14</v>
+      </c>
+      <c r="K1027" s="2">
+        <f t="shared" si="74"/>
+        <v>4</v>
+      </c>
+      <c r="L1027" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1028" s="2">
+        <v>1026</v>
+      </c>
+      <c r="B1028" s="2">
+        <f t="shared" si="70"/>
+        <v>3.9402816042119494E+141</v>
+      </c>
+      <c r="C1028" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1028" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1028" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1028" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1028" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1028" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1028" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1028" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1028" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1028" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1029" s="2">
+        <v>1027</v>
+      </c>
+      <c r="B1029" s="2">
+        <f t="shared" si="70"/>
+        <v>5.9104224063179244E+141</v>
+      </c>
+      <c r="C1029" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1029" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1029" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1029" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1029" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1029" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1029" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1029" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1029" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1029" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1030" s="2">
+        <v>1028</v>
+      </c>
+      <c r="B1030" s="2">
+        <f t="shared" si="70"/>
+        <v>8.8656336094768873E+141</v>
+      </c>
+      <c r="C1030" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1030" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1030" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1030" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1030" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1030" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1030" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1030" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1030" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1030" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1031" s="2">
+        <v>1029</v>
+      </c>
+      <c r="B1031" s="2">
+        <f t="shared" si="70"/>
+        <v>1.329845041421533E+142</v>
+      </c>
+      <c r="C1031" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1031" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1031" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1031" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1031" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1031" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1031" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1031" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1031" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1031" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1032" s="2">
+        <v>1030</v>
+      </c>
+      <c r="B1032" s="2">
+        <f t="shared" si="70"/>
+        <v>1.9947675621322995E+142</v>
+      </c>
+      <c r="C1032" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1032" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1032" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1032" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1032" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1032" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1032" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1032" s="2">
+        <f t="shared" si="73"/>
+        <v>14</v>
+      </c>
+      <c r="K1032" s="2">
+        <f t="shared" si="74"/>
+        <v>4</v>
+      </c>
+      <c r="L1032" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1033" s="2">
+        <v>1031</v>
+      </c>
+      <c r="B1033" s="2">
+        <f t="shared" si="70"/>
+        <v>2.9921513431984492E+142</v>
+      </c>
+      <c r="C1033" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1033" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1033" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1033" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1033" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1033" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1033" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1033" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1033" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1033" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1034" s="2">
+        <v>1032</v>
+      </c>
+      <c r="B1034" s="2">
+        <f t="shared" si="70"/>
+        <v>4.4882270147976738E+142</v>
+      </c>
+      <c r="C1034" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1034" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1034" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1034" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1034" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1034" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1034" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1034" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1034" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1034" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1035" s="2">
+        <v>1033</v>
+      </c>
+      <c r="B1035" s="2">
+        <f t="shared" si="70"/>
+        <v>6.7323405221965109E+142</v>
+      </c>
+      <c r="C1035" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1035" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1035" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1035" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1035" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1035" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1035" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1035" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1035" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1035" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1036" s="2">
+        <v>1034</v>
+      </c>
+      <c r="B1036" s="2">
+        <f t="shared" si="70"/>
+        <v>1.0098510783294766E+143</v>
+      </c>
+      <c r="C1036" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1036" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1036" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1036" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1036" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1036" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1036" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1036" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1036" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1036" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1037" s="2">
+        <v>1035</v>
+      </c>
+      <c r="B1037" s="2">
+        <f t="shared" si="70"/>
+        <v>1.5147766174942148E+143</v>
+      </c>
+      <c r="C1037" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1037" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1037" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1037" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1037" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1037" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1037" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1037" s="2">
+        <f t="shared" si="73"/>
+        <v>14</v>
+      </c>
+      <c r="K1037" s="2">
+        <f t="shared" si="74"/>
+        <v>4</v>
+      </c>
+      <c r="L1037" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1038" s="2">
+        <v>1036</v>
+      </c>
+      <c r="B1038" s="2">
+        <f t="shared" si="70"/>
+        <v>2.2721649262413223E+143</v>
+      </c>
+      <c r="C1038" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1038" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1038" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1038" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1038" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1038" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1038" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1038" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1038" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1038" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1039" s="2">
+        <v>1037</v>
+      </c>
+      <c r="B1039" s="2">
+        <f t="shared" si="70"/>
+        <v>3.4082473893619834E+143</v>
+      </c>
+      <c r="C1039" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1039" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1039" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1039" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1039" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1039" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1039" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1039" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1039" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1039" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1040" s="2">
+        <v>1038</v>
+      </c>
+      <c r="B1040" s="2">
+        <f t="shared" si="70"/>
+        <v>5.1123710840429751E+143</v>
+      </c>
+      <c r="C1040" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1040" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1040" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1040" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1040" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1040" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1040" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1040" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1040" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1040" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1041" s="2">
+        <v>1039</v>
+      </c>
+      <c r="B1041" s="2">
+        <f t="shared" si="70"/>
+        <v>7.6685566260644622E+143</v>
+      </c>
+      <c r="C1041" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1041" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1041" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1041" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1041" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1041" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1041" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1041" s="2">
+        <f t="shared" si="73"/>
+        <v>-1</v>
+      </c>
+      <c r="K1041" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L1041" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E65FD22-3E79-413A-8837-CC473B3F2E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA97C97-E881-4111-84FB-FCB160D899AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1041"/>
+  <dimension ref="A1:L1064"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1012" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1030" sqref="B1030"/>
+      <pane ySplit="1" topLeftCell="A1042" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1060" sqref="H1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41325,11 +41325,11 @@
         <v>1</v>
       </c>
       <c r="J1019" s="2">
-        <f t="shared" ref="J1019:J1042" si="73">IF(MOD(A1019,5)=0,14,-1)</f>
+        <f t="shared" ref="J1019:J1041" si="73">IF(MOD(A1019,5)=0,14,-1)</f>
         <v>-1</v>
       </c>
       <c r="K1019" s="2">
-        <f t="shared" ref="K1019:K1042" si="74">IF(J1019=14,4,0)</f>
+        <f t="shared" ref="K1019:K1041" si="74">IF(J1019=14,4,0)</f>
         <v>0</v>
       </c>
       <c r="L1019" s="1">
@@ -42235,6 +42235,949 @@
         <v>0</v>
       </c>
       <c r="L1041" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1042" s="2">
+        <v>1040</v>
+      </c>
+      <c r="B1042" s="2">
+        <f t="shared" si="70"/>
+        <v>1.1502834939096694E+144</v>
+      </c>
+      <c r="C1042" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1042" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1042" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1042" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1042" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1042" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1042" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1042" s="2">
+        <f t="shared" ref="J1042:J1065" si="75">IF(MOD(A1042,5)=0,14,-1)</f>
+        <v>14</v>
+      </c>
+      <c r="K1042" s="2">
+        <f t="shared" ref="K1042:K1065" si="76">IF(J1042=14,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L1042" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1043" s="2">
+        <v>1041</v>
+      </c>
+      <c r="B1043" s="2">
+        <f t="shared" ref="B1043:B1065" si="77">B1042*1.5</f>
+        <v>1.7254252408645041E+144</v>
+      </c>
+      <c r="C1043" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1043" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1043" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1043" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1043" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1043" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1043" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1043" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1043" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1043" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1044" s="2">
+        <v>1042</v>
+      </c>
+      <c r="B1044" s="2">
+        <f t="shared" si="77"/>
+        <v>2.5881378612967564E+144</v>
+      </c>
+      <c r="C1044" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1044" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1044" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1044" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1044" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1044" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1044" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1044" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1044" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1044" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1045" s="2">
+        <v>1043</v>
+      </c>
+      <c r="B1045" s="2">
+        <f t="shared" si="77"/>
+        <v>3.8822067919451342E+144</v>
+      </c>
+      <c r="C1045" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1045" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1045" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1045" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1045" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1045" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1045" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1045" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1045" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1045" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1046" s="2">
+        <v>1044</v>
+      </c>
+      <c r="B1046" s="2">
+        <f t="shared" si="77"/>
+        <v>5.8233101879177013E+144</v>
+      </c>
+      <c r="C1046" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1046" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1046" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1046" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1046" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1046" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1046" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1046" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1046" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1046" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1047" s="2">
+        <v>1045</v>
+      </c>
+      <c r="B1047" s="2">
+        <f t="shared" si="77"/>
+        <v>8.734965281876552E+144</v>
+      </c>
+      <c r="C1047" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1047" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1047" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1047" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1047" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1047" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1047" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1047" s="2">
+        <f t="shared" si="75"/>
+        <v>14</v>
+      </c>
+      <c r="K1047" s="2">
+        <f t="shared" si="76"/>
+        <v>4</v>
+      </c>
+      <c r="L1047" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1048" s="2">
+        <v>1046</v>
+      </c>
+      <c r="B1048" s="2">
+        <f t="shared" si="77"/>
+        <v>1.3102447922814828E+145</v>
+      </c>
+      <c r="C1048" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1048" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1048" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1048" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1048" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1048" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1048" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1048" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1048" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1048" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1049" s="2">
+        <v>1047</v>
+      </c>
+      <c r="B1049" s="2">
+        <f t="shared" si="77"/>
+        <v>1.9653671884222243E+145</v>
+      </c>
+      <c r="C1049" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1049" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1049" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1049" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1049" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1049" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1049" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1049" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1049" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1049" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1050" s="2">
+        <v>1048</v>
+      </c>
+      <c r="B1050" s="2">
+        <f t="shared" si="77"/>
+        <v>2.9480507826333365E+145</v>
+      </c>
+      <c r="C1050" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1050" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1050" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1050" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1050" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1050" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1050" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1050" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1050" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1050" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1051" s="2">
+        <v>1049</v>
+      </c>
+      <c r="B1051" s="2">
+        <f t="shared" si="77"/>
+        <v>4.4220761739500048E+145</v>
+      </c>
+      <c r="C1051" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1051" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1051" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1051" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1051" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1051" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1051" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1051" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1051" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1051" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1052" s="2">
+        <v>1050</v>
+      </c>
+      <c r="B1052" s="2">
+        <f t="shared" si="77"/>
+        <v>6.6331142609250068E+145</v>
+      </c>
+      <c r="C1052" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1052" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1052" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1052" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1052" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1052" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1052" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1052" s="2">
+        <f t="shared" si="75"/>
+        <v>14</v>
+      </c>
+      <c r="K1052" s="2">
+        <f t="shared" si="76"/>
+        <v>4</v>
+      </c>
+      <c r="L1052" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1053" s="2">
+        <v>1051</v>
+      </c>
+      <c r="B1053" s="2">
+        <f t="shared" si="77"/>
+        <v>9.9496713913875103E+145</v>
+      </c>
+      <c r="C1053" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1053" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1053" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1053" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1053" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1053" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1053" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1053" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1053" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1053" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1054" s="2">
+        <v>1052</v>
+      </c>
+      <c r="B1054" s="2">
+        <f t="shared" si="77"/>
+        <v>1.4924507087081266E+146</v>
+      </c>
+      <c r="C1054" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1054" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1054" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1054" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1054" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1054" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1054" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1054" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1054" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1054" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1055" s="2">
+        <v>1053</v>
+      </c>
+      <c r="B1055" s="2">
+        <f t="shared" si="77"/>
+        <v>2.2386760630621898E+146</v>
+      </c>
+      <c r="C1055" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1055" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1055" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1055" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1055" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1055" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1055" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1055" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1055" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1055" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1056" s="2">
+        <v>1054</v>
+      </c>
+      <c r="B1056" s="2">
+        <f t="shared" si="77"/>
+        <v>3.3580140945932845E+146</v>
+      </c>
+      <c r="C1056" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1056" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1056" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1056" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1056" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1056" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1056" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1056" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1056" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1056" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1057" s="2">
+        <v>1055</v>
+      </c>
+      <c r="B1057" s="2">
+        <f t="shared" si="77"/>
+        <v>5.0370211418899271E+146</v>
+      </c>
+      <c r="C1057" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1057" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1057" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1057" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1057" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1057" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1057" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1057" s="2">
+        <f t="shared" si="75"/>
+        <v>14</v>
+      </c>
+      <c r="K1057" s="2">
+        <f t="shared" si="76"/>
+        <v>4</v>
+      </c>
+      <c r="L1057" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1058" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B1058" s="2">
+        <f t="shared" si="77"/>
+        <v>7.5555317128348907E+146</v>
+      </c>
+      <c r="C1058" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1058" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1058" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1058" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1058" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1058" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1058" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1058" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1058" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1058" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1059" s="2">
+        <v>1057</v>
+      </c>
+      <c r="B1059" s="2">
+        <f t="shared" si="77"/>
+        <v>1.1333297569252336E+147</v>
+      </c>
+      <c r="C1059" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1059" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1059" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1059" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1059" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1059" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1059" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1059" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1059" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1059" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1060" s="2">
+        <v>1058</v>
+      </c>
+      <c r="B1060" s="2">
+        <f t="shared" si="77"/>
+        <v>1.6999946353878503E+147</v>
+      </c>
+      <c r="C1060" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1060" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1060" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1060" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1060" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1060" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1060" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1060" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1060" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1060" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1061" s="2">
+        <v>1059</v>
+      </c>
+      <c r="B1061" s="2">
+        <f t="shared" si="77"/>
+        <v>2.5499919530817755E+147</v>
+      </c>
+      <c r="C1061" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1061" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1061" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1061" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1061" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1061" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1061" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1061" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1061" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1061" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1062" s="2">
+        <v>1060</v>
+      </c>
+      <c r="B1062" s="2">
+        <f t="shared" si="77"/>
+        <v>3.8249879296226629E+147</v>
+      </c>
+      <c r="C1062" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1062" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1062" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1062" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1062" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1062" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1062" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1062" s="2">
+        <f t="shared" si="75"/>
+        <v>14</v>
+      </c>
+      <c r="K1062" s="2">
+        <f t="shared" si="76"/>
+        <v>4</v>
+      </c>
+      <c r="L1062" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1063" s="2">
+        <v>1061</v>
+      </c>
+      <c r="B1063" s="2">
+        <f t="shared" si="77"/>
+        <v>5.7374818944339944E+147</v>
+      </c>
+      <c r="C1063" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1063" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1063" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1063" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1063" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1063" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1063" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1063" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1063" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1063" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1064" s="2">
+        <v>1062</v>
+      </c>
+      <c r="B1064" s="2">
+        <f t="shared" si="77"/>
+        <v>8.6062228416509915E+147</v>
+      </c>
+      <c r="C1064" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1064" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1064" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1064" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1064" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1064" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1064" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1064" s="2">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="K1064" s="2">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="L1064" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA97C97-E881-4111-84FB-FCB160D899AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075D02A1-B4ED-4897-8480-F0328D3111D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1064"/>
+  <dimension ref="A1:L1087"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1042" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1060" sqref="H1060"/>
+      <pane ySplit="1" topLeftCell="A1057" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1058" sqref="B1058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -42268,11 +42268,11 @@
         <v>1</v>
       </c>
       <c r="J1042" s="2">
-        <f t="shared" ref="J1042:J1065" si="75">IF(MOD(A1042,5)=0,14,-1)</f>
+        <f t="shared" ref="J1042:J1064" si="75">IF(MOD(A1042,5)=0,14,-1)</f>
         <v>14</v>
       </c>
       <c r="K1042" s="2">
-        <f t="shared" ref="K1042:K1065" si="76">IF(J1042=14,4,0)</f>
+        <f t="shared" ref="K1042:K1064" si="76">IF(J1042=14,4,0)</f>
         <v>4</v>
       </c>
       <c r="L1042" s="1">
@@ -42284,7 +42284,7 @@
         <v>1041</v>
       </c>
       <c r="B1043" s="2">
-        <f t="shared" ref="B1043:B1065" si="77">B1042*1.5</f>
+        <f t="shared" ref="B1043:B1087" si="77">B1042*1.5</f>
         <v>1.7254252408645041E+144</v>
       </c>
       <c r="C1043" s="1">
@@ -43178,6 +43178,949 @@
         <v>0</v>
       </c>
       <c r="L1064" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1065" s="2">
+        <v>1063</v>
+      </c>
+      <c r="B1065" s="2">
+        <f t="shared" si="77"/>
+        <v>1.2909334262476487E+148</v>
+      </c>
+      <c r="C1065" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1065" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1065" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1065" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1065" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1065" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1065" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1065" s="2">
+        <f t="shared" ref="J1065:J1086" si="78">IF(MOD(A1065,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1065" s="2">
+        <f t="shared" ref="K1065:K1086" si="79">IF(J1065=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1065" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1066" s="2">
+        <v>1064</v>
+      </c>
+      <c r="B1066" s="2">
+        <f t="shared" si="77"/>
+        <v>1.9364001393714731E+148</v>
+      </c>
+      <c r="C1066" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1066" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1066" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1066" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1066" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1066" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1066" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1066" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1066" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1066" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1067" s="2">
+        <v>1065</v>
+      </c>
+      <c r="B1067" s="2">
+        <f t="shared" si="77"/>
+        <v>2.9046002090572098E+148</v>
+      </c>
+      <c r="C1067" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1067" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1067" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1067" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1067" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1067" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1067" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1067" s="2">
+        <f t="shared" si="78"/>
+        <v>14</v>
+      </c>
+      <c r="K1067" s="2">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="L1067" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1068" s="2">
+        <v>1066</v>
+      </c>
+      <c r="B1068" s="2">
+        <f t="shared" si="77"/>
+        <v>4.3569003135858147E+148</v>
+      </c>
+      <c r="C1068" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1068" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1068" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1068" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1068" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1068" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1068" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1068" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1068" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1068" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1069" s="2">
+        <v>1067</v>
+      </c>
+      <c r="B1069" s="2">
+        <f t="shared" si="77"/>
+        <v>6.5353504703787223E+148</v>
+      </c>
+      <c r="C1069" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1069" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1069" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1069" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1069" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1069" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1069" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1069" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1069" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1069" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1070" s="2">
+        <v>1068</v>
+      </c>
+      <c r="B1070" s="2">
+        <f t="shared" si="77"/>
+        <v>9.803025705568084E+148</v>
+      </c>
+      <c r="C1070" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1070" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1070" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1070" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1070" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1070" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1070" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1070" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1070" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1070" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1071" s="2">
+        <v>1069</v>
+      </c>
+      <c r="B1071" s="2">
+        <f t="shared" si="77"/>
+        <v>1.4704538558352127E+149</v>
+      </c>
+      <c r="C1071" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1071" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1071" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1071" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1071" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1071" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1071" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1071" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1071" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1071" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1072" s="2">
+        <v>1070</v>
+      </c>
+      <c r="B1072" s="2">
+        <f t="shared" si="77"/>
+        <v>2.2056807837528191E+149</v>
+      </c>
+      <c r="C1072" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1072" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1072" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1072" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1072" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1072" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1072" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1072" s="2">
+        <f t="shared" si="78"/>
+        <v>14</v>
+      </c>
+      <c r="K1072" s="2">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="L1072" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1073" s="2">
+        <v>1071</v>
+      </c>
+      <c r="B1073" s="2">
+        <f t="shared" si="77"/>
+        <v>3.3085211756292286E+149</v>
+      </c>
+      <c r="C1073" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1073" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1073" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1073" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1073" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1073" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1073" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1073" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1073" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1073" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1074" s="2">
+        <v>1072</v>
+      </c>
+      <c r="B1074" s="2">
+        <f t="shared" si="77"/>
+        <v>4.9627817634438431E+149</v>
+      </c>
+      <c r="C1074" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1074" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1074" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1074" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1074" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1074" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1074" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1074" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1074" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1074" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1075" s="2">
+        <v>1073</v>
+      </c>
+      <c r="B1075" s="2">
+        <f t="shared" si="77"/>
+        <v>7.4441726451657647E+149</v>
+      </c>
+      <c r="C1075" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1075" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1075" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1075" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1075" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1075" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1075" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1075" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1075" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1075" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1076" s="2">
+        <v>1074</v>
+      </c>
+      <c r="B1076" s="2">
+        <f t="shared" si="77"/>
+        <v>1.1166258967748648E+150</v>
+      </c>
+      <c r="C1076" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1076" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1076" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1076" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1076" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1076" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1076" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1076" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1076" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1076" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1077" s="2">
+        <v>1075</v>
+      </c>
+      <c r="B1077" s="2">
+        <f t="shared" si="77"/>
+        <v>1.674938845162297E+150</v>
+      </c>
+      <c r="C1077" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1077" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1077" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1077" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1077" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1077" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1077" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1077" s="2">
+        <f t="shared" si="78"/>
+        <v>14</v>
+      </c>
+      <c r="K1077" s="2">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="L1077" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1078" s="2">
+        <v>1076</v>
+      </c>
+      <c r="B1078" s="2">
+        <f t="shared" si="77"/>
+        <v>2.5124082677434455E+150</v>
+      </c>
+      <c r="C1078" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1078" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1078" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1078" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1078" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1078" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1078" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1078" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1078" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1078" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1079" s="2">
+        <v>1077</v>
+      </c>
+      <c r="B1079" s="2">
+        <f t="shared" si="77"/>
+        <v>3.7686124016151679E+150</v>
+      </c>
+      <c r="C1079" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1079" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1079" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1079" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1079" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1079" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1079" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1079" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1079" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1079" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1080" s="2">
+        <v>1078</v>
+      </c>
+      <c r="B1080" s="2">
+        <f t="shared" si="77"/>
+        <v>5.6529186024227519E+150</v>
+      </c>
+      <c r="C1080" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1080" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1080" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1080" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1080" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1080" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1080" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1080" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1080" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1080" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1081" s="2">
+        <v>1079</v>
+      </c>
+      <c r="B1081" s="2">
+        <f t="shared" si="77"/>
+        <v>8.4793779036341278E+150</v>
+      </c>
+      <c r="C1081" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1081" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1081" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1081" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1081" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1081" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1081" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1081" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1081" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1081" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1082" s="2">
+        <v>1080</v>
+      </c>
+      <c r="B1082" s="2">
+        <f t="shared" si="77"/>
+        <v>1.2719066855451192E+151</v>
+      </c>
+      <c r="C1082" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1082" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1082" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1082" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1082" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1082" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1082" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1082" s="2">
+        <f t="shared" si="78"/>
+        <v>14</v>
+      </c>
+      <c r="K1082" s="2">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="L1082" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1083" s="2">
+        <v>1081</v>
+      </c>
+      <c r="B1083" s="2">
+        <f t="shared" si="77"/>
+        <v>1.9078600283176788E+151</v>
+      </c>
+      <c r="C1083" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1083" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1083" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1083" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1083" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1083" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1083" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1083" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1083" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1083" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1084" s="2">
+        <v>1082</v>
+      </c>
+      <c r="B1084" s="2">
+        <f t="shared" si="77"/>
+        <v>2.8617900424765183E+151</v>
+      </c>
+      <c r="C1084" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1084" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1084" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1084" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1084" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1084" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1084" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1084" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1084" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1084" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1085" s="2">
+        <v>1083</v>
+      </c>
+      <c r="B1085" s="2">
+        <f t="shared" si="77"/>
+        <v>4.2926850637147774E+151</v>
+      </c>
+      <c r="C1085" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1085" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1085" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1085" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1085" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1085" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1085" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1085" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1085" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1085" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1086" s="2">
+        <v>1084</v>
+      </c>
+      <c r="B1086" s="2">
+        <f t="shared" si="77"/>
+        <v>6.4390275955721661E+151</v>
+      </c>
+      <c r="C1086" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1086" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1086" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1086" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1086" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1086" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1086" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1086" s="2">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="K1086" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L1086" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1087" s="2">
+        <v>1085</v>
+      </c>
+      <c r="B1087" s="2">
+        <f t="shared" si="77"/>
+        <v>9.6585413933582498E+151</v>
+      </c>
+      <c r="C1087" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1087" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1087" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1087" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1087" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1087" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1087" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1087" s="2">
+        <f t="shared" ref="J1087" si="80">IF(MOD(A1087,5)=0,14,-1)</f>
+        <v>14</v>
+      </c>
+      <c r="K1087" s="2">
+        <f t="shared" ref="K1087" si="81">IF(J1087=14,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L1087" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075D02A1-B4ED-4897-8480-F0328D3111D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48E23E8-DD9B-48FB-8626-5DC26E5E8635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1087"/>
+  <dimension ref="A1:L1109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1057" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1058" sqref="B1058"/>
+      <pane ySplit="1" topLeftCell="A1078" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1085" sqref="G1085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -42284,7 +42284,7 @@
         <v>1041</v>
       </c>
       <c r="B1043" s="2">
-        <f t="shared" ref="B1043:B1087" si="77">B1042*1.5</f>
+        <f t="shared" ref="B1043:B1106" si="77">B1042*1.5</f>
         <v>1.7254252408645041E+144</v>
       </c>
       <c r="C1043" s="1">
@@ -44113,14 +44113,916 @@
         <v>1</v>
       </c>
       <c r="J1087" s="2">
-        <f t="shared" ref="J1087" si="80">IF(MOD(A1087,5)=0,14,-1)</f>
+        <f t="shared" ref="J1087:J1096" si="80">IF(MOD(A1087,5)=0,14,-1)</f>
         <v>14</v>
       </c>
       <c r="K1087" s="2">
-        <f t="shared" ref="K1087" si="81">IF(J1087=14,4,0)</f>
+        <f t="shared" ref="K1087:K1096" si="81">IF(J1087=14,4,0)</f>
         <v>4</v>
       </c>
       <c r="L1087" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1088" s="2">
+        <v>1086</v>
+      </c>
+      <c r="B1088" s="2">
+        <f t="shared" si="77"/>
+        <v>1.4487812090037375E+152</v>
+      </c>
+      <c r="C1088" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1088" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1088" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1088" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1088" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1088" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1088" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1088" s="2">
+        <f t="shared" si="80"/>
+        <v>-1</v>
+      </c>
+      <c r="K1088" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="L1088" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1089" s="2">
+        <v>1087</v>
+      </c>
+      <c r="B1089" s="2">
+        <f t="shared" si="77"/>
+        <v>2.1731718135056062E+152</v>
+      </c>
+      <c r="C1089" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1089" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1089" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1089" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1089" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1089" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1089" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1089" s="2">
+        <f t="shared" si="80"/>
+        <v>-1</v>
+      </c>
+      <c r="K1089" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="L1089" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1090" s="2">
+        <v>1088</v>
+      </c>
+      <c r="B1090" s="2">
+        <f t="shared" si="77"/>
+        <v>3.2597577202584095E+152</v>
+      </c>
+      <c r="C1090" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1090" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1090" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1090" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1090" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1090" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1090" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1090" s="2">
+        <f t="shared" si="80"/>
+        <v>-1</v>
+      </c>
+      <c r="K1090" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="L1090" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1091" s="2">
+        <v>1089</v>
+      </c>
+      <c r="B1091" s="2">
+        <f t="shared" si="77"/>
+        <v>4.8896365803876148E+152</v>
+      </c>
+      <c r="C1091" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1091" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1091" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1091" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1091" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1091" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1091" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1091" s="2">
+        <f t="shared" si="80"/>
+        <v>-1</v>
+      </c>
+      <c r="K1091" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="L1091" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1092" s="2">
+        <v>1090</v>
+      </c>
+      <c r="B1092" s="2">
+        <f t="shared" si="77"/>
+        <v>7.3344548705814222E+152</v>
+      </c>
+      <c r="C1092" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1092" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1092" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1092" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1092" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1092" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1092" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1092" s="2">
+        <f t="shared" si="80"/>
+        <v>14</v>
+      </c>
+      <c r="K1092" s="2">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="L1092" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1093" s="2">
+        <v>1091</v>
+      </c>
+      <c r="B1093" s="2">
+        <f t="shared" si="77"/>
+        <v>1.1001682305872133E+153</v>
+      </c>
+      <c r="C1093" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1093" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1093" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1093" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1093" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1093" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1093" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1093" s="2">
+        <f t="shared" si="80"/>
+        <v>-1</v>
+      </c>
+      <c r="K1093" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="L1093" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1094" s="2">
+        <v>1092</v>
+      </c>
+      <c r="B1094" s="2">
+        <f t="shared" si="77"/>
+        <v>1.65025234588082E+153</v>
+      </c>
+      <c r="C1094" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1094" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1094" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1094" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1094" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1094" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1094" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1094" s="2">
+        <f t="shared" si="80"/>
+        <v>-1</v>
+      </c>
+      <c r="K1094" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="L1094" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1095" s="2">
+        <v>1093</v>
+      </c>
+      <c r="B1095" s="2">
+        <f t="shared" si="77"/>
+        <v>2.47537851882123E+153</v>
+      </c>
+      <c r="C1095" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1095" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1095" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1095" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1095" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1095" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1095" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1095" s="2">
+        <f t="shared" si="80"/>
+        <v>-1</v>
+      </c>
+      <c r="K1095" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="L1095" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1096" s="2">
+        <v>1094</v>
+      </c>
+      <c r="B1096" s="2">
+        <f t="shared" si="77"/>
+        <v>3.713067778231845E+153</v>
+      </c>
+      <c r="C1096" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1096" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1096" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1096" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1096" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1096" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1096" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1096" s="2">
+        <f t="shared" si="80"/>
+        <v>-1</v>
+      </c>
+      <c r="K1096" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="L1096" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1097" s="2">
+        <v>1095</v>
+      </c>
+      <c r="B1097" s="2">
+        <f t="shared" si="77"/>
+        <v>5.5696016673477678E+153</v>
+      </c>
+      <c r="C1097" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1097" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1097" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1097" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1097" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1097" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1097" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1097" s="2">
+        <f t="shared" ref="J1097:J1109" si="82">IF(MOD(A1097,5)=0,14,-1)</f>
+        <v>14</v>
+      </c>
+      <c r="K1097" s="2">
+        <f t="shared" ref="K1097:K1109" si="83">IF(J1097=14,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L1097" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1098" s="2">
+        <v>1096</v>
+      </c>
+      <c r="B1098" s="2">
+        <f t="shared" si="77"/>
+        <v>8.354402501021651E+153</v>
+      </c>
+      <c r="C1098" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1098" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1098" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1098" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1098" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1098" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1098" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1098" s="2">
+        <f t="shared" si="82"/>
+        <v>-1</v>
+      </c>
+      <c r="K1098" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="L1098" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1099" s="2">
+        <v>1097</v>
+      </c>
+      <c r="B1099" s="2">
+        <f t="shared" si="77"/>
+        <v>1.2531603751532476E+154</v>
+      </c>
+      <c r="C1099" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1099" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1099" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1099" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1099" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1099" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1099" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1099" s="2">
+        <f t="shared" si="82"/>
+        <v>-1</v>
+      </c>
+      <c r="K1099" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="L1099" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1100" s="2">
+        <v>1098</v>
+      </c>
+      <c r="B1100" s="2">
+        <f t="shared" si="77"/>
+        <v>1.8797405627298715E+154</v>
+      </c>
+      <c r="C1100" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1100" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1100" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1100" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1100" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1100" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1100" s="2">
+        <f t="shared" si="82"/>
+        <v>-1</v>
+      </c>
+      <c r="K1100" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="L1100" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1101" s="2">
+        <v>1099</v>
+      </c>
+      <c r="B1101" s="2">
+        <f t="shared" si="77"/>
+        <v>2.8196108440948071E+154</v>
+      </c>
+      <c r="C1101" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1101" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1101" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1101" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1101" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1101" s="2">
+        <f t="shared" si="82"/>
+        <v>-1</v>
+      </c>
+      <c r="K1101" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="L1101" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1102" s="2">
+        <v>1100</v>
+      </c>
+      <c r="B1102" s="2">
+        <f t="shared" si="77"/>
+        <v>4.2294162661422106E+154</v>
+      </c>
+      <c r="C1102" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1102" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1102" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1102" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1102" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1102" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1102" s="2">
+        <f t="shared" si="82"/>
+        <v>14</v>
+      </c>
+      <c r="K1102" s="2">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="L1102" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1103" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B1103" s="2">
+        <f t="shared" si="77"/>
+        <v>6.3441243992133156E+154</v>
+      </c>
+      <c r="C1103" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1103" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1103" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1103" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1103" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1103" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1103" s="2">
+        <f t="shared" si="82"/>
+        <v>-1</v>
+      </c>
+      <c r="K1103" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="L1103" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1104" s="2">
+        <v>1102</v>
+      </c>
+      <c r="B1104" s="2">
+        <f t="shared" si="77"/>
+        <v>9.5161865988199734E+154</v>
+      </c>
+      <c r="C1104" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1104" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1104" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1104" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1104" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1104" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1104" s="2">
+        <f t="shared" si="82"/>
+        <v>-1</v>
+      </c>
+      <c r="K1104" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="L1104" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1105" s="2">
+        <v>1103</v>
+      </c>
+      <c r="B1105" s="2">
+        <f t="shared" si="77"/>
+        <v>1.427427989822996E+155</v>
+      </c>
+      <c r="C1105" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1105" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1105" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1105" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1105" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1105" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1105" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1105" s="2">
+        <f t="shared" si="82"/>
+        <v>-1</v>
+      </c>
+      <c r="K1105" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="L1105" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1106" s="2">
+        <v>1104</v>
+      </c>
+      <c r="B1106" s="2">
+        <f t="shared" si="77"/>
+        <v>2.141141984734494E+155</v>
+      </c>
+      <c r="C1106" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1106" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1106" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1106" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1106" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1106" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1106" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1106" s="2">
+        <f t="shared" si="82"/>
+        <v>-1</v>
+      </c>
+      <c r="K1106" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="L1106" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1107" s="2">
+        <v>1105</v>
+      </c>
+      <c r="B1107" s="2">
+        <f t="shared" ref="B1107:B1109" si="84">B1106*1.5</f>
+        <v>3.211712977101741E+155</v>
+      </c>
+      <c r="C1107" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1107" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1107" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1107" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1107" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1107" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1107" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1107" s="2">
+        <f t="shared" si="82"/>
+        <v>14</v>
+      </c>
+      <c r="K1107" s="2">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="L1107" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1108" s="2">
+        <v>1106</v>
+      </c>
+      <c r="B1108" s="2">
+        <f t="shared" si="84"/>
+        <v>4.817569465652612E+155</v>
+      </c>
+      <c r="C1108" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1108" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1108" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1108" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1108" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1108" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1108" s="2">
+        <f t="shared" si="82"/>
+        <v>-1</v>
+      </c>
+      <c r="K1108" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="L1108" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1109" s="2">
+        <v>1107</v>
+      </c>
+      <c r="B1109" s="2">
+        <f t="shared" si="84"/>
+        <v>7.226354198478918E+155</v>
+      </c>
+      <c r="C1109" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1109" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1109" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1109" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1109" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1109" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1109" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1109" s="2">
+        <f t="shared" si="82"/>
+        <v>-1</v>
+      </c>
+      <c r="K1109" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="L1109" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48E23E8-DD9B-48FB-8626-5DC26E5E8635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E9B96-63C5-49A8-87B8-DD2044043930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1109"/>
+  <dimension ref="A1:L1132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1078" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1085" sqref="G1085"/>
+      <pane ySplit="1" topLeftCell="A1099" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1120" sqref="D1120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -44908,7 +44908,7 @@
         <v>1105</v>
       </c>
       <c r="B1107" s="2">
-        <f t="shared" ref="B1107:B1109" si="84">B1106*1.5</f>
+        <f t="shared" ref="B1107:B1132" si="84">B1106*1.5</f>
         <v>3.211712977101741E+155</v>
       </c>
       <c r="C1107" s="1">
@@ -45023,6 +45023,949 @@
         <v>0</v>
       </c>
       <c r="L1109" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1110" s="2">
+        <v>1108</v>
+      </c>
+      <c r="B1110" s="2">
+        <f t="shared" si="84"/>
+        <v>1.0839531297718377E+156</v>
+      </c>
+      <c r="C1110" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1110" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1110" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1110" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1110" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1110" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1110" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1110" s="2">
+        <f t="shared" ref="J1110:J1132" si="85">IF(MOD(A1110,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1110" s="2">
+        <f t="shared" ref="K1110:K1132" si="86">IF(J1110=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1110" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1111" s="2">
+        <v>1109</v>
+      </c>
+      <c r="B1111" s="2">
+        <f t="shared" si="84"/>
+        <v>1.6259296946577565E+156</v>
+      </c>
+      <c r="C1111" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1111" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1111" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1111" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1111" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1111" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1111" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1111" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1111" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1111" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1112" s="2">
+        <v>1110</v>
+      </c>
+      <c r="B1112" s="2">
+        <f t="shared" si="84"/>
+        <v>2.4388945419866349E+156</v>
+      </c>
+      <c r="C1112" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1112" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1112" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1112" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1112" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1112" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1112" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1112" s="2">
+        <f t="shared" si="85"/>
+        <v>14</v>
+      </c>
+      <c r="K1112" s="2">
+        <f t="shared" si="86"/>
+        <v>4</v>
+      </c>
+      <c r="L1112" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1113" s="2">
+        <v>1111</v>
+      </c>
+      <c r="B1113" s="2">
+        <f t="shared" si="84"/>
+        <v>3.6583418129799524E+156</v>
+      </c>
+      <c r="C1113" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1113" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1113" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1113" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1113" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1113" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1113" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1113" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1113" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1114" s="2">
+        <v>1112</v>
+      </c>
+      <c r="B1114" s="2">
+        <f t="shared" si="84"/>
+        <v>5.4875127194699289E+156</v>
+      </c>
+      <c r="C1114" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1114" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1114" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1114" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1114" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1114" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1114" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1114" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1114" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1114" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1115" s="2">
+        <v>1113</v>
+      </c>
+      <c r="B1115" s="2">
+        <f t="shared" si="84"/>
+        <v>8.2312690792048934E+156</v>
+      </c>
+      <c r="C1115" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1115" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1115" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1115" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1115" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1115" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1115" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1115" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1115" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1115" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1116" s="2">
+        <v>1114</v>
+      </c>
+      <c r="B1116" s="2">
+        <f t="shared" si="84"/>
+        <v>1.234690361880734E+157</v>
+      </c>
+      <c r="C1116" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1116" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1116" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1116" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1116" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1116" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1116" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1116" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1116" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1116" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1117" s="2">
+        <v>1115</v>
+      </c>
+      <c r="B1117" s="2">
+        <f t="shared" si="84"/>
+        <v>1.8520355428211011E+157</v>
+      </c>
+      <c r="C1117" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1117" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1117" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1117" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1117" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1117" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1117" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1117" s="2">
+        <f t="shared" si="85"/>
+        <v>14</v>
+      </c>
+      <c r="K1117" s="2">
+        <f t="shared" si="86"/>
+        <v>4</v>
+      </c>
+      <c r="L1117" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1118" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B1118" s="2">
+        <f t="shared" si="84"/>
+        <v>2.7780533142316513E+157</v>
+      </c>
+      <c r="C1118" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1118" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1118" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1118" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1118" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1118" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1118" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1118" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1118" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1119" s="2">
+        <v>1117</v>
+      </c>
+      <c r="B1119" s="2">
+        <f t="shared" si="84"/>
+        <v>4.167079971347477E+157</v>
+      </c>
+      <c r="C1119" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1119" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1119" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1119" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1119" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1119" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1119" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1119" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1119" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1119" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1120" s="2">
+        <v>1118</v>
+      </c>
+      <c r="B1120" s="2">
+        <f t="shared" si="84"/>
+        <v>6.2506199570212155E+157</v>
+      </c>
+      <c r="C1120" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1120" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1120" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1120" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1120" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1120" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1120" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1120" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1120" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1120" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1121" s="2">
+        <v>1119</v>
+      </c>
+      <c r="B1121" s="2">
+        <f t="shared" si="84"/>
+        <v>9.3759299355318226E+157</v>
+      </c>
+      <c r="C1121" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1121" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1121" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1121" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1121" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1121" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1121" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1121" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1121" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1121" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1122" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B1122" s="2">
+        <f t="shared" si="84"/>
+        <v>1.4063894903297734E+158</v>
+      </c>
+      <c r="C1122" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1122" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1122" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1122" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1122" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1122" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1122" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1122" s="2">
+        <f t="shared" si="85"/>
+        <v>14</v>
+      </c>
+      <c r="K1122" s="2">
+        <f t="shared" si="86"/>
+        <v>4</v>
+      </c>
+      <c r="L1122" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1123" s="2">
+        <v>1121</v>
+      </c>
+      <c r="B1123" s="2">
+        <f t="shared" si="84"/>
+        <v>2.1095842354946602E+158</v>
+      </c>
+      <c r="C1123" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1123" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1123" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1123" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1123" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1123" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1123" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1123" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1123" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1123" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1124" s="2">
+        <v>1122</v>
+      </c>
+      <c r="B1124" s="2">
+        <f t="shared" si="84"/>
+        <v>3.1643763532419903E+158</v>
+      </c>
+      <c r="C1124" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1124" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1124" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1124" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1124" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1124" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1124" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1124" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1124" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1124" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1125" s="2">
+        <v>1123</v>
+      </c>
+      <c r="B1125" s="2">
+        <f t="shared" si="84"/>
+        <v>4.7465645298629855E+158</v>
+      </c>
+      <c r="C1125" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1125" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1125" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1125" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1125" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1125" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1125" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1125" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1125" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1125" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1126" s="2">
+        <v>1124</v>
+      </c>
+      <c r="B1126" s="2">
+        <f t="shared" si="84"/>
+        <v>7.1198467947944782E+158</v>
+      </c>
+      <c r="C1126" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1126" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1126" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1126" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1126" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1126" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1126" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1126" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1126" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1126" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1127" s="2">
+        <v>1125</v>
+      </c>
+      <c r="B1127" s="2">
+        <f t="shared" si="84"/>
+        <v>1.0679770192191717E+159</v>
+      </c>
+      <c r="C1127" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1127" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1127" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1127" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1127" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1127" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1127" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1127" s="2">
+        <f t="shared" si="85"/>
+        <v>14</v>
+      </c>
+      <c r="K1127" s="2">
+        <f t="shared" si="86"/>
+        <v>4</v>
+      </c>
+      <c r="L1127" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1128" s="2">
+        <v>1126</v>
+      </c>
+      <c r="B1128" s="2">
+        <f t="shared" si="84"/>
+        <v>1.6019655288287576E+159</v>
+      </c>
+      <c r="C1128" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1128" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1128" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1128" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1128" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1128" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1128" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1128" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1128" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1128" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1129" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B1129" s="2">
+        <f t="shared" si="84"/>
+        <v>2.4029482932431363E+159</v>
+      </c>
+      <c r="C1129" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1129" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1129" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1129" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1129" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1129" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1129" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1129" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1129" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1129" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1130" s="2">
+        <v>1128</v>
+      </c>
+      <c r="B1130" s="2">
+        <f t="shared" si="84"/>
+        <v>3.6044224398647043E+159</v>
+      </c>
+      <c r="C1130" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1130" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1130" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1130" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1130" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1130" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1130" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1130" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1130" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1130" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1131" s="2">
+        <v>1129</v>
+      </c>
+      <c r="B1131" s="2">
+        <f t="shared" si="84"/>
+        <v>5.4066336597970568E+159</v>
+      </c>
+      <c r="C1131" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1131" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1131" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1131" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1131" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1131" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1131" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1131" s="2">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="K1131" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="L1131" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1132" s="2">
+        <v>1130</v>
+      </c>
+      <c r="B1132" s="2">
+        <f t="shared" si="84"/>
+        <v>8.1099504896955859E+159</v>
+      </c>
+      <c r="C1132" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1132" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1132" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1132" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1132" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1132" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1132" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1132" s="2">
+        <f t="shared" si="85"/>
+        <v>14</v>
+      </c>
+      <c r="K1132" s="2">
+        <f t="shared" si="86"/>
+        <v>4</v>
+      </c>
+      <c r="L1132" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E9B96-63C5-49A8-87B8-DD2044043930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCE0D36-0352-40A8-8EA6-853999E0E17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1132"/>
+  <dimension ref="A1:L1155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1099" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1120" sqref="D1120"/>
+      <pane ySplit="1" topLeftCell="A1135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1152" sqref="B1152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -44908,7 +44908,7 @@
         <v>1105</v>
       </c>
       <c r="B1107" s="2">
-        <f t="shared" ref="B1107:B1132" si="84">B1106*1.5</f>
+        <f t="shared" ref="B1107:B1155" si="84">B1106*1.5</f>
         <v>3.211712977101741E+155</v>
       </c>
       <c r="C1107" s="1">
@@ -45966,6 +45966,949 @@
         <v>4</v>
       </c>
       <c r="L1132" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1133" s="2">
+        <v>1131</v>
+      </c>
+      <c r="B1133" s="2">
+        <f t="shared" si="84"/>
+        <v>1.2164925734543379E+160</v>
+      </c>
+      <c r="C1133" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1133" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1133" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1133" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1133" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1133" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1133" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1133" s="2">
+        <f t="shared" ref="J1133:J1150" si="87">IF(MOD(A1133,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1133" s="2">
+        <f t="shared" ref="K1133:K1150" si="88">IF(J1133=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1133" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1134" s="2">
+        <v>1132</v>
+      </c>
+      <c r="B1134" s="2">
+        <f t="shared" si="84"/>
+        <v>1.8247388601815069E+160</v>
+      </c>
+      <c r="C1134" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1134" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1134" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1134" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1134" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1134" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1134" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1134" s="2">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="K1134" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L1134" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1135" s="2">
+        <v>1133</v>
+      </c>
+      <c r="B1135" s="2">
+        <f t="shared" si="84"/>
+        <v>2.7371082902722604E+160</v>
+      </c>
+      <c r="C1135" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1135" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1135" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1135" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1135" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1135" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1135" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1135" s="2">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="K1135" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L1135" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1136" s="2">
+        <v>1134</v>
+      </c>
+      <c r="B1136" s="2">
+        <f t="shared" si="84"/>
+        <v>4.1056624354083906E+160</v>
+      </c>
+      <c r="C1136" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1136" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1136" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1136" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1136" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1136" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1136" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1136" s="2">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="K1136" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L1136" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1137" s="2">
+        <v>1135</v>
+      </c>
+      <c r="B1137" s="2">
+        <f t="shared" si="84"/>
+        <v>6.1584936531125855E+160</v>
+      </c>
+      <c r="C1137" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1137" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1137" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1137" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1137" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1137" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1137" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1137" s="2">
+        <f t="shared" si="87"/>
+        <v>14</v>
+      </c>
+      <c r="K1137" s="2">
+        <f t="shared" si="88"/>
+        <v>4</v>
+      </c>
+      <c r="L1137" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1138" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B1138" s="2">
+        <f t="shared" si="84"/>
+        <v>9.2377404796688777E+160</v>
+      </c>
+      <c r="C1138" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1138" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1138" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1138" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1138" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1138" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1138" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1138" s="2">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="K1138" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L1138" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1139" s="2">
+        <v>1137</v>
+      </c>
+      <c r="B1139" s="2">
+        <f t="shared" si="84"/>
+        <v>1.3856610719503317E+161</v>
+      </c>
+      <c r="C1139" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1139" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1139" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1139" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1139" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1139" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1139" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1139" s="2">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="K1139" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L1139" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1140" s="2">
+        <v>1138</v>
+      </c>
+      <c r="B1140" s="2">
+        <f t="shared" si="84"/>
+        <v>2.0784916079254974E+161</v>
+      </c>
+      <c r="C1140" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1140" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1140" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1140" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1140" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1140" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1140" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1140" s="2">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="K1140" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L1140" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1141" s="2">
+        <v>1139</v>
+      </c>
+      <c r="B1141" s="2">
+        <f t="shared" si="84"/>
+        <v>3.117737411888246E+161</v>
+      </c>
+      <c r="C1141" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1141" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1141" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1141" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1141" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1141" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1141" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1141" s="2">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="K1141" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L1141" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1142" s="2">
+        <v>1140</v>
+      </c>
+      <c r="B1142" s="2">
+        <f t="shared" si="84"/>
+        <v>4.6766061178323695E+161</v>
+      </c>
+      <c r="C1142" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1142" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1142" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1142" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1142" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1142" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1142" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1142" s="2">
+        <f t="shared" si="87"/>
+        <v>14</v>
+      </c>
+      <c r="K1142" s="2">
+        <f t="shared" si="88"/>
+        <v>4</v>
+      </c>
+      <c r="L1142" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1143" s="2">
+        <v>1141</v>
+      </c>
+      <c r="B1143" s="2">
+        <f t="shared" si="84"/>
+        <v>7.0149091767485543E+161</v>
+      </c>
+      <c r="C1143" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1143" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1143" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1143" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1143" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1143" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1143" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1143" s="2">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="K1143" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L1143" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1144" s="2">
+        <v>1142</v>
+      </c>
+      <c r="B1144" s="2">
+        <f t="shared" si="84"/>
+        <v>1.052236376512283E+162</v>
+      </c>
+      <c r="C1144" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1144" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1144" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1144" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1144" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1144" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1144" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1144" s="2">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="K1144" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L1144" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1145" s="2">
+        <v>1143</v>
+      </c>
+      <c r="B1145" s="2">
+        <f t="shared" si="84"/>
+        <v>1.5783545647684246E+162</v>
+      </c>
+      <c r="C1145" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1145" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1145" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1145" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1145" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1145" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1145" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1145" s="2">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="K1145" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L1145" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1146" s="2">
+        <v>1144</v>
+      </c>
+      <c r="B1146" s="2">
+        <f t="shared" si="84"/>
+        <v>2.3675318471526368E+162</v>
+      </c>
+      <c r="C1146" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1146" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1146" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1146" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1146" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1146" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1146" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1146" s="2">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="K1146" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L1146" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1147" s="2">
+        <v>1145</v>
+      </c>
+      <c r="B1147" s="2">
+        <f t="shared" si="84"/>
+        <v>3.5512977707289551E+162</v>
+      </c>
+      <c r="C1147" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1147" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1147" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1147" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1147" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1147" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1147" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1147" s="2">
+        <f t="shared" si="87"/>
+        <v>14</v>
+      </c>
+      <c r="K1147" s="2">
+        <f t="shared" si="88"/>
+        <v>4</v>
+      </c>
+      <c r="L1147" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1148" s="2">
+        <v>1146</v>
+      </c>
+      <c r="B1148" s="2">
+        <f t="shared" si="84"/>
+        <v>5.3269466560934329E+162</v>
+      </c>
+      <c r="C1148" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1148" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1148" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1148" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1148" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1148" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1148" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1148" s="2">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="K1148" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L1148" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1149" s="2">
+        <v>1147</v>
+      </c>
+      <c r="B1149" s="2">
+        <f t="shared" si="84"/>
+        <v>7.9904199841401493E+162</v>
+      </c>
+      <c r="C1149" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1149" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1149" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1149" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1149" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1149" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1149" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1149" s="2">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="K1149" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L1149" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1150" s="2">
+        <v>1148</v>
+      </c>
+      <c r="B1150" s="2">
+        <f t="shared" si="84"/>
+        <v>1.1985629976210225E+163</v>
+      </c>
+      <c r="C1150" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1150" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1150" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1150" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1150" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1150" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1150" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1150" s="2">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="K1150" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="L1150" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1151" s="2">
+        <v>1149</v>
+      </c>
+      <c r="B1151" s="2">
+        <f t="shared" si="84"/>
+        <v>1.7978444964315339E+163</v>
+      </c>
+      <c r="C1151" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1151" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1151" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1151" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1151" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1151" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1151" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1151" s="2">
+        <f t="shared" ref="J1151:J1155" si="89">IF(MOD(A1151,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1151" s="2">
+        <f t="shared" ref="K1151:K1155" si="90">IF(J1151=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1151" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1152" s="2">
+        <v>1150</v>
+      </c>
+      <c r="B1152" s="2">
+        <f t="shared" si="84"/>
+        <v>2.6967667446473008E+163</v>
+      </c>
+      <c r="C1152" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1152" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1152" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1152" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1152" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1152" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1152" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1152" s="2">
+        <f t="shared" si="89"/>
+        <v>14</v>
+      </c>
+      <c r="K1152" s="2">
+        <f t="shared" si="90"/>
+        <v>4</v>
+      </c>
+      <c r="L1152" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1153" s="2">
+        <v>1151</v>
+      </c>
+      <c r="B1153" s="2">
+        <f t="shared" si="84"/>
+        <v>4.0451501169709512E+163</v>
+      </c>
+      <c r="C1153" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1153" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1153" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1153" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1153" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1153" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1153" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1153" s="2">
+        <f t="shared" si="89"/>
+        <v>-1</v>
+      </c>
+      <c r="K1153" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="L1153" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1154" s="2">
+        <v>1152</v>
+      </c>
+      <c r="B1154" s="2">
+        <f t="shared" si="84"/>
+        <v>6.0677251754564275E+163</v>
+      </c>
+      <c r="C1154" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1154" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1154" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1154" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1154" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1154" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1154" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1154" s="2">
+        <f t="shared" si="89"/>
+        <v>-1</v>
+      </c>
+      <c r="K1154" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="L1154" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1155" s="2">
+        <v>1153</v>
+      </c>
+      <c r="B1155" s="2">
+        <f t="shared" si="84"/>
+        <v>9.1015877631846412E+163</v>
+      </c>
+      <c r="C1155" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1155" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1155" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1155" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1155" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1155" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1155" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1155" s="2">
+        <f t="shared" si="89"/>
+        <v>-1</v>
+      </c>
+      <c r="K1155" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="L1155" s="1">
         <v>13</v>
       </c>
     </row>
@@ -45981,7 +46924,7 @@
   <dimension ref="B4:N64"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:E34"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCE0D36-0352-40A8-8EA6-853999E0E17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CF9989-F015-49C0-819E-762F96B6CD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1155"/>
+  <dimension ref="A1:L1177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1152" sqref="B1152"/>
+      <pane ySplit="1" topLeftCell="A1157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1174" sqref="B1174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -44908,7 +44908,7 @@
         <v>1105</v>
       </c>
       <c r="B1107" s="2">
-        <f t="shared" ref="B1107:B1155" si="84">B1106*1.5</f>
+        <f t="shared" ref="B1107:B1170" si="84">B1106*1.5</f>
         <v>3.211712977101741E+155</v>
       </c>
       <c r="C1107" s="1">
@@ -46737,11 +46737,11 @@
         <v>1</v>
       </c>
       <c r="J1151" s="2">
-        <f t="shared" ref="J1151:J1155" si="89">IF(MOD(A1151,5)=0,14,-1)</f>
+        <f t="shared" ref="J1151:J1160" si="89">IF(MOD(A1151,5)=0,14,-1)</f>
         <v>-1</v>
       </c>
       <c r="K1151" s="2">
-        <f t="shared" ref="K1151:K1155" si="90">IF(J1151=14,4,0)</f>
+        <f t="shared" ref="K1151:K1160" si="90">IF(J1151=14,4,0)</f>
         <v>0</v>
       </c>
       <c r="L1151" s="1">
@@ -46909,6 +46909,908 @@
         <v>0</v>
       </c>
       <c r="L1155" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1156" s="2">
+        <v>1154</v>
+      </c>
+      <c r="B1156" s="2">
+        <f t="shared" si="84"/>
+        <v>1.3652381644776963E+164</v>
+      </c>
+      <c r="C1156" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1156" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1156" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1156" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1156" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1156" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1156" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1156" s="2">
+        <f t="shared" si="89"/>
+        <v>-1</v>
+      </c>
+      <c r="K1156" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="L1156" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1157" s="2">
+        <v>1155</v>
+      </c>
+      <c r="B1157" s="2">
+        <f t="shared" si="84"/>
+        <v>2.0478572467165445E+164</v>
+      </c>
+      <c r="C1157" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1157" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1157" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1157" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1157" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1157" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1157" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1157" s="2">
+        <f t="shared" si="89"/>
+        <v>14</v>
+      </c>
+      <c r="K1157" s="2">
+        <f t="shared" si="90"/>
+        <v>4</v>
+      </c>
+      <c r="L1157" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1158" s="2">
+        <v>1156</v>
+      </c>
+      <c r="B1158" s="2">
+        <f t="shared" si="84"/>
+        <v>3.0717858700748167E+164</v>
+      </c>
+      <c r="C1158" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1158" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1158" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1158" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1158" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1158" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1158" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1158" s="2">
+        <f t="shared" si="89"/>
+        <v>-1</v>
+      </c>
+      <c r="K1158" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="L1158" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1159" s="2">
+        <v>1157</v>
+      </c>
+      <c r="B1159" s="2">
+        <f t="shared" si="84"/>
+        <v>4.6076788051122248E+164</v>
+      </c>
+      <c r="C1159" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1159" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1159" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1159" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1159" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1159" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1159" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1159" s="2">
+        <f t="shared" si="89"/>
+        <v>-1</v>
+      </c>
+      <c r="K1159" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="L1159" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1160" s="2">
+        <v>1158</v>
+      </c>
+      <c r="B1160" s="2">
+        <f t="shared" si="84"/>
+        <v>6.9115182076683372E+164</v>
+      </c>
+      <c r="C1160" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1160" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1160" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1160" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1160" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1160" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1160" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1160" s="2">
+        <f t="shared" si="89"/>
+        <v>-1</v>
+      </c>
+      <c r="K1160" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="L1160" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1161" s="2">
+        <v>1159</v>
+      </c>
+      <c r="B1161" s="2">
+        <f t="shared" si="84"/>
+        <v>1.0367277311502506E+165</v>
+      </c>
+      <c r="C1161" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1161" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1161" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1161" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1161" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1161" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1161" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1161" s="2">
+        <f t="shared" ref="J1161:J1177" si="91">IF(MOD(A1161,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1161" s="2">
+        <f t="shared" ref="K1161:K1177" si="92">IF(J1161=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1161" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1162" s="2">
+        <v>1160</v>
+      </c>
+      <c r="B1162" s="2">
+        <f t="shared" si="84"/>
+        <v>1.5550915967253759E+165</v>
+      </c>
+      <c r="C1162" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1162" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1162" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1162" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1162" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1162" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1162" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1162" s="2">
+        <f t="shared" si="91"/>
+        <v>14</v>
+      </c>
+      <c r="K1162" s="2">
+        <f t="shared" si="92"/>
+        <v>4</v>
+      </c>
+      <c r="L1162" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1163" s="2">
+        <v>1161</v>
+      </c>
+      <c r="B1163" s="2">
+        <f t="shared" si="84"/>
+        <v>2.3326373950880637E+165</v>
+      </c>
+      <c r="C1163" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1163" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1163" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1163" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1163" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1163" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1163" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1163" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="K1163" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L1163" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1164" s="2">
+        <v>1162</v>
+      </c>
+      <c r="B1164" s="2">
+        <f t="shared" si="84"/>
+        <v>3.4989560926320956E+165</v>
+      </c>
+      <c r="C1164" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1164" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1164" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1164" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1164" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1164" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1164" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1164" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="K1164" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L1164" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1165" s="2">
+        <v>1163</v>
+      </c>
+      <c r="B1165" s="2">
+        <f t="shared" si="84"/>
+        <v>5.2484341389481434E+165</v>
+      </c>
+      <c r="C1165" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1165" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1165" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1165" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1165" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1165" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1165" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1165" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="K1165" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L1165" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1166" s="2">
+        <v>1164</v>
+      </c>
+      <c r="B1166" s="2">
+        <f t="shared" si="84"/>
+        <v>7.872651208422215E+165</v>
+      </c>
+      <c r="C1166" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1166" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1166" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1166" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1166" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1166" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1166" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1166" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="K1166" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L1166" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1167" s="2">
+        <v>1165</v>
+      </c>
+      <c r="B1167" s="2">
+        <f t="shared" si="84"/>
+        <v>1.1808976812633323E+166</v>
+      </c>
+      <c r="C1167" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1167" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1167" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1167" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1167" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1167" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1167" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1167" s="2">
+        <f t="shared" si="91"/>
+        <v>14</v>
+      </c>
+      <c r="K1167" s="2">
+        <f t="shared" si="92"/>
+        <v>4</v>
+      </c>
+      <c r="L1167" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1168" s="2">
+        <v>1166</v>
+      </c>
+      <c r="B1168" s="2">
+        <f t="shared" si="84"/>
+        <v>1.7713465218949983E+166</v>
+      </c>
+      <c r="C1168" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1168" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1168" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1168" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1168" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1168" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1168" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1168" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="K1168" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L1168" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1169" s="2">
+        <v>1167</v>
+      </c>
+      <c r="B1169" s="2">
+        <f t="shared" si="84"/>
+        <v>2.6570197828424973E+166</v>
+      </c>
+      <c r="C1169" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1169" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1169" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1169" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1169" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1169" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1169" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1169" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="K1169" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L1169" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1170" s="2">
+        <v>1168</v>
+      </c>
+      <c r="B1170" s="2">
+        <f t="shared" si="84"/>
+        <v>3.9855296742637459E+166</v>
+      </c>
+      <c r="C1170" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1170" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1170" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1170" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1170" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1170" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1170" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1170" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="K1170" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L1170" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1171" s="2">
+        <v>1169</v>
+      </c>
+      <c r="B1171" s="2">
+        <f t="shared" ref="B1171:B1177" si="93">B1170*1.5</f>
+        <v>5.9782945113956183E+166</v>
+      </c>
+      <c r="C1171" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1171" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1171" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1171" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1171" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1171" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1171" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1171" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="K1171" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L1171" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1172" s="2">
+        <v>1170</v>
+      </c>
+      <c r="B1172" s="2">
+        <f t="shared" si="93"/>
+        <v>8.9674417670934274E+166</v>
+      </c>
+      <c r="C1172" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1172" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1172" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1172" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1172" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1172" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1172" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1172" s="2">
+        <f t="shared" si="91"/>
+        <v>14</v>
+      </c>
+      <c r="K1172" s="2">
+        <f t="shared" si="92"/>
+        <v>4</v>
+      </c>
+      <c r="L1172" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1173" s="2">
+        <v>1171</v>
+      </c>
+      <c r="B1173" s="2">
+        <f t="shared" si="93"/>
+        <v>1.3451162650640141E+167</v>
+      </c>
+      <c r="C1173" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1173" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1173" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1173" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1173" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1173" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1173" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1173" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="K1173" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L1173" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1174" s="2">
+        <v>1172</v>
+      </c>
+      <c r="B1174" s="2">
+        <f t="shared" si="93"/>
+        <v>2.0176743975960213E+167</v>
+      </c>
+      <c r="C1174" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1174" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1174" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1174" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1174" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1174" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1174" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1174" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="K1174" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L1174" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1175" s="2">
+        <v>1173</v>
+      </c>
+      <c r="B1175" s="2">
+        <f t="shared" si="93"/>
+        <v>3.0265115963940317E+167</v>
+      </c>
+      <c r="C1175" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1175" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1175" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1175" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1175" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1175" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1175" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1175" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="K1175" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L1175" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1176" s="2">
+        <v>1174</v>
+      </c>
+      <c r="B1176" s="2">
+        <f t="shared" si="93"/>
+        <v>4.5397673945910475E+167</v>
+      </c>
+      <c r="C1176" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1176" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1176" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1176" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1176" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1176" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1176" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1176" s="2">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
+      <c r="K1176" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L1176" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1177" s="2">
+        <v>1175</v>
+      </c>
+      <c r="B1177" s="2">
+        <f t="shared" si="93"/>
+        <v>6.8096510918865715E+167</v>
+      </c>
+      <c r="C1177" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1177" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1177" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1177" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1177" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1177" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1177" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1177" s="2">
+        <f t="shared" si="91"/>
+        <v>14</v>
+      </c>
+      <c r="K1177" s="2">
+        <f t="shared" si="92"/>
+        <v>4</v>
+      </c>
+      <c r="L1177" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CF9989-F015-49C0-819E-762F96B6CD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2E9FAB-6977-4AA4-A651-4CBA4D2A4295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1177"/>
+  <dimension ref="A1:L1200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1174" sqref="B1174"/>
+      <pane ySplit="1" topLeftCell="A1177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1203" sqref="C1203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -47532,7 +47532,7 @@
         <v>1169</v>
       </c>
       <c r="B1171" s="2">
-        <f t="shared" ref="B1171:B1177" si="93">B1170*1.5</f>
+        <f t="shared" ref="B1171:B1200" si="93">B1170*1.5</f>
         <v>5.9782945113956183E+166</v>
       </c>
       <c r="C1171" s="1">
@@ -47811,6 +47811,949 @@
         <v>4</v>
       </c>
       <c r="L1177" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1178" s="2">
+        <v>1176</v>
+      </c>
+      <c r="B1178" s="2">
+        <f t="shared" si="93"/>
+        <v>1.0214476637829858E+168</v>
+      </c>
+      <c r="C1178" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1178" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1178" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1178" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1178" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1178" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1178" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1178" s="2">
+        <f t="shared" ref="J1178:J1195" si="94">IF(MOD(A1178,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1178" s="2">
+        <f t="shared" ref="K1178:K1195" si="95">IF(J1178=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1178" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1179" s="2">
+        <v>1177</v>
+      </c>
+      <c r="B1179" s="2">
+        <f t="shared" si="93"/>
+        <v>1.5321714956744788E+168</v>
+      </c>
+      <c r="C1179" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1179" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1179" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1179" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1179" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1179" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1179" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1179" s="2">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="K1179" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L1179" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1180" s="2">
+        <v>1178</v>
+      </c>
+      <c r="B1180" s="2">
+        <f t="shared" si="93"/>
+        <v>2.2982572435117181E+168</v>
+      </c>
+      <c r="C1180" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1180" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1180" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1180" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1180" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1180" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1180" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1180" s="2">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="K1180" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L1180" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1181" s="2">
+        <v>1179</v>
+      </c>
+      <c r="B1181" s="2">
+        <f t="shared" si="93"/>
+        <v>3.447385865267577E+168</v>
+      </c>
+      <c r="C1181" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1181" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1181" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1181" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1181" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1181" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1181" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1181" s="2">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="K1181" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L1181" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1182" s="2">
+        <v>1180</v>
+      </c>
+      <c r="B1182" s="2">
+        <f t="shared" si="93"/>
+        <v>5.1710787979013655E+168</v>
+      </c>
+      <c r="C1182" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1182" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1182" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1182" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1182" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1182" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1182" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1182" s="2">
+        <f t="shared" si="94"/>
+        <v>14</v>
+      </c>
+      <c r="K1182" s="2">
+        <f t="shared" si="95"/>
+        <v>4</v>
+      </c>
+      <c r="L1182" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1183" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B1183" s="2">
+        <f t="shared" si="93"/>
+        <v>7.7566181968520486E+168</v>
+      </c>
+      <c r="C1183" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1183" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1183" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1183" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1183" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1183" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1183" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1183" s="2">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="K1183" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L1183" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1184" s="2">
+        <v>1182</v>
+      </c>
+      <c r="B1184" s="2">
+        <f t="shared" si="93"/>
+        <v>1.1634927295278072E+169</v>
+      </c>
+      <c r="C1184" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1184" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1184" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1184" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1184" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1184" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1184" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1184" s="2">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="K1184" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L1184" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1185" s="2">
+        <v>1183</v>
+      </c>
+      <c r="B1185" s="2">
+        <f t="shared" si="93"/>
+        <v>1.7452390942917108E+169</v>
+      </c>
+      <c r="C1185" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1185" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1185" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1185" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1185" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1185" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1185" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1185" s="2">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="K1185" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L1185" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1186" s="2">
+        <v>1184</v>
+      </c>
+      <c r="B1186" s="2">
+        <f t="shared" si="93"/>
+        <v>2.6178586414375662E+169</v>
+      </c>
+      <c r="C1186" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1186" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1186" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1186" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1186" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1186" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1186" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1186" s="2">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="K1186" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L1186" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1187" s="2">
+        <v>1185</v>
+      </c>
+      <c r="B1187" s="2">
+        <f t="shared" si="93"/>
+        <v>3.9267879621563492E+169</v>
+      </c>
+      <c r="C1187" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1187" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1187" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1187" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1187" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1187" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1187" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1187" s="2">
+        <f t="shared" si="94"/>
+        <v>14</v>
+      </c>
+      <c r="K1187" s="2">
+        <f t="shared" si="95"/>
+        <v>4</v>
+      </c>
+      <c r="L1187" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1188" s="2">
+        <v>1186</v>
+      </c>
+      <c r="B1188" s="2">
+        <f t="shared" si="93"/>
+        <v>5.8901819432345234E+169</v>
+      </c>
+      <c r="C1188" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1188" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1188" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1188" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1188" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1188" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1188" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1188" s="2">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="K1188" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L1188" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1189" s="2">
+        <v>1187</v>
+      </c>
+      <c r="B1189" s="2">
+        <f t="shared" si="93"/>
+        <v>8.8352729148517844E+169</v>
+      </c>
+      <c r="C1189" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1189" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1189" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1189" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1189" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1189" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1189" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1189" s="2">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="K1189" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L1189" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1190" s="2">
+        <v>1188</v>
+      </c>
+      <c r="B1190" s="2">
+        <f t="shared" si="93"/>
+        <v>1.3252909372277677E+170</v>
+      </c>
+      <c r="C1190" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1190" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1190" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1190" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1190" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1190" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1190" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1190" s="2">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="K1190" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L1190" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1191" s="2">
+        <v>1189</v>
+      </c>
+      <c r="B1191" s="2">
+        <f t="shared" si="93"/>
+        <v>1.9879364058416515E+170</v>
+      </c>
+      <c r="C1191" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1191" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1191" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1191" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1191" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1191" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1191" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1191" s="2">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="K1191" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L1191" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1192" s="2">
+        <v>1190</v>
+      </c>
+      <c r="B1192" s="2">
+        <f t="shared" si="93"/>
+        <v>2.9819046087624771E+170</v>
+      </c>
+      <c r="C1192" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1192" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1192" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1192" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1192" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1192" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1192" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1192" s="2">
+        <f t="shared" si="94"/>
+        <v>14</v>
+      </c>
+      <c r="K1192" s="2">
+        <f t="shared" si="95"/>
+        <v>4</v>
+      </c>
+      <c r="L1192" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1193" s="2">
+        <v>1191</v>
+      </c>
+      <c r="B1193" s="2">
+        <f t="shared" si="93"/>
+        <v>4.4728569131437157E+170</v>
+      </c>
+      <c r="C1193" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1193" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1193" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1193" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1193" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1193" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1193" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1193" s="2">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="K1193" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L1193" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1194" s="2">
+        <v>1192</v>
+      </c>
+      <c r="B1194" s="2">
+        <f t="shared" si="93"/>
+        <v>6.709285369715573E+170</v>
+      </c>
+      <c r="C1194" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1194" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1194" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1194" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1194" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1194" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1194" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1194" s="2">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="K1194" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L1194" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1195" s="2">
+        <v>1193</v>
+      </c>
+      <c r="B1195" s="2">
+        <f t="shared" si="93"/>
+        <v>1.0063928054573359E+171</v>
+      </c>
+      <c r="C1195" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1195" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1195" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1195" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1195" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1195" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1195" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1195" s="2">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="K1195" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L1195" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1196" s="2">
+        <v>1194</v>
+      </c>
+      <c r="B1196" s="2">
+        <f t="shared" si="93"/>
+        <v>1.509589208186004E+171</v>
+      </c>
+      <c r="C1196" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1196" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1196" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1196" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1196" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1196" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1196" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1196" s="2">
+        <f t="shared" ref="J1196:J1200" si="96">IF(MOD(A1196,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1196" s="2">
+        <f t="shared" ref="K1196:K1200" si="97">IF(J1196=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1196" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1197" s="2">
+        <v>1195</v>
+      </c>
+      <c r="B1197" s="2">
+        <f t="shared" si="93"/>
+        <v>2.2643838122790058E+171</v>
+      </c>
+      <c r="C1197" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1197" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1197" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1197" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1197" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1197" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1197" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1197" s="2">
+        <f t="shared" si="96"/>
+        <v>14</v>
+      </c>
+      <c r="K1197" s="2">
+        <f t="shared" si="97"/>
+        <v>4</v>
+      </c>
+      <c r="L1197" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1198" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B1198" s="2">
+        <f t="shared" si="93"/>
+        <v>3.3965757184185087E+171</v>
+      </c>
+      <c r="C1198" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1198" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1198" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1198" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1198" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1198" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1198" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1198" s="2">
+        <f t="shared" si="96"/>
+        <v>-1</v>
+      </c>
+      <c r="K1198" s="2">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="L1198" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1199" s="2">
+        <v>1197</v>
+      </c>
+      <c r="B1199" s="2">
+        <f t="shared" si="93"/>
+        <v>5.0948635776277627E+171</v>
+      </c>
+      <c r="C1199" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1199" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1199" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1199" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1199" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1199" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1199" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1199" s="2">
+        <f t="shared" si="96"/>
+        <v>-1</v>
+      </c>
+      <c r="K1199" s="2">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="L1199" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1200" s="2">
+        <v>1198</v>
+      </c>
+      <c r="B1200" s="2">
+        <f t="shared" si="93"/>
+        <v>7.642295366441644E+171</v>
+      </c>
+      <c r="C1200" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1200" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1200" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1200" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1200" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1200" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1200" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1200" s="2">
+        <f t="shared" si="96"/>
+        <v>-1</v>
+      </c>
+      <c r="K1200" s="2">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="L1200" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2E9FAB-6977-4AA4-A651-4CBA4D2A4295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED221066-0749-491E-8C7D-028C5BD018BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1200"/>
+  <dimension ref="A1:L1246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1203" sqref="C1203"/>
+      <pane ySplit="1" topLeftCell="A1221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1237" sqref="B1237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -47532,7 +47532,7 @@
         <v>1169</v>
       </c>
       <c r="B1171" s="2">
-        <f t="shared" ref="B1171:B1200" si="93">B1170*1.5</f>
+        <f t="shared" ref="B1171:B1234" si="93">B1170*1.5</f>
         <v>5.9782945113956183E+166</v>
       </c>
       <c r="C1171" s="1">
@@ -48754,6 +48754,1892 @@
         <v>0</v>
       </c>
       <c r="L1200" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1201" s="2">
+        <v>1199</v>
+      </c>
+      <c r="B1201" s="2">
+        <f t="shared" si="93"/>
+        <v>1.1463443049662466E+172</v>
+      </c>
+      <c r="C1201" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1201" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1201" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1201" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1201" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1201" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1201" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1201" s="2">
+        <f t="shared" ref="J1201:J1228" si="98">IF(MOD(A1201,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1201" s="2">
+        <f t="shared" ref="K1201:K1228" si="99">IF(J1201=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1201" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1202" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B1202" s="2">
+        <f t="shared" si="93"/>
+        <v>1.7195164574493698E+172</v>
+      </c>
+      <c r="C1202" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1202" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1202" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1202" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1202" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1202" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1202" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1202" s="2">
+        <f t="shared" si="98"/>
+        <v>14</v>
+      </c>
+      <c r="K1202" s="2">
+        <f t="shared" si="99"/>
+        <v>4</v>
+      </c>
+      <c r="L1202" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1203" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B1203" s="2">
+        <f t="shared" si="93"/>
+        <v>2.5792746861740548E+172</v>
+      </c>
+      <c r="C1203" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1203" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1203" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1203" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1203" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1203" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1203" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1203" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1203" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1203" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1204" s="2">
+        <v>1202</v>
+      </c>
+      <c r="B1204" s="2">
+        <f t="shared" si="93"/>
+        <v>3.8689120292610825E+172</v>
+      </c>
+      <c r="C1204" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1204" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1204" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1204" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1204" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1204" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1204" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1204" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1204" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1204" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1205" s="2">
+        <v>1203</v>
+      </c>
+      <c r="B1205" s="2">
+        <f t="shared" si="93"/>
+        <v>5.8033680438916237E+172</v>
+      </c>
+      <c r="C1205" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1205" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1205" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1205" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1205" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1205" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1205" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1205" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1205" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1205" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1206" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B1206" s="2">
+        <f t="shared" si="93"/>
+        <v>8.7050520658374356E+172</v>
+      </c>
+      <c r="C1206" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1206" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1206" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1206" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1206" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1206" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1206" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1206" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1206" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1206" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1207" s="2">
+        <v>1205</v>
+      </c>
+      <c r="B1207" s="2">
+        <f t="shared" si="93"/>
+        <v>1.3057578098756154E+173</v>
+      </c>
+      <c r="C1207" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1207" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1207" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1207" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1207" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1207" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1207" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1207" s="2">
+        <f t="shared" si="98"/>
+        <v>14</v>
+      </c>
+      <c r="K1207" s="2">
+        <f t="shared" si="99"/>
+        <v>4</v>
+      </c>
+      <c r="L1207" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1208" s="2">
+        <v>1206</v>
+      </c>
+      <c r="B1208" s="2">
+        <f t="shared" si="93"/>
+        <v>1.958636714813423E+173</v>
+      </c>
+      <c r="C1208" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1208" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1208" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1208" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1208" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1208" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1208" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1208" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1208" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1208" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1209" s="2">
+        <v>1207</v>
+      </c>
+      <c r="B1209" s="2">
+        <f t="shared" si="93"/>
+        <v>2.9379550722201347E+173</v>
+      </c>
+      <c r="C1209" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1209" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1209" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1209" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1209" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1209" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1209" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1209" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1209" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1209" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1210" s="2">
+        <v>1208</v>
+      </c>
+      <c r="B1210" s="2">
+        <f t="shared" si="93"/>
+        <v>4.4069326083302021E+173</v>
+      </c>
+      <c r="C1210" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1210" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1210" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1210" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1210" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1210" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1210" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1210" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1210" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1210" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1211" s="2">
+        <v>1209</v>
+      </c>
+      <c r="B1211" s="2">
+        <f t="shared" si="93"/>
+        <v>6.6103989124953032E+173</v>
+      </c>
+      <c r="C1211" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1211" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1211" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1211" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1211" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1211" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1211" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1211" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1211" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1211" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1212" s="2">
+        <v>1210</v>
+      </c>
+      <c r="B1212" s="2">
+        <f t="shared" si="93"/>
+        <v>9.9155983687429547E+173</v>
+      </c>
+      <c r="C1212" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1212" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1212" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1212" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1212" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1212" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1212" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1212" s="2">
+        <f t="shared" si="98"/>
+        <v>14</v>
+      </c>
+      <c r="K1212" s="2">
+        <f t="shared" si="99"/>
+        <v>4</v>
+      </c>
+      <c r="L1212" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1213" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B1213" s="2">
+        <f t="shared" si="93"/>
+        <v>1.4873397553114433E+174</v>
+      </c>
+      <c r="C1213" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1213" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1213" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1213" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1213" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1213" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1213" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1213" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1213" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1213" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1214" s="2">
+        <v>1212</v>
+      </c>
+      <c r="B1214" s="2">
+        <f t="shared" si="93"/>
+        <v>2.2310096329671652E+174</v>
+      </c>
+      <c r="C1214" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1214" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1214" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1214" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1214" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1214" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1214" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1214" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1214" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1214" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1215" s="2">
+        <v>1213</v>
+      </c>
+      <c r="B1215" s="2">
+        <f t="shared" si="93"/>
+        <v>3.3465144494507478E+174</v>
+      </c>
+      <c r="C1215" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1215" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1215" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1215" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1215" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1215" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1215" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1215" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1215" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1215" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1216" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B1216" s="2">
+        <f t="shared" si="93"/>
+        <v>5.0197716741761217E+174</v>
+      </c>
+      <c r="C1216" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1216" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1216" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1216" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1216" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1216" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1216" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1216" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1216" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1216" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1217" s="2">
+        <v>1215</v>
+      </c>
+      <c r="B1217" s="2">
+        <f t="shared" si="93"/>
+        <v>7.529657511264183E+174</v>
+      </c>
+      <c r="C1217" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1217" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1217" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1217" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1217" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1217" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1217" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1217" s="2">
+        <f t="shared" si="98"/>
+        <v>14</v>
+      </c>
+      <c r="K1217" s="2">
+        <f t="shared" si="99"/>
+        <v>4</v>
+      </c>
+      <c r="L1217" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1218" s="2">
+        <v>1216</v>
+      </c>
+      <c r="B1218" s="2">
+        <f t="shared" si="93"/>
+        <v>1.1294486266896274E+175</v>
+      </c>
+      <c r="C1218" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1218" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1218" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1218" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1218" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1218" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1218" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1218" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1218" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1218" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1219" s="2">
+        <v>1217</v>
+      </c>
+      <c r="B1219" s="2">
+        <f t="shared" si="93"/>
+        <v>1.6941729400344409E+175</v>
+      </c>
+      <c r="C1219" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1219" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1219" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1219" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1219" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1219" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1219" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1219" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1219" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1219" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1220" s="2">
+        <v>1218</v>
+      </c>
+      <c r="B1220" s="2">
+        <f t="shared" si="93"/>
+        <v>2.5412594100516613E+175</v>
+      </c>
+      <c r="C1220" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1220" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1220" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1220" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1220" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1220" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1220" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1220" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1220" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1220" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1221" s="2">
+        <v>1219</v>
+      </c>
+      <c r="B1221" s="2">
+        <f t="shared" si="93"/>
+        <v>3.8118891150774921E+175</v>
+      </c>
+      <c r="C1221" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1221" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1221" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1221" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1221" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1221" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1221" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1221" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1221" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1221" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1222" s="2">
+        <v>1220</v>
+      </c>
+      <c r="B1222" s="2">
+        <f t="shared" si="93"/>
+        <v>5.7178336726162382E+175</v>
+      </c>
+      <c r="C1222" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1222" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1222" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1222" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1222" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1222" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1222" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1222" s="2">
+        <f t="shared" si="98"/>
+        <v>14</v>
+      </c>
+      <c r="K1222" s="2">
+        <f t="shared" si="99"/>
+        <v>4</v>
+      </c>
+      <c r="L1222" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1223" s="2">
+        <v>1221</v>
+      </c>
+      <c r="B1223" s="2">
+        <f t="shared" si="93"/>
+        <v>8.5767505089243573E+175</v>
+      </c>
+      <c r="C1223" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1223" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1223" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1223" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1223" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1223" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1223" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1223" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1223" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1223" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1224" s="2">
+        <v>1222</v>
+      </c>
+      <c r="B1224" s="2">
+        <f t="shared" si="93"/>
+        <v>1.2865125763386537E+176</v>
+      </c>
+      <c r="C1224" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1224" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1224" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1224" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1224" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1224" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1224" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1224" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1224" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1224" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1225" s="2">
+        <v>1223</v>
+      </c>
+      <c r="B1225" s="2">
+        <f t="shared" si="93"/>
+        <v>1.9297688645079806E+176</v>
+      </c>
+      <c r="C1225" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1225" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1225" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1225" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1225" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1225" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1225" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1225" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1225" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1225" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1226" s="2">
+        <v>1224</v>
+      </c>
+      <c r="B1226" s="2">
+        <f t="shared" si="93"/>
+        <v>2.8946532967619708E+176</v>
+      </c>
+      <c r="C1226" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1226" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1226" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1226" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1226" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1226" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1226" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1226" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1226" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1226" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1227" s="2">
+        <v>1225</v>
+      </c>
+      <c r="B1227" s="2">
+        <f t="shared" si="93"/>
+        <v>4.3419799451429561E+176</v>
+      </c>
+      <c r="C1227" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1227" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1227" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1227" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1227" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1227" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1227" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1227" s="2">
+        <f t="shared" si="98"/>
+        <v>14</v>
+      </c>
+      <c r="K1227" s="2">
+        <f t="shared" si="99"/>
+        <v>4</v>
+      </c>
+      <c r="L1227" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1228" s="2">
+        <v>1226</v>
+      </c>
+      <c r="B1228" s="2">
+        <f t="shared" si="93"/>
+        <v>6.5129699177144348E+176</v>
+      </c>
+      <c r="C1228" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1228" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1228" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1228" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1228" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1228" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1228" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1228" s="2">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="K1228" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L1228" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1229" s="2">
+        <v>1227</v>
+      </c>
+      <c r="B1229" s="2">
+        <f t="shared" si="93"/>
+        <v>9.7694548765716521E+176</v>
+      </c>
+      <c r="C1229" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1229" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1229" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1229" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1229" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1229" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1229" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1229" s="2">
+        <f t="shared" ref="J1229:J1246" si="100">IF(MOD(A1229,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1229" s="2">
+        <f t="shared" ref="K1229:K1246" si="101">IF(J1229=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1229" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1230" s="2">
+        <v>1228</v>
+      </c>
+      <c r="B1230" s="2">
+        <f t="shared" si="93"/>
+        <v>1.4654182314857478E+177</v>
+      </c>
+      <c r="C1230" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1230" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1230" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1230" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1230" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1230" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1230" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1230" s="2">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="K1230" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L1230" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1231" s="2">
+        <v>1229</v>
+      </c>
+      <c r="B1231" s="2">
+        <f t="shared" si="93"/>
+        <v>2.1981273472286218E+177</v>
+      </c>
+      <c r="C1231" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1231" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1231" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1231" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1231" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1231" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1231" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1231" s="2">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="K1231" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L1231" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1232" s="2">
+        <v>1230</v>
+      </c>
+      <c r="B1232" s="2">
+        <f t="shared" si="93"/>
+        <v>3.2971910208429326E+177</v>
+      </c>
+      <c r="C1232" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1232" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1232" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1232" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1232" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1232" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1232" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1232" s="2">
+        <f t="shared" si="100"/>
+        <v>14</v>
+      </c>
+      <c r="K1232" s="2">
+        <f t="shared" si="101"/>
+        <v>4</v>
+      </c>
+      <c r="L1232" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1233" s="2">
+        <v>1231</v>
+      </c>
+      <c r="B1233" s="2">
+        <f t="shared" si="93"/>
+        <v>4.9457865312643987E+177</v>
+      </c>
+      <c r="C1233" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1233" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1233" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1233" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1233" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1233" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1233" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1233" s="2">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="K1233" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L1233" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1234" s="2">
+        <v>1232</v>
+      </c>
+      <c r="B1234" s="2">
+        <f t="shared" si="93"/>
+        <v>7.4186797968965985E+177</v>
+      </c>
+      <c r="C1234" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1234" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1234" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1234" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1234" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1234" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1234" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1234" s="2">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="K1234" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L1234" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1235" s="2">
+        <v>1233</v>
+      </c>
+      <c r="B1235" s="2">
+        <f t="shared" ref="B1235:B1246" si="102">B1234*1.5</f>
+        <v>1.1128019695344897E+178</v>
+      </c>
+      <c r="C1235" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1235" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1235" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1235" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1235" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1235" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1235" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1235" s="2">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="K1235" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L1235" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1236" s="2">
+        <v>1234</v>
+      </c>
+      <c r="B1236" s="2">
+        <f t="shared" si="102"/>
+        <v>1.6692029543017344E+178</v>
+      </c>
+      <c r="C1236" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1236" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1236" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1236" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1236" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1236" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1236" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1236" s="2">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="K1236" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L1236" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1237" s="2">
+        <v>1235</v>
+      </c>
+      <c r="B1237" s="2">
+        <f t="shared" si="102"/>
+        <v>2.5038044314526015E+178</v>
+      </c>
+      <c r="C1237" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1237" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1237" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1237" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1237" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1237" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1237" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1237" s="2">
+        <f t="shared" si="100"/>
+        <v>14</v>
+      </c>
+      <c r="K1237" s="2">
+        <f t="shared" si="101"/>
+        <v>4</v>
+      </c>
+      <c r="L1237" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1238" s="2">
+        <v>1236</v>
+      </c>
+      <c r="B1238" s="2">
+        <f t="shared" si="102"/>
+        <v>3.7557066471789021E+178</v>
+      </c>
+      <c r="C1238" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1238" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1238" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1238" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1238" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1238" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1238" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1238" s="2">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="K1238" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L1238" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1239" s="2">
+        <v>1237</v>
+      </c>
+      <c r="B1239" s="2">
+        <f t="shared" si="102"/>
+        <v>5.6335599707683532E+178</v>
+      </c>
+      <c r="C1239" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1239" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1239" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1239" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1239" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1239" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1239" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1239" s="2">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="K1239" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L1239" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1240" s="2">
+        <v>1238</v>
+      </c>
+      <c r="B1240" s="2">
+        <f t="shared" si="102"/>
+        <v>8.4503399561525301E+178</v>
+      </c>
+      <c r="C1240" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1240" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1240" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1240" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1240" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1240" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1240" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1240" s="2">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="K1240" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L1240" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1241" s="2">
+        <v>1239</v>
+      </c>
+      <c r="B1241" s="2">
+        <f t="shared" si="102"/>
+        <v>1.2675509934228795E+179</v>
+      </c>
+      <c r="C1241" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1241" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1241" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1241" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1241" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1241" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1241" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1241" s="2">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="K1241" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L1241" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1242" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B1242" s="2">
+        <f t="shared" si="102"/>
+        <v>1.9013264901343194E+179</v>
+      </c>
+      <c r="C1242" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1242" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1242" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1242" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1242" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1242" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1242" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1242" s="2">
+        <f t="shared" si="100"/>
+        <v>14</v>
+      </c>
+      <c r="K1242" s="2">
+        <f t="shared" si="101"/>
+        <v>4</v>
+      </c>
+      <c r="L1242" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1243" s="2">
+        <v>1241</v>
+      </c>
+      <c r="B1243" s="2">
+        <f t="shared" si="102"/>
+        <v>2.851989735201479E+179</v>
+      </c>
+      <c r="C1243" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1243" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1243" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1243" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1243" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1243" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1243" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1243" s="2">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="K1243" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L1243" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1244" s="2">
+        <v>1242</v>
+      </c>
+      <c r="B1244" s="2">
+        <f t="shared" si="102"/>
+        <v>4.2779846028022185E+179</v>
+      </c>
+      <c r="C1244" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1244" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1244" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1244" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1244" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1244" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1244" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1244" s="2">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="K1244" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L1244" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1245" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B1245" s="2">
+        <f t="shared" si="102"/>
+        <v>6.4169769042033272E+179</v>
+      </c>
+      <c r="C1245" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1245" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1245" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1245" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1245" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1245" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1245" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1245" s="2">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="K1245" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L1245" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1246" s="2">
+        <v>1244</v>
+      </c>
+      <c r="B1246" s="2">
+        <f t="shared" si="102"/>
+        <v>9.6254653563049909E+179</v>
+      </c>
+      <c r="C1246" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1246" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1246" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1246" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1246" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1246" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1246" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1246" s="2">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="K1246" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L1246" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED221066-0749-491E-8C7D-028C5BD018BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51712A70-97B9-4BD1-9ED1-791748C471A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1246"/>
+  <dimension ref="A1:L1291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1237" sqref="B1237"/>
+      <pane ySplit="1" topLeftCell="A1275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1285" sqref="B1285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -50156,7 +50156,7 @@
         <v>1233</v>
       </c>
       <c r="B1235" s="2">
-        <f t="shared" ref="B1235:B1246" si="102">B1234*1.5</f>
+        <f t="shared" ref="B1235:B1291" si="102">B1234*1.5</f>
         <v>1.1128019695344897E+178</v>
       </c>
       <c r="C1235" s="1">
@@ -50640,6 +50640,1851 @@
         <v>0</v>
       </c>
       <c r="L1246" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1247" s="2">
+        <v>1245</v>
+      </c>
+      <c r="B1247" s="2">
+        <f t="shared" si="102"/>
+        <v>1.4438198034457486E+180</v>
+      </c>
+      <c r="C1247" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1247" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1247" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1247" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1247" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1247" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1247" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1247" s="2">
+        <f t="shared" ref="J1247:J1279" si="103">IF(MOD(A1247,5)=0,14,-1)</f>
+        <v>14</v>
+      </c>
+      <c r="K1247" s="2">
+        <f t="shared" ref="K1247:K1279" si="104">IF(J1247=14,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L1247" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1248" s="2">
+        <v>1246</v>
+      </c>
+      <c r="B1248" s="2">
+        <f t="shared" si="102"/>
+        <v>2.1657297051686227E+180</v>
+      </c>
+      <c r="C1248" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1248" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1248" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1248" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1248" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1248" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1248" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1248" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1248" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1248" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1249" s="2">
+        <v>1247</v>
+      </c>
+      <c r="B1249" s="2">
+        <f t="shared" si="102"/>
+        <v>3.2485945577529343E+180</v>
+      </c>
+      <c r="C1249" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1249" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1249" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1249" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1249" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1249" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1249" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1249" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1249" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1249" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1250" s="2">
+        <v>1248</v>
+      </c>
+      <c r="B1250" s="2">
+        <f t="shared" si="102"/>
+        <v>4.8728918366294011E+180</v>
+      </c>
+      <c r="C1250" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1250" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1250" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1250" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1250" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1250" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1250" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1250" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1250" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1250" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1251" s="2">
+        <v>1249</v>
+      </c>
+      <c r="B1251" s="2">
+        <f t="shared" si="102"/>
+        <v>7.3093377549441016E+180</v>
+      </c>
+      <c r="C1251" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1251" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1251" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1251" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1251" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1251" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1251" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1251" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1251" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1251" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1252" s="2">
+        <v>1250</v>
+      </c>
+      <c r="B1252" s="2">
+        <f t="shared" si="102"/>
+        <v>1.0964006632416152E+181</v>
+      </c>
+      <c r="C1252" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1252" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1252" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1252" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1252" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1252" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1252" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1252" s="2">
+        <f t="shared" si="103"/>
+        <v>14</v>
+      </c>
+      <c r="K1252" s="2">
+        <f t="shared" si="104"/>
+        <v>4</v>
+      </c>
+      <c r="L1252" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1253" s="2">
+        <v>1251</v>
+      </c>
+      <c r="B1253" s="2">
+        <f t="shared" si="102"/>
+        <v>1.6446009948624229E+181</v>
+      </c>
+      <c r="C1253" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1253" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1253" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1253" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1253" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1253" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1253" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1253" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1253" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1253" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1254" s="2">
+        <v>1252</v>
+      </c>
+      <c r="B1254" s="2">
+        <f t="shared" si="102"/>
+        <v>2.4669014922936344E+181</v>
+      </c>
+      <c r="C1254" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1254" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1254" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1254" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1254" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1254" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1254" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1254" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1254" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1254" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1255" s="2">
+        <v>1253</v>
+      </c>
+      <c r="B1255" s="2">
+        <f t="shared" si="102"/>
+        <v>3.7003522384404518E+181</v>
+      </c>
+      <c r="C1255" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1255" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1255" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1255" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1255" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1255" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1255" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1255" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1255" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1255" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1256" s="2">
+        <v>1254</v>
+      </c>
+      <c r="B1256" s="2">
+        <f t="shared" si="102"/>
+        <v>5.5505283576606773E+181</v>
+      </c>
+      <c r="C1256" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1256" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1256" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1256" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1256" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1256" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1256" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1256" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1256" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1256" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1257" s="2">
+        <v>1255</v>
+      </c>
+      <c r="B1257" s="2">
+        <f t="shared" si="102"/>
+        <v>8.3257925364910152E+181</v>
+      </c>
+      <c r="C1257" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1257" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1257" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1257" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1257" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1257" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1257" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1257" s="2">
+        <f t="shared" si="103"/>
+        <v>14</v>
+      </c>
+      <c r="K1257" s="2">
+        <f t="shared" si="104"/>
+        <v>4</v>
+      </c>
+      <c r="L1257" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1258" s="2">
+        <v>1256</v>
+      </c>
+      <c r="B1258" s="2">
+        <f t="shared" si="102"/>
+        <v>1.2488688804736523E+182</v>
+      </c>
+      <c r="C1258" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1258" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1258" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1258" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1258" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1258" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1258" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1258" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1258" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1258" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1259" s="2">
+        <v>1257</v>
+      </c>
+      <c r="B1259" s="2">
+        <f t="shared" si="102"/>
+        <v>1.8733033207104785E+182</v>
+      </c>
+      <c r="C1259" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1259" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1259" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1259" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1259" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1259" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1259" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1259" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1259" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1259" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1260" s="2">
+        <v>1258</v>
+      </c>
+      <c r="B1260" s="2">
+        <f t="shared" si="102"/>
+        <v>2.8099549810657179E+182</v>
+      </c>
+      <c r="C1260" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1260" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1260" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1260" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1260" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1260" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1260" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1260" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1260" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1260" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1261" s="2">
+        <v>1259</v>
+      </c>
+      <c r="B1261" s="2">
+        <f t="shared" si="102"/>
+        <v>4.2149324715985768E+182</v>
+      </c>
+      <c r="C1261" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1261" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1261" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1261" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1261" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1261" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1261" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1261" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1261" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1261" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1262" s="2">
+        <v>1260</v>
+      </c>
+      <c r="B1262" s="2">
+        <f t="shared" si="102"/>
+        <v>6.3223987073978658E+182</v>
+      </c>
+      <c r="C1262" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1262" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1262" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1262" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1262" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1262" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1262" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1262" s="2">
+        <f t="shared" si="103"/>
+        <v>14</v>
+      </c>
+      <c r="K1262" s="2">
+        <f t="shared" si="104"/>
+        <v>4</v>
+      </c>
+      <c r="L1262" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1263" s="2">
+        <v>1261</v>
+      </c>
+      <c r="B1263" s="2">
+        <f t="shared" si="102"/>
+        <v>9.4835980610967987E+182</v>
+      </c>
+      <c r="C1263" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1263" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1263" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1263" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1263" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1263" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1263" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1263" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1263" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1263" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1264" s="2">
+        <v>1262</v>
+      </c>
+      <c r="B1264" s="2">
+        <f t="shared" si="102"/>
+        <v>1.4225397091645199E+183</v>
+      </c>
+      <c r="C1264" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1264" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1264" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1264" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1264" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1264" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1264" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1264" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1264" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1264" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1265" s="2">
+        <v>1263</v>
+      </c>
+      <c r="B1265" s="2">
+        <f t="shared" si="102"/>
+        <v>2.1338095637467799E+183</v>
+      </c>
+      <c r="C1265" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1265" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1265" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1265" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1265" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1265" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1265" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1265" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1265" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1265" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1266" s="2">
+        <v>1264</v>
+      </c>
+      <c r="B1266" s="2">
+        <f t="shared" si="102"/>
+        <v>3.2007143456201701E+183</v>
+      </c>
+      <c r="C1266" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1266" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1266" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1266" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1266" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1266" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1266" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1266" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1266" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1266" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1267" s="2">
+        <v>1265</v>
+      </c>
+      <c r="B1267" s="2">
+        <f t="shared" si="102"/>
+        <v>4.8010715184302552E+183</v>
+      </c>
+      <c r="C1267" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1267" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1267" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1267" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1267" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1267" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1267" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1267" s="2">
+        <f t="shared" si="103"/>
+        <v>14</v>
+      </c>
+      <c r="K1267" s="2">
+        <f t="shared" si="104"/>
+        <v>4</v>
+      </c>
+      <c r="L1267" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1268" s="2">
+        <v>1266</v>
+      </c>
+      <c r="B1268" s="2">
+        <f t="shared" si="102"/>
+        <v>7.2016072776453832E+183</v>
+      </c>
+      <c r="C1268" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1268" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1268" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1268" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1268" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1268" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1268" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1268" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1268" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1268" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1269" s="2">
+        <v>1267</v>
+      </c>
+      <c r="B1269" s="2">
+        <f t="shared" si="102"/>
+        <v>1.0802410916468074E+184</v>
+      </c>
+      <c r="C1269" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1269" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1269" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1269" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1269" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1269" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1269" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1269" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1269" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1269" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1270" s="2">
+        <v>1268</v>
+      </c>
+      <c r="B1270" s="2">
+        <f t="shared" si="102"/>
+        <v>1.6203616374702111E+184</v>
+      </c>
+      <c r="C1270" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1270" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1270" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1270" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1270" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1270" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1270" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1270" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1270" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1270" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1271" s="2">
+        <v>1269</v>
+      </c>
+      <c r="B1271" s="2">
+        <f t="shared" si="102"/>
+        <v>2.4305424562053168E+184</v>
+      </c>
+      <c r="C1271" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1271" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1271" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1271" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1271" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1271" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1271" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1271" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1271" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1271" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1272" s="2">
+        <v>1270</v>
+      </c>
+      <c r="B1272" s="2">
+        <f t="shared" si="102"/>
+        <v>3.6458136843079748E+184</v>
+      </c>
+      <c r="C1272" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1272" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1272" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1272" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1272" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1272" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1272" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1272" s="2">
+        <f t="shared" si="103"/>
+        <v>14</v>
+      </c>
+      <c r="K1272" s="2">
+        <f t="shared" si="104"/>
+        <v>4</v>
+      </c>
+      <c r="L1272" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1273" s="2">
+        <v>1271</v>
+      </c>
+      <c r="B1273" s="2">
+        <f t="shared" si="102"/>
+        <v>5.4687205264619623E+184</v>
+      </c>
+      <c r="C1273" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1273" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1273" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1273" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1273" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1273" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1273" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1273" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1273" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1273" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1274" s="2">
+        <v>1272</v>
+      </c>
+      <c r="B1274" s="2">
+        <f t="shared" si="102"/>
+        <v>8.2030807896929438E+184</v>
+      </c>
+      <c r="C1274" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1274" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1274" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1274" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1274" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1274" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1274" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1274" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1274" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1274" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1275" s="2">
+        <v>1273</v>
+      </c>
+      <c r="B1275" s="2">
+        <f t="shared" si="102"/>
+        <v>1.2304621184539416E+185</v>
+      </c>
+      <c r="C1275" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1275" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1275" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1275" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1275" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1275" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1275" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1275" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1275" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1275" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1276" s="2">
+        <v>1274</v>
+      </c>
+      <c r="B1276" s="2">
+        <f t="shared" si="102"/>
+        <v>1.8456931776809125E+185</v>
+      </c>
+      <c r="C1276" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1276" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1276" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1276" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1276" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1276" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1276" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1276" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1276" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1276" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1277" s="2">
+        <v>1275</v>
+      </c>
+      <c r="B1277" s="2">
+        <f t="shared" si="102"/>
+        <v>2.7685397665213687E+185</v>
+      </c>
+      <c r="C1277" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1277" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1277" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1277" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1277" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1277" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1277" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1277" s="2">
+        <f t="shared" si="103"/>
+        <v>14</v>
+      </c>
+      <c r="K1277" s="2">
+        <f t="shared" si="104"/>
+        <v>4</v>
+      </c>
+      <c r="L1277" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1278" s="2">
+        <v>1276</v>
+      </c>
+      <c r="B1278" s="2">
+        <f t="shared" si="102"/>
+        <v>4.1528096497820528E+185</v>
+      </c>
+      <c r="C1278" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1278" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1278" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1278" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1278" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1278" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1278" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1278" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1278" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1278" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1279" s="2">
+        <v>1277</v>
+      </c>
+      <c r="B1279" s="2">
+        <f t="shared" si="102"/>
+        <v>6.2292144746730786E+185</v>
+      </c>
+      <c r="C1279" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1279" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1279" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1279" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1279" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1279" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1279" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1279" s="2">
+        <f t="shared" si="103"/>
+        <v>-1</v>
+      </c>
+      <c r="K1279" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L1279" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1280" s="2">
+        <v>1278</v>
+      </c>
+      <c r="B1280" s="2">
+        <f t="shared" si="102"/>
+        <v>9.3438217120096179E+185</v>
+      </c>
+      <c r="C1280" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1280" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1280" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1280" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1280" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1280" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1280" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1280" s="2">
+        <f t="shared" ref="J1280:J1291" si="105">IF(MOD(A1280,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1280" s="2">
+        <f t="shared" ref="K1280:K1291" si="106">IF(J1280=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1280" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1281" s="2">
+        <v>1279</v>
+      </c>
+      <c r="B1281" s="2">
+        <f t="shared" si="102"/>
+        <v>1.4015732568014427E+186</v>
+      </c>
+      <c r="C1281" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1281" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1281" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1281" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1281" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1281" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1281" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1281" s="2">
+        <f t="shared" si="105"/>
+        <v>-1</v>
+      </c>
+      <c r="K1281" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="L1281" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1282" s="2">
+        <v>1280</v>
+      </c>
+      <c r="B1282" s="2">
+        <f t="shared" si="102"/>
+        <v>2.1023598852021642E+186</v>
+      </c>
+      <c r="C1282" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1282" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1282" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1282" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1282" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1282" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1282" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1282" s="2">
+        <f t="shared" si="105"/>
+        <v>14</v>
+      </c>
+      <c r="K1282" s="2">
+        <f t="shared" si="106"/>
+        <v>4</v>
+      </c>
+      <c r="L1282" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1283" s="2">
+        <v>1281</v>
+      </c>
+      <c r="B1283" s="2">
+        <f t="shared" si="102"/>
+        <v>3.1535398278032462E+186</v>
+      </c>
+      <c r="C1283" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1283" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1283" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1283" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1283" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1283" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1283" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1283" s="2">
+        <f t="shared" si="105"/>
+        <v>-1</v>
+      </c>
+      <c r="K1283" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="L1283" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1284" s="2">
+        <v>1282</v>
+      </c>
+      <c r="B1284" s="2">
+        <f t="shared" si="102"/>
+        <v>4.7303097417048696E+186</v>
+      </c>
+      <c r="C1284" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1284" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1284" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1284" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1284" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1284" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1284" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1284" s="2">
+        <f t="shared" si="105"/>
+        <v>-1</v>
+      </c>
+      <c r="K1284" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="L1284" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1285" s="2">
+        <v>1283</v>
+      </c>
+      <c r="B1285" s="2">
+        <f t="shared" si="102"/>
+        <v>7.0954646125573044E+186</v>
+      </c>
+      <c r="C1285" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1285" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1285" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1285" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1285" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1285" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1285" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1285" s="2">
+        <f t="shared" si="105"/>
+        <v>-1</v>
+      </c>
+      <c r="K1285" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="L1285" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1286" s="2">
+        <v>1284</v>
+      </c>
+      <c r="B1286" s="2">
+        <f t="shared" si="102"/>
+        <v>1.0643196918835957E+187</v>
+      </c>
+      <c r="C1286" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1286" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1286" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1286" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1286" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1286" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1286" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1286" s="2">
+        <f t="shared" si="105"/>
+        <v>-1</v>
+      </c>
+      <c r="K1286" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="L1286" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1287" s="2">
+        <v>1285</v>
+      </c>
+      <c r="B1287" s="2">
+        <f t="shared" si="102"/>
+        <v>1.5964795378253935E+187</v>
+      </c>
+      <c r="C1287" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1287" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1287" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1287" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1287" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1287" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1287" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1287" s="2">
+        <f t="shared" si="105"/>
+        <v>14</v>
+      </c>
+      <c r="K1287" s="2">
+        <f t="shared" si="106"/>
+        <v>4</v>
+      </c>
+      <c r="L1287" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1288" s="2">
+        <v>1286</v>
+      </c>
+      <c r="B1288" s="2">
+        <f t="shared" si="102"/>
+        <v>2.39471930673809E+187</v>
+      </c>
+      <c r="C1288" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1288" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1288" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1288" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1288" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1288" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1288" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1288" s="2">
+        <f t="shared" si="105"/>
+        <v>-1</v>
+      </c>
+      <c r="K1288" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="L1288" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1289" s="2">
+        <v>1287</v>
+      </c>
+      <c r="B1289" s="2">
+        <f t="shared" si="102"/>
+        <v>3.592078960107135E+187</v>
+      </c>
+      <c r="C1289" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1289" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1289" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1289" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1289" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1289" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1289" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1289" s="2">
+        <f t="shared" si="105"/>
+        <v>-1</v>
+      </c>
+      <c r="K1289" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="L1289" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1290" s="2">
+        <v>1288</v>
+      </c>
+      <c r="B1290" s="2">
+        <f t="shared" si="102"/>
+        <v>5.3881184401607021E+187</v>
+      </c>
+      <c r="C1290" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1290" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1290" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1290" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1290" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1290" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1290" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1290" s="2">
+        <f t="shared" si="105"/>
+        <v>-1</v>
+      </c>
+      <c r="K1290" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="L1290" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1291" s="2">
+        <v>1289</v>
+      </c>
+      <c r="B1291" s="2">
+        <f t="shared" si="102"/>
+        <v>8.0821776602410532E+187</v>
+      </c>
+      <c r="C1291" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1291" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1291" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1291" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1291" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1291" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1291" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1291" s="2">
+        <f t="shared" si="105"/>
+        <v>-1</v>
+      </c>
+      <c r="K1291" s="2">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="L1291" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51712A70-97B9-4BD1-9ED1-791748C471A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CEF064-CE14-4422-8172-31DC9C624F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1291"/>
+  <dimension ref="A1:L1314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1285" sqref="B1285"/>
+      <pane ySplit="1" topLeftCell="A1293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1304" sqref="B1304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -50156,7 +50156,7 @@
         <v>1233</v>
       </c>
       <c r="B1235" s="2">
-        <f t="shared" ref="B1235:B1291" si="102">B1234*1.5</f>
+        <f t="shared" ref="B1235:B1298" si="102">B1234*1.5</f>
         <v>1.1128019695344897E+178</v>
       </c>
       <c r="C1235" s="1">
@@ -52485,6 +52485,949 @@
         <v>0</v>
       </c>
       <c r="L1291" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1292" s="2">
+        <v>1290</v>
+      </c>
+      <c r="B1292" s="2">
+        <f t="shared" si="102"/>
+        <v>1.2123266490361579E+188</v>
+      </c>
+      <c r="C1292" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1292" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1292" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1292" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1292" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1292" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1292" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1292" s="2">
+        <f t="shared" ref="J1292:J1314" si="107">IF(MOD(A1292,5)=0,14,-1)</f>
+        <v>14</v>
+      </c>
+      <c r="K1292" s="2">
+        <f t="shared" ref="K1292:K1314" si="108">IF(J1292=14,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L1292" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1293" s="2">
+        <v>1291</v>
+      </c>
+      <c r="B1293" s="2">
+        <f t="shared" si="102"/>
+        <v>1.8184899735542368E+188</v>
+      </c>
+      <c r="C1293" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1293" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1293" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1293" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1293" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1293" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1293" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1293" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1293" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1293" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1294" s="2">
+        <v>1292</v>
+      </c>
+      <c r="B1294" s="2">
+        <f t="shared" si="102"/>
+        <v>2.7277349603313551E+188</v>
+      </c>
+      <c r="C1294" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1294" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1294" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1294" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1294" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1294" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1294" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1294" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1294" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1294" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1295" s="2">
+        <v>1293</v>
+      </c>
+      <c r="B1295" s="2">
+        <f t="shared" si="102"/>
+        <v>4.091602440497033E+188</v>
+      </c>
+      <c r="C1295" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1295" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1295" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1295" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1295" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1295" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1295" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1295" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1295" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1295" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1296" s="2">
+        <v>1294</v>
+      </c>
+      <c r="B1296" s="2">
+        <f t="shared" si="102"/>
+        <v>6.1374036607455501E+188</v>
+      </c>
+      <c r="C1296" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1296" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1296" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1296" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1296" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1296" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1296" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1296" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1296" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1296" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1297" s="2">
+        <v>1295</v>
+      </c>
+      <c r="B1297" s="2">
+        <f t="shared" si="102"/>
+        <v>9.2061054911183251E+188</v>
+      </c>
+      <c r="C1297" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1297" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1297" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1297" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1297" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1297" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1297" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1297" s="2">
+        <f t="shared" si="107"/>
+        <v>14</v>
+      </c>
+      <c r="K1297" s="2">
+        <f t="shared" si="108"/>
+        <v>4</v>
+      </c>
+      <c r="L1297" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1298" s="2">
+        <v>1296</v>
+      </c>
+      <c r="B1298" s="2">
+        <f t="shared" si="102"/>
+        <v>1.3809158236677488E+189</v>
+      </c>
+      <c r="C1298" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1298" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1298" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1298" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1298" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1298" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1298" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1298" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1298" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1298" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1299" s="2">
+        <v>1297</v>
+      </c>
+      <c r="B1299" s="2">
+        <f t="shared" ref="B1299:B1314" si="109">B1298*1.5</f>
+        <v>2.0713737355016233E+189</v>
+      </c>
+      <c r="C1299" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1299" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1299" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1299" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1299" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1299" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1299" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1299" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1299" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1299" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1300" s="2">
+        <v>1298</v>
+      </c>
+      <c r="B1300" s="2">
+        <f t="shared" si="109"/>
+        <v>3.1070606032524349E+189</v>
+      </c>
+      <c r="C1300" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1300" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1300" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1300" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1300" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1300" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1300" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1300" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1300" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1300" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1301" s="2">
+        <v>1299</v>
+      </c>
+      <c r="B1301" s="2">
+        <f t="shared" si="109"/>
+        <v>4.6605909048786518E+189</v>
+      </c>
+      <c r="C1301" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1301" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1301" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1301" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1301" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1301" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1301" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1301" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1301" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1301" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1302" s="2">
+        <v>1300</v>
+      </c>
+      <c r="B1302" s="2">
+        <f t="shared" si="109"/>
+        <v>6.9908863573179777E+189</v>
+      </c>
+      <c r="C1302" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1302" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1302" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1302" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1302" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1302" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1302" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1302" s="2">
+        <f t="shared" si="107"/>
+        <v>14</v>
+      </c>
+      <c r="K1302" s="2">
+        <f t="shared" si="108"/>
+        <v>4</v>
+      </c>
+      <c r="L1302" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1303" s="2">
+        <v>1301</v>
+      </c>
+      <c r="B1303" s="2">
+        <f t="shared" si="109"/>
+        <v>1.0486329535976967E+190</v>
+      </c>
+      <c r="C1303" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1303" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1303" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1303" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1303" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1303" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1303" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1303" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1303" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1303" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1304" s="2">
+        <v>1302</v>
+      </c>
+      <c r="B1304" s="2">
+        <f t="shared" si="109"/>
+        <v>1.572949430396545E+190</v>
+      </c>
+      <c r="C1304" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1304" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1304" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1304" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1304" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1304" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1304" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1304" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1304" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1304" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1305" s="2">
+        <v>1303</v>
+      </c>
+      <c r="B1305" s="2">
+        <f t="shared" si="109"/>
+        <v>2.3594241455948174E+190</v>
+      </c>
+      <c r="C1305" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1305" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1305" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1305" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1305" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1305" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1305" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1305" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1305" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1305" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1306" s="2">
+        <v>1304</v>
+      </c>
+      <c r="B1306" s="2">
+        <f t="shared" si="109"/>
+        <v>3.5391362183922261E+190</v>
+      </c>
+      <c r="C1306" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1306" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1306" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1306" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1306" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1306" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1306" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1306" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1306" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1306" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1307" s="2">
+        <v>1305</v>
+      </c>
+      <c r="B1307" s="2">
+        <f t="shared" si="109"/>
+        <v>5.3087043275883389E+190</v>
+      </c>
+      <c r="C1307" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1307" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1307" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1307" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1307" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1307" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1307" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1307" s="2">
+        <f t="shared" si="107"/>
+        <v>14</v>
+      </c>
+      <c r="K1307" s="2">
+        <f t="shared" si="108"/>
+        <v>4</v>
+      </c>
+      <c r="L1307" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1308" s="2">
+        <v>1306</v>
+      </c>
+      <c r="B1308" s="2">
+        <f t="shared" si="109"/>
+        <v>7.9630564913825084E+190</v>
+      </c>
+      <c r="C1308" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1308" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1308" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1308" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1308" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1308" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1308" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1308" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1308" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1308" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1309" s="2">
+        <v>1307</v>
+      </c>
+      <c r="B1309" s="2">
+        <f t="shared" si="109"/>
+        <v>1.1944584737073763E+191</v>
+      </c>
+      <c r="C1309" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1309" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1309" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1309" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1309" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1309" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1309" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1309" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1309" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1309" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1310" s="2">
+        <v>1308</v>
+      </c>
+      <c r="B1310" s="2">
+        <f t="shared" si="109"/>
+        <v>1.7916877105610642E+191</v>
+      </c>
+      <c r="C1310" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1310" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1310" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1310" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1310" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1310" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1310" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1310" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1310" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1310" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1311" s="2">
+        <v>1309</v>
+      </c>
+      <c r="B1311" s="2">
+        <f t="shared" si="109"/>
+        <v>2.6875315658415963E+191</v>
+      </c>
+      <c r="C1311" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1311" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1311" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1311" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1311" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1311" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1311" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1311" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1311" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1311" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1312" s="2">
+        <v>1310</v>
+      </c>
+      <c r="B1312" s="2">
+        <f t="shared" si="109"/>
+        <v>4.0312973487623945E+191</v>
+      </c>
+      <c r="C1312" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1312" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1312" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1312" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1312" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1312" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1312" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1312" s="2">
+        <f t="shared" si="107"/>
+        <v>14</v>
+      </c>
+      <c r="K1312" s="2">
+        <f t="shared" si="108"/>
+        <v>4</v>
+      </c>
+      <c r="L1312" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1313" s="2">
+        <v>1311</v>
+      </c>
+      <c r="B1313" s="2">
+        <f t="shared" si="109"/>
+        <v>6.0469460231435914E+191</v>
+      </c>
+      <c r="C1313" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1313" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1313" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1313" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1313" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1313" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1313" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1313" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1313" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1313" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1314" s="2">
+        <v>1312</v>
+      </c>
+      <c r="B1314" s="2">
+        <f t="shared" si="109"/>
+        <v>9.0704190347153872E+191</v>
+      </c>
+      <c r="C1314" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1314" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1314" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1314" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1314" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1314" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1314" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1314" s="2">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="K1314" s="2">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L1314" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CEF064-CE14-4422-8172-31DC9C624F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8952E8B2-A833-40AB-B127-75CA80EB97D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1314"/>
+  <dimension ref="A1:L1336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1304" sqref="B1304"/>
+      <pane ySplit="1" topLeftCell="A1314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1333" sqref="C1333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -52780,7 +52780,7 @@
         <v>1297</v>
       </c>
       <c r="B1299" s="2">
-        <f t="shared" ref="B1299:B1314" si="109">B1298*1.5</f>
+        <f t="shared" ref="B1299:B1336" si="109">B1298*1.5</f>
         <v>2.0713737355016233E+189</v>
       </c>
       <c r="C1299" s="1">
@@ -53428,6 +53428,908 @@
         <v>0</v>
       </c>
       <c r="L1314" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1315" s="2">
+        <v>1313</v>
+      </c>
+      <c r="B1315" s="2">
+        <f t="shared" si="109"/>
+        <v>1.3605628552073079E+192</v>
+      </c>
+      <c r="C1315" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1315" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1315" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1315" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1315" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1315" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1315" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1315" s="2">
+        <f t="shared" ref="J1315:J1336" si="110">IF(MOD(A1315,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1315" s="2">
+        <f t="shared" ref="K1315:K1336" si="111">IF(J1315=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1315" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1316" s="2">
+        <v>1314</v>
+      </c>
+      <c r="B1316" s="2">
+        <f t="shared" si="109"/>
+        <v>2.0408442828109619E+192</v>
+      </c>
+      <c r="C1316" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1316" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1316" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1316" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1316" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1316" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1316" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1316" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1316" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1316" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1317" s="2">
+        <v>1315</v>
+      </c>
+      <c r="B1317" s="2">
+        <f t="shared" si="109"/>
+        <v>3.0612664242164429E+192</v>
+      </c>
+      <c r="C1317" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1317" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1317" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1317" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1317" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1317" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1317" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1317" s="2">
+        <f t="shared" si="110"/>
+        <v>14</v>
+      </c>
+      <c r="K1317" s="2">
+        <f t="shared" si="111"/>
+        <v>4</v>
+      </c>
+      <c r="L1317" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1318" s="2">
+        <v>1316</v>
+      </c>
+      <c r="B1318" s="2">
+        <f t="shared" si="109"/>
+        <v>4.5918996363246641E+192</v>
+      </c>
+      <c r="C1318" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1318" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1318" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1318" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1318" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1318" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1318" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1318" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1318" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1318" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1319" s="2">
+        <v>1317</v>
+      </c>
+      <c r="B1319" s="2">
+        <f t="shared" si="109"/>
+        <v>6.8878494544869956E+192</v>
+      </c>
+      <c r="C1319" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1319" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1319" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1319" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1319" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1319" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1319" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1319" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1319" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1319" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1320" s="2">
+        <v>1318</v>
+      </c>
+      <c r="B1320" s="2">
+        <f t="shared" si="109"/>
+        <v>1.0331774181730494E+193</v>
+      </c>
+      <c r="C1320" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1320" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1320" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1320" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1320" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1320" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1320" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1320" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1320" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1320" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1321" s="2">
+        <v>1319</v>
+      </c>
+      <c r="B1321" s="2">
+        <f t="shared" si="109"/>
+        <v>1.5497661272595742E+193</v>
+      </c>
+      <c r="C1321" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1321" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1321" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1321" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1321" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1321" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1321" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1321" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1321" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1321" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1322" s="2">
+        <v>1320</v>
+      </c>
+      <c r="B1322" s="2">
+        <f t="shared" si="109"/>
+        <v>2.3246491908893612E+193</v>
+      </c>
+      <c r="C1322" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1322" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1322" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1322" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1322" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1322" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1322" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1322" s="2">
+        <f t="shared" si="110"/>
+        <v>14</v>
+      </c>
+      <c r="K1322" s="2">
+        <f t="shared" si="111"/>
+        <v>4</v>
+      </c>
+      <c r="L1322" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1323" s="2">
+        <v>1321</v>
+      </c>
+      <c r="B1323" s="2">
+        <f t="shared" si="109"/>
+        <v>3.4869737863340421E+193</v>
+      </c>
+      <c r="C1323" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1323" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1323" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1323" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1323" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1323" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1323" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1323" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1323" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1323" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1324" s="2">
+        <v>1322</v>
+      </c>
+      <c r="B1324" s="2">
+        <f t="shared" si="109"/>
+        <v>5.2304606795010627E+193</v>
+      </c>
+      <c r="C1324" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1324" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1324" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1324" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1324" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1324" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1324" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1324" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1324" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1324" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1325" s="2">
+        <v>1323</v>
+      </c>
+      <c r="B1325" s="2">
+        <f t="shared" si="109"/>
+        <v>7.8456910192515941E+193</v>
+      </c>
+      <c r="C1325" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1325" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1325" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1325" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1325" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1325" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1325" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1325" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1325" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1325" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1326" s="2">
+        <v>1324</v>
+      </c>
+      <c r="B1326" s="2">
+        <f t="shared" si="109"/>
+        <v>1.1768536528877391E+194</v>
+      </c>
+      <c r="C1326" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1326" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1326" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1326" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1326" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1326" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1326" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1326" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1326" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1326" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1327" s="2">
+        <v>1325</v>
+      </c>
+      <c r="B1327" s="2">
+        <f t="shared" si="109"/>
+        <v>1.7652804793316087E+194</v>
+      </c>
+      <c r="C1327" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1327" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1327" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1327" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1327" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1327" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1327" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1327" s="2">
+        <f t="shared" si="110"/>
+        <v>14</v>
+      </c>
+      <c r="K1327" s="2">
+        <f t="shared" si="111"/>
+        <v>4</v>
+      </c>
+      <c r="L1327" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1328" s="2">
+        <v>1326</v>
+      </c>
+      <c r="B1328" s="2">
+        <f t="shared" si="109"/>
+        <v>2.6479207189974133E+194</v>
+      </c>
+      <c r="C1328" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1328" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1328" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1328" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1328" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1328" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1328" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1328" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1328" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1328" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1329" s="2">
+        <v>1327</v>
+      </c>
+      <c r="B1329" s="2">
+        <f t="shared" si="109"/>
+        <v>3.9718810784961199E+194</v>
+      </c>
+      <c r="C1329" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1329" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1329" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1329" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1329" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1329" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1329" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1329" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1329" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1329" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1330" s="2">
+        <v>1328</v>
+      </c>
+      <c r="B1330" s="2">
+        <f t="shared" si="109"/>
+        <v>5.9578216177441795E+194</v>
+      </c>
+      <c r="C1330" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1330" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1330" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1330" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1330" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1330" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1330" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1330" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1330" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1330" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1331" s="2">
+        <v>1329</v>
+      </c>
+      <c r="B1331" s="2">
+        <f t="shared" si="109"/>
+        <v>8.9367324266162693E+194</v>
+      </c>
+      <c r="C1331" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1331" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1331" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1331" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1331" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1331" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1331" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1331" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1331" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1331" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1332" s="2">
+        <v>1330</v>
+      </c>
+      <c r="B1332" s="2">
+        <f t="shared" si="109"/>
+        <v>1.3405098639924404E+195</v>
+      </c>
+      <c r="C1332" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1332" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1332" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1332" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1332" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1332" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1332" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1332" s="2">
+        <f t="shared" si="110"/>
+        <v>14</v>
+      </c>
+      <c r="K1332" s="2">
+        <f t="shared" si="111"/>
+        <v>4</v>
+      </c>
+      <c r="L1332" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1333" s="2">
+        <v>1331</v>
+      </c>
+      <c r="B1333" s="2">
+        <f t="shared" si="109"/>
+        <v>2.0107647959886606E+195</v>
+      </c>
+      <c r="C1333" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1333" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1333" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1333" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1333" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1333" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1333" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1333" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1333" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1333" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1334" s="2">
+        <v>1332</v>
+      </c>
+      <c r="B1334" s="2">
+        <f t="shared" si="109"/>
+        <v>3.0161471939829912E+195</v>
+      </c>
+      <c r="C1334" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1334" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1334" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1334" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1334" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1334" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1334" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1334" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1334" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1334" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1335" s="2">
+        <v>1333</v>
+      </c>
+      <c r="B1335" s="2">
+        <f t="shared" si="109"/>
+        <v>4.5242207909744867E+195</v>
+      </c>
+      <c r="C1335" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1335" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1335" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1335" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1335" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1335" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1335" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1335" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1335" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1335" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1336" s="2">
+        <v>1334</v>
+      </c>
+      <c r="B1336" s="2">
+        <f t="shared" si="109"/>
+        <v>6.7863311864617298E+195</v>
+      </c>
+      <c r="C1336" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1336" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1336" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1336" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1336" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1336" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1336" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1336" s="2">
+        <f t="shared" si="110"/>
+        <v>-1</v>
+      </c>
+      <c r="K1336" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L1336" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8952E8B2-A833-40AB-B127-75CA80EB97D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECFDEBD-13E7-4199-B813-AB7680709639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1336"/>
+  <dimension ref="A1:L1382"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1333" sqref="C1333"/>
+      <pane ySplit="1" topLeftCell="A1360" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1366" sqref="F1366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -52780,7 +52780,7 @@
         <v>1297</v>
       </c>
       <c r="B1299" s="2">
-        <f t="shared" ref="B1299:B1336" si="109">B1298*1.5</f>
+        <f t="shared" ref="B1299:B1362" si="109">B1298*1.5</f>
         <v>2.0713737355016233E+189</v>
       </c>
       <c r="C1299" s="1">
@@ -54330,6 +54330,1892 @@
         <v>0</v>
       </c>
       <c r="L1336" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1337" s="2">
+        <v>1335</v>
+      </c>
+      <c r="B1337" s="2">
+        <f t="shared" si="109"/>
+        <v>1.0179496779692594E+196</v>
+      </c>
+      <c r="C1337" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1337" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1337" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1337" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1337" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1337" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1337" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1337" s="2">
+        <f t="shared" ref="J1337:J1356" si="112">IF(MOD(A1337,5)=0,14,-1)</f>
+        <v>14</v>
+      </c>
+      <c r="K1337" s="2">
+        <f t="shared" ref="K1337:K1356" si="113">IF(J1337=14,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L1337" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1338" s="2">
+        <v>1336</v>
+      </c>
+      <c r="B1338" s="2">
+        <f t="shared" si="109"/>
+        <v>1.5269245169538891E+196</v>
+      </c>
+      <c r="C1338" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1338" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1338" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1338" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1338" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1338" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1338" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1338" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1338" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1338" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1339" s="2">
+        <v>1337</v>
+      </c>
+      <c r="B1339" s="2">
+        <f t="shared" si="109"/>
+        <v>2.2903867754308335E+196</v>
+      </c>
+      <c r="C1339" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1339" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1339" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1339" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1339" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1339" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1339" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1339" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1339" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1339" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1340" s="2">
+        <v>1338</v>
+      </c>
+      <c r="B1340" s="2">
+        <f t="shared" si="109"/>
+        <v>3.4355801631462502E+196</v>
+      </c>
+      <c r="C1340" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1340" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1340" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1340" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1340" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1340" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1340" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1340" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1340" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1340" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1341" s="2">
+        <v>1339</v>
+      </c>
+      <c r="B1341" s="2">
+        <f t="shared" si="109"/>
+        <v>5.1533702447193754E+196</v>
+      </c>
+      <c r="C1341" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1341" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1341" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1341" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1341" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1341" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1341" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1341" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1341" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1341" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1342" s="2">
+        <v>1340</v>
+      </c>
+      <c r="B1342" s="2">
+        <f t="shared" si="109"/>
+        <v>7.7300553670790626E+196</v>
+      </c>
+      <c r="C1342" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1342" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1342" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1342" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1342" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1342" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1342" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1342" s="2">
+        <f t="shared" si="112"/>
+        <v>14</v>
+      </c>
+      <c r="K1342" s="2">
+        <f t="shared" si="113"/>
+        <v>4</v>
+      </c>
+      <c r="L1342" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1343" s="2">
+        <v>1341</v>
+      </c>
+      <c r="B1343" s="2">
+        <f t="shared" si="109"/>
+        <v>1.1595083050618594E+197</v>
+      </c>
+      <c r="C1343" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1343" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1343" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1343" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1343" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1343" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1343" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1343" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1343" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1343" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1344" s="2">
+        <v>1342</v>
+      </c>
+      <c r="B1344" s="2">
+        <f t="shared" si="109"/>
+        <v>1.739262457592789E+197</v>
+      </c>
+      <c r="C1344" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1344" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1344" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1344" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1344" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1344" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1344" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1344" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1344" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1344" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1345" s="2">
+        <v>1343</v>
+      </c>
+      <c r="B1345" s="2">
+        <f t="shared" si="109"/>
+        <v>2.6088936863891835E+197</v>
+      </c>
+      <c r="C1345" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1345" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1345" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1345" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1345" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1345" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1345" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1345" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1345" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1345" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1346" s="2">
+        <v>1344</v>
+      </c>
+      <c r="B1346" s="2">
+        <f t="shared" si="109"/>
+        <v>3.9133405295837753E+197</v>
+      </c>
+      <c r="C1346" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1346" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1346" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1346" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1346" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1346" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1346" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1346" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1346" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1346" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1347" s="2">
+        <v>1345</v>
+      </c>
+      <c r="B1347" s="2">
+        <f t="shared" si="109"/>
+        <v>5.8700107943756632E+197</v>
+      </c>
+      <c r="C1347" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1347" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1347" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1347" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1347" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1347" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1347" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1347" s="2">
+        <f t="shared" si="112"/>
+        <v>14</v>
+      </c>
+      <c r="K1347" s="2">
+        <f t="shared" si="113"/>
+        <v>4</v>
+      </c>
+      <c r="L1347" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1348" s="2">
+        <v>1346</v>
+      </c>
+      <c r="B1348" s="2">
+        <f t="shared" si="109"/>
+        <v>8.8050161915634949E+197</v>
+      </c>
+      <c r="C1348" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1348" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1348" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1348" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1348" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1348" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1348" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1348" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1348" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1348" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1349" s="2">
+        <v>1347</v>
+      </c>
+      <c r="B1349" s="2">
+        <f t="shared" si="109"/>
+        <v>1.3207524287345242E+198</v>
+      </c>
+      <c r="C1349" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1349" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1349" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1349" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1349" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1349" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1349" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1349" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1349" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1349" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1350" s="2">
+        <v>1348</v>
+      </c>
+      <c r="B1350" s="2">
+        <f t="shared" si="109"/>
+        <v>1.9811286431017862E+198</v>
+      </c>
+      <c r="C1350" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1350" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1350" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1350" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1350" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1350" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1350" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1350" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1350" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1350" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1351" s="2">
+        <v>1349</v>
+      </c>
+      <c r="B1351" s="2">
+        <f t="shared" si="109"/>
+        <v>2.9716929646526793E+198</v>
+      </c>
+      <c r="C1351" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1351" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1351" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1351" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1351" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1351" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1351" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1351" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1351" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1351" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1352" s="2">
+        <v>1350</v>
+      </c>
+      <c r="B1352" s="2">
+        <f t="shared" si="109"/>
+        <v>4.4575394469790192E+198</v>
+      </c>
+      <c r="C1352" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1352" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1352" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1352" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1352" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1352" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1352" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1352" s="2">
+        <f t="shared" si="112"/>
+        <v>14</v>
+      </c>
+      <c r="K1352" s="2">
+        <f t="shared" si="113"/>
+        <v>4</v>
+      </c>
+      <c r="L1352" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1353" s="2">
+        <v>1351</v>
+      </c>
+      <c r="B1353" s="2">
+        <f t="shared" si="109"/>
+        <v>6.6863091704685289E+198</v>
+      </c>
+      <c r="C1353" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1353" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1353" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1353" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1353" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1353" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1353" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1353" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1353" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1353" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1354" s="2">
+        <v>1352</v>
+      </c>
+      <c r="B1354" s="2">
+        <f t="shared" si="109"/>
+        <v>1.0029463755702794E+199</v>
+      </c>
+      <c r="C1354" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1354" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1354" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1354" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1354" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1354" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1354" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1354" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1354" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1354" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1355" s="2">
+        <v>1353</v>
+      </c>
+      <c r="B1355" s="2">
+        <f t="shared" si="109"/>
+        <v>1.5044195633554192E+199</v>
+      </c>
+      <c r="C1355" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1355" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1355" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1355" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1355" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1355" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1355" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1355" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1355" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1355" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1356" s="2">
+        <v>1354</v>
+      </c>
+      <c r="B1356" s="2">
+        <f t="shared" si="109"/>
+        <v>2.2566293450331286E+199</v>
+      </c>
+      <c r="C1356" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1356" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1356" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1356" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1356" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1356" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1356" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1356" s="2">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="K1356" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L1356" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1357" s="2">
+        <v>1355</v>
+      </c>
+      <c r="B1357" s="2">
+        <f t="shared" si="109"/>
+        <v>3.3849440175496928E+199</v>
+      </c>
+      <c r="C1357" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1357" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1357" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1357" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1357" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1357" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1357" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1357" s="2">
+        <f t="shared" ref="J1357:J1382" si="114">IF(MOD(A1357,5)=0,14,-1)</f>
+        <v>14</v>
+      </c>
+      <c r="K1357" s="2">
+        <f t="shared" ref="K1357:K1382" si="115">IF(J1357=14,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L1357" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1358" s="2">
+        <v>1356</v>
+      </c>
+      <c r="B1358" s="2">
+        <f t="shared" si="109"/>
+        <v>5.0774160263245393E+199</v>
+      </c>
+      <c r="C1358" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1358" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1358" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1358" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1358" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1358" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1358" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1358" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1358" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1358" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1359" s="2">
+        <v>1357</v>
+      </c>
+      <c r="B1359" s="2">
+        <f t="shared" si="109"/>
+        <v>7.6161240394868085E+199</v>
+      </c>
+      <c r="C1359" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1359" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1359" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1359" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1359" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1359" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1359" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1359" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1359" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1359" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1360" s="2">
+        <v>1358</v>
+      </c>
+      <c r="B1360" s="2">
+        <f t="shared" si="109"/>
+        <v>1.1424186059230213E+200</v>
+      </c>
+      <c r="C1360" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1360" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1360" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1360" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1360" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1360" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1360" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1360" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1360" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1360" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1361" s="2">
+        <v>1359</v>
+      </c>
+      <c r="B1361" s="2">
+        <f t="shared" si="109"/>
+        <v>1.7136279088845321E+200</v>
+      </c>
+      <c r="C1361" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1361" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1361" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1361" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1361" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1361" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1361" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1361" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1361" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1361" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1362" s="2">
+        <v>1360</v>
+      </c>
+      <c r="B1362" s="2">
+        <f t="shared" si="109"/>
+        <v>2.5704418633267981E+200</v>
+      </c>
+      <c r="C1362" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1362" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1362" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1362" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1362" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1362" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1362" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1362" s="2">
+        <f t="shared" si="114"/>
+        <v>14</v>
+      </c>
+      <c r="K1362" s="2">
+        <f t="shared" si="115"/>
+        <v>4</v>
+      </c>
+      <c r="L1362" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1363" s="2">
+        <v>1361</v>
+      </c>
+      <c r="B1363" s="2">
+        <f t="shared" ref="B1363:B1382" si="116">B1362*1.5</f>
+        <v>3.8556627949901975E+200</v>
+      </c>
+      <c r="C1363" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1363" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1363" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1363" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1363" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1363" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1363" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1363" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1363" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1363" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1364" s="2">
+        <v>1362</v>
+      </c>
+      <c r="B1364" s="2">
+        <f t="shared" si="116"/>
+        <v>5.7834941924852963E+200</v>
+      </c>
+      <c r="C1364" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1364" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1364" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1364" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1364" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1364" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1364" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1364" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1364" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1364" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1365" s="2">
+        <v>1363</v>
+      </c>
+      <c r="B1365" s="2">
+        <f t="shared" si="116"/>
+        <v>8.675241288727944E+200</v>
+      </c>
+      <c r="C1365" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1365" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1365" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1365" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1365" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1365" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1365" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1365" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1365" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1365" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1366" s="2">
+        <v>1364</v>
+      </c>
+      <c r="B1366" s="2">
+        <f t="shared" si="116"/>
+        <v>1.3012861933091917E+201</v>
+      </c>
+      <c r="C1366" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1366" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1366" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1366" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1366" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1366" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1366" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1366" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1366" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1366" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1367" s="2">
+        <v>1365</v>
+      </c>
+      <c r="B1367" s="2">
+        <f t="shared" si="116"/>
+        <v>1.9519292899637875E+201</v>
+      </c>
+      <c r="C1367" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1367" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1367" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1367" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1367" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1367" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1367" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1367" s="2">
+        <f t="shared" si="114"/>
+        <v>14</v>
+      </c>
+      <c r="K1367" s="2">
+        <f t="shared" si="115"/>
+        <v>4</v>
+      </c>
+      <c r="L1367" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1368" s="2">
+        <v>1366</v>
+      </c>
+      <c r="B1368" s="2">
+        <f t="shared" si="116"/>
+        <v>2.9278939349456813E+201</v>
+      </c>
+      <c r="C1368" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1368" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1368" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1368" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1368" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1368" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1368" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1368" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1368" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1368" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1369" s="2">
+        <v>1367</v>
+      </c>
+      <c r="B1369" s="2">
+        <f t="shared" si="116"/>
+        <v>4.3918409024185219E+201</v>
+      </c>
+      <c r="C1369" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1369" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1369" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1369" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1369" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1369" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1369" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1369" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1369" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1369" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1370" s="2">
+        <v>1368</v>
+      </c>
+      <c r="B1370" s="2">
+        <f t="shared" si="116"/>
+        <v>6.5877613536277831E+201</v>
+      </c>
+      <c r="C1370" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1370" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1370" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1370" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1370" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1370" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1370" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1370" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1370" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1370" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1371" s="2">
+        <v>1369</v>
+      </c>
+      <c r="B1371" s="2">
+        <f t="shared" si="116"/>
+        <v>9.8816420304416747E+201</v>
+      </c>
+      <c r="C1371" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1371" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1371" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1371" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1371" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1371" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1371" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1371" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1371" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1371" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1372" s="2">
+        <v>1370</v>
+      </c>
+      <c r="B1372" s="2">
+        <f t="shared" si="116"/>
+        <v>1.4822463045662511E+202</v>
+      </c>
+      <c r="C1372" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1372" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1372" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1372" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1372" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1372" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1372" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1372" s="2">
+        <f t="shared" si="114"/>
+        <v>14</v>
+      </c>
+      <c r="K1372" s="2">
+        <f t="shared" si="115"/>
+        <v>4</v>
+      </c>
+      <c r="L1372" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1373" s="2">
+        <v>1371</v>
+      </c>
+      <c r="B1373" s="2">
+        <f t="shared" si="116"/>
+        <v>2.2233694568493766E+202</v>
+      </c>
+      <c r="C1373" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1373" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1373" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1373" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1373" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1373" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1373" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1373" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1373" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1373" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1374" s="2">
+        <v>1372</v>
+      </c>
+      <c r="B1374" s="2">
+        <f t="shared" si="116"/>
+        <v>3.335054185274065E+202</v>
+      </c>
+      <c r="C1374" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1374" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1374" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1374" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1374" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1374" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1374" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1374" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1374" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1374" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1375" s="2">
+        <v>1373</v>
+      </c>
+      <c r="B1375" s="2">
+        <f t="shared" si="116"/>
+        <v>5.0025812779110972E+202</v>
+      </c>
+      <c r="C1375" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1375" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1375" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1375" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1375" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1375" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1375" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1375" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1375" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1375" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1376" s="2">
+        <v>1374</v>
+      </c>
+      <c r="B1376" s="2">
+        <f t="shared" si="116"/>
+        <v>7.5038719168666463E+202</v>
+      </c>
+      <c r="C1376" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1376" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1376" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1376" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1376" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1376" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1376" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1376" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1376" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1376" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1377" s="2">
+        <v>1375</v>
+      </c>
+      <c r="B1377" s="2">
+        <f t="shared" si="116"/>
+        <v>1.125580787529997E+203</v>
+      </c>
+      <c r="C1377" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1377" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1377" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1377" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1377" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1377" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1377" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1377" s="2">
+        <f t="shared" si="114"/>
+        <v>14</v>
+      </c>
+      <c r="K1377" s="2">
+        <f t="shared" si="115"/>
+        <v>4</v>
+      </c>
+      <c r="L1377" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1378" s="2">
+        <v>1376</v>
+      </c>
+      <c r="B1378" s="2">
+        <f t="shared" si="116"/>
+        <v>1.6883711812949955E+203</v>
+      </c>
+      <c r="C1378" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1378" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1378" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1378" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1378" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1378" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1378" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1378" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1378" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1378" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1379" s="2">
+        <v>1377</v>
+      </c>
+      <c r="B1379" s="2">
+        <f t="shared" si="116"/>
+        <v>2.5325567719424933E+203</v>
+      </c>
+      <c r="C1379" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1379" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1379" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1379" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1379" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1379" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1379" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1379" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1379" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1379" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1380" s="2">
+        <v>1378</v>
+      </c>
+      <c r="B1380" s="2">
+        <f t="shared" si="116"/>
+        <v>3.7988351579137401E+203</v>
+      </c>
+      <c r="C1380" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1380" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1380" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1380" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1380" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1380" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1380" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1380" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1380" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1380" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1381" s="2">
+        <v>1379</v>
+      </c>
+      <c r="B1381" s="2">
+        <f t="shared" si="116"/>
+        <v>5.6982527368706106E+203</v>
+      </c>
+      <c r="C1381" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1381" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1381" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1381" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1381" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1381" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1381" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1381" s="2">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="K1381" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L1381" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1382" s="2">
+        <v>1380</v>
+      </c>
+      <c r="B1382" s="2">
+        <f t="shared" si="116"/>
+        <v>8.5473791053059158E+203</v>
+      </c>
+      <c r="C1382" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1382" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1382" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1382" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1382" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1382" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1382" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1382" s="2">
+        <f t="shared" si="114"/>
+        <v>14</v>
+      </c>
+      <c r="K1382" s="2">
+        <f t="shared" si="115"/>
+        <v>4</v>
+      </c>
+      <c r="L1382" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECFDEBD-13E7-4199-B813-AB7680709639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C701F0-407C-4045-923A-0242BE021449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1382"/>
+  <dimension ref="A1:L1433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1360" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1366" sqref="F1366"/>
+      <pane ySplit="1" topLeftCell="A1407" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1425" sqref="B1425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -55404,7 +55404,7 @@
         <v>1361</v>
       </c>
       <c r="B1363" s="2">
-        <f t="shared" ref="B1363:B1382" si="116">B1362*1.5</f>
+        <f t="shared" ref="B1363:B1426" si="116">B1362*1.5</f>
         <v>3.8556627949901975E+200</v>
       </c>
       <c r="C1363" s="1">
@@ -56216,6 +56216,2097 @@
         <v>4</v>
       </c>
       <c r="L1382" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1383" s="2">
+        <v>1381</v>
+      </c>
+      <c r="B1383" s="2">
+        <f t="shared" si="116"/>
+        <v>1.2821068657958873E+204</v>
+      </c>
+      <c r="C1383" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1383" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1383" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1383" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1383" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1383" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1383" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1383" s="2">
+        <f t="shared" ref="J1383:J1433" si="117">IF(MOD(A1383,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1383" s="2">
+        <f t="shared" ref="K1383:K1433" si="118">IF(J1383=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1383" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1384" s="2">
+        <v>1382</v>
+      </c>
+      <c r="B1384" s="2">
+        <f t="shared" si="116"/>
+        <v>1.9231602986938311E+204</v>
+      </c>
+      <c r="C1384" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1384" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1384" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1384" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1384" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1384" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1384" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1384" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1384" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1384" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1385" s="2">
+        <v>1383</v>
+      </c>
+      <c r="B1385" s="2">
+        <f t="shared" si="116"/>
+        <v>2.8847404480407469E+204</v>
+      </c>
+      <c r="C1385" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1385" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1385" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1385" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1385" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1385" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1385" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1385" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1385" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1385" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1386" s="2">
+        <v>1384</v>
+      </c>
+      <c r="B1386" s="2">
+        <f t="shared" si="116"/>
+        <v>4.3271106720611204E+204</v>
+      </c>
+      <c r="C1386" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1386" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1386" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1386" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1386" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1386" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1386" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1386" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1386" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1386" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1387" s="2">
+        <v>1385</v>
+      </c>
+      <c r="B1387" s="2">
+        <f t="shared" si="116"/>
+        <v>6.4906660080916806E+204</v>
+      </c>
+      <c r="C1387" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1387" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1387" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1387" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1387" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1387" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1387" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1387" s="2">
+        <f t="shared" si="117"/>
+        <v>14</v>
+      </c>
+      <c r="K1387" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="L1387" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1388" s="2">
+        <v>1386</v>
+      </c>
+      <c r="B1388" s="2">
+        <f t="shared" si="116"/>
+        <v>9.7359990121375209E+204</v>
+      </c>
+      <c r="C1388" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1388" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1388" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1388" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1388" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1388" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1388" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1388" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1388" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1388" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1389" s="2">
+        <v>1387</v>
+      </c>
+      <c r="B1389" s="2">
+        <f t="shared" si="116"/>
+        <v>1.4603998518206282E+205</v>
+      </c>
+      <c r="C1389" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1389" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1389" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1389" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1389" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1389" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1389" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1389" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1389" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1389" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1390" s="2">
+        <v>1388</v>
+      </c>
+      <c r="B1390" s="2">
+        <f t="shared" si="116"/>
+        <v>2.1905997777309424E+205</v>
+      </c>
+      <c r="C1390" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1390" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1390" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1390" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1390" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1390" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1390" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1390" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1390" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1390" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1391" s="2">
+        <v>1389</v>
+      </c>
+      <c r="B1391" s="2">
+        <f t="shared" si="116"/>
+        <v>3.2858996665964133E+205</v>
+      </c>
+      <c r="C1391" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1391" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1391" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1391" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1391" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1391" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1391" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1391" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1391" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1391" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1392" s="2">
+        <v>1390</v>
+      </c>
+      <c r="B1392" s="2">
+        <f t="shared" si="116"/>
+        <v>4.92884949989462E+205</v>
+      </c>
+      <c r="C1392" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1392" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1392" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1392" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1392" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1392" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1392" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1392" s="2">
+        <f t="shared" si="117"/>
+        <v>14</v>
+      </c>
+      <c r="K1392" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="L1392" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1393" s="2">
+        <v>1391</v>
+      </c>
+      <c r="B1393" s="2">
+        <f t="shared" si="116"/>
+        <v>7.3932742498419295E+205</v>
+      </c>
+      <c r="C1393" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1393" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1393" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1393" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1393" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1393" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1393" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1393" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1393" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1393" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1394" s="2">
+        <v>1392</v>
+      </c>
+      <c r="B1394" s="2">
+        <f t="shared" si="116"/>
+        <v>1.1089911374762895E+206</v>
+      </c>
+      <c r="C1394" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1394" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1394" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1394" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1394" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1394" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1394" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1394" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1394" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1394" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1395" s="2">
+        <v>1393</v>
+      </c>
+      <c r="B1395" s="2">
+        <f t="shared" si="116"/>
+        <v>1.6634867062144345E+206</v>
+      </c>
+      <c r="C1395" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1395" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1395" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1395" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1395" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1395" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1395" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1395" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1395" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1395" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1396" s="2">
+        <v>1394</v>
+      </c>
+      <c r="B1396" s="2">
+        <f t="shared" si="116"/>
+        <v>2.4952300593216517E+206</v>
+      </c>
+      <c r="C1396" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1396" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1396" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1396" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1396" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1396" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1396" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1396" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1396" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1396" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1397" s="2">
+        <v>1395</v>
+      </c>
+      <c r="B1397" s="2">
+        <f t="shared" si="116"/>
+        <v>3.7428450889824777E+206</v>
+      </c>
+      <c r="C1397" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1397" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1397" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1397" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1397" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1397" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1397" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1397" s="2">
+        <f t="shared" si="117"/>
+        <v>14</v>
+      </c>
+      <c r="K1397" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="L1397" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1398" s="2">
+        <v>1396</v>
+      </c>
+      <c r="B1398" s="2">
+        <f t="shared" si="116"/>
+        <v>5.6142676334737169E+206</v>
+      </c>
+      <c r="C1398" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1398" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1398" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1398" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1398" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1398" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1398" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1398" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1398" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1398" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1399" s="2">
+        <v>1397</v>
+      </c>
+      <c r="B1399" s="2">
+        <f t="shared" si="116"/>
+        <v>8.4214014502105754E+206</v>
+      </c>
+      <c r="C1399" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1399" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1399" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1399" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1399" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1399" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1399" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1399" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1399" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1399" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1400" s="2">
+        <v>1398</v>
+      </c>
+      <c r="B1400" s="2">
+        <f t="shared" si="116"/>
+        <v>1.2632102175315863E+207</v>
+      </c>
+      <c r="C1400" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1400" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1400" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1400" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1400" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1400" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1400" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1400" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1400" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1400" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1401" s="2">
+        <v>1399</v>
+      </c>
+      <c r="B1401" s="2">
+        <f t="shared" si="116"/>
+        <v>1.8948153262973793E+207</v>
+      </c>
+      <c r="C1401" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1401" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1401" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1401" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1401" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1401" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1401" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1401" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1401" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1401" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1402" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B1402" s="2">
+        <f t="shared" si="116"/>
+        <v>2.8422229894460687E+207</v>
+      </c>
+      <c r="C1402" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1402" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1402" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1402" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1402" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1402" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1402" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1402" s="2">
+        <f t="shared" si="117"/>
+        <v>14</v>
+      </c>
+      <c r="K1402" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="L1402" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1403" s="2">
+        <v>1401</v>
+      </c>
+      <c r="B1403" s="2">
+        <f t="shared" si="116"/>
+        <v>4.263334484169103E+207</v>
+      </c>
+      <c r="C1403" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1403" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1403" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1403" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1403" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1403" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1403" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1403" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1403" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1403" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1404" s="2">
+        <v>1402</v>
+      </c>
+      <c r="B1404" s="2">
+        <f t="shared" si="116"/>
+        <v>6.395001726253654E+207</v>
+      </c>
+      <c r="C1404" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1404" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1404" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1404" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1404" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1404" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1404" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1404" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1404" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1404" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1405" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B1405" s="2">
+        <f t="shared" si="116"/>
+        <v>9.592502589380481E+207</v>
+      </c>
+      <c r="C1405" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1405" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1405" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1405" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1405" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1405" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1405" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1405" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1405" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1405" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1406" s="2">
+        <v>1404</v>
+      </c>
+      <c r="B1406" s="2">
+        <f t="shared" si="116"/>
+        <v>1.4388753884070722E+208</v>
+      </c>
+      <c r="C1406" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1406" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1406" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1406" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1406" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1406" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1406" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1406" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1406" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1406" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1407" s="2">
+        <v>1405</v>
+      </c>
+      <c r="B1407" s="2">
+        <f t="shared" si="116"/>
+        <v>2.1583130826106083E+208</v>
+      </c>
+      <c r="C1407" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1407" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1407" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1407" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1407" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1407" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1407" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1407" s="2">
+        <f t="shared" si="117"/>
+        <v>14</v>
+      </c>
+      <c r="K1407" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="L1407" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1408" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B1408" s="2">
+        <f t="shared" si="116"/>
+        <v>3.2374696239159127E+208</v>
+      </c>
+      <c r="C1408" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1408" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1408" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1408" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1408" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1408" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1408" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1408" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1408" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1408" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1409" s="2">
+        <v>1407</v>
+      </c>
+      <c r="B1409" s="2">
+        <f t="shared" si="116"/>
+        <v>4.856204435873869E+208</v>
+      </c>
+      <c r="C1409" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1409" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1409" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1409" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1409" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1409" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1409" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1409" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1409" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1409" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1410" s="2">
+        <v>1408</v>
+      </c>
+      <c r="B1410" s="2">
+        <f t="shared" si="116"/>
+        <v>7.2843066538108035E+208</v>
+      </c>
+      <c r="C1410" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1410" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1410" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1410" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1410" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1410" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1410" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1410" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1410" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1410" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1411" s="2">
+        <v>1409</v>
+      </c>
+      <c r="B1411" s="2">
+        <f t="shared" si="116"/>
+        <v>1.0926459980716204E+209</v>
+      </c>
+      <c r="C1411" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1411" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1411" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1411" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1411" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1411" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1411" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1411" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1411" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1411" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1412" s="2">
+        <v>1410</v>
+      </c>
+      <c r="B1412" s="2">
+        <f t="shared" si="116"/>
+        <v>1.6389689971074307E+209</v>
+      </c>
+      <c r="C1412" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1412" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1412" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1412" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1412" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1412" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1412" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1412" s="2">
+        <f t="shared" si="117"/>
+        <v>14</v>
+      </c>
+      <c r="K1412" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="L1412" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1413" s="2">
+        <v>1411</v>
+      </c>
+      <c r="B1413" s="2">
+        <f t="shared" si="116"/>
+        <v>2.4584534956611462E+209</v>
+      </c>
+      <c r="C1413" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1413" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1413" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1413" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1413" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1413" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1413" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1413" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1413" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1413" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1414" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B1414" s="2">
+        <f t="shared" si="116"/>
+        <v>3.6876802434917193E+209</v>
+      </c>
+      <c r="C1414" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1414" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1414" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1414" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1414" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1414" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1414" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1414" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1414" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1414" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1415" s="2">
+        <v>1413</v>
+      </c>
+      <c r="B1415" s="2">
+        <f t="shared" si="116"/>
+        <v>5.5315203652375793E+209</v>
+      </c>
+      <c r="C1415" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1415" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1415" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1415" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1415" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1415" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1415" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1415" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1415" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1415" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1416" s="2">
+        <v>1414</v>
+      </c>
+      <c r="B1416" s="2">
+        <f t="shared" si="116"/>
+        <v>8.2972805478563682E+209</v>
+      </c>
+      <c r="C1416" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1416" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1416" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1416" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1416" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1416" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1416" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1416" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1416" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1416" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1417" s="2">
+        <v>1415</v>
+      </c>
+      <c r="B1417" s="2">
+        <f t="shared" si="116"/>
+        <v>1.2445920821784552E+210</v>
+      </c>
+      <c r="C1417" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1417" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1417" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1417" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1417" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1417" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1417" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1417" s="2">
+        <f t="shared" si="117"/>
+        <v>14</v>
+      </c>
+      <c r="K1417" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="L1417" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1418" s="2">
+        <v>1416</v>
+      </c>
+      <c r="B1418" s="2">
+        <f t="shared" si="116"/>
+        <v>1.866888123267683E+210</v>
+      </c>
+      <c r="C1418" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1418" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1418" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1418" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1418" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1418" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1418" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1418" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1418" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1418" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1419" s="2">
+        <v>1417</v>
+      </c>
+      <c r="B1419" s="2">
+        <f t="shared" si="116"/>
+        <v>2.8003321849015245E+210</v>
+      </c>
+      <c r="C1419" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1419" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1419" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1419" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1419" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1419" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1419" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1419" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1419" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1419" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1420" s="2">
+        <v>1418</v>
+      </c>
+      <c r="B1420" s="2">
+        <f t="shared" si="116"/>
+        <v>4.200498277352287E+210</v>
+      </c>
+      <c r="C1420" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1420" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1420" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1420" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1420" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1420" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1420" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1420" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1420" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1420" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1421" s="2">
+        <v>1419</v>
+      </c>
+      <c r="B1421" s="2">
+        <f t="shared" si="116"/>
+        <v>6.3007474160284305E+210</v>
+      </c>
+      <c r="C1421" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1421" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1421" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1421" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1421" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1421" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1421" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1421" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1421" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1421" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1422" s="2">
+        <v>1420</v>
+      </c>
+      <c r="B1422" s="2">
+        <f t="shared" si="116"/>
+        <v>9.4511211240426457E+210</v>
+      </c>
+      <c r="C1422" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1422" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1422" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1422" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1422" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1422" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1422" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1422" s="2">
+        <f t="shared" si="117"/>
+        <v>14</v>
+      </c>
+      <c r="K1422" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="L1422" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1423" s="2">
+        <v>1421</v>
+      </c>
+      <c r="B1423" s="2">
+        <f t="shared" si="116"/>
+        <v>1.4176681686063967E+211</v>
+      </c>
+      <c r="C1423" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1423" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1423" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1423" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1423" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1423" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1423" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1423" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1423" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1423" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1424" s="2">
+        <v>1422</v>
+      </c>
+      <c r="B1424" s="2">
+        <f t="shared" si="116"/>
+        <v>2.1265022529095949E+211</v>
+      </c>
+      <c r="C1424" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1424" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1424" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1424" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1424" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1424" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1424" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1424" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1424" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1424" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1425" s="2">
+        <v>1423</v>
+      </c>
+      <c r="B1425" s="2">
+        <f t="shared" si="116"/>
+        <v>3.1897533793643923E+211</v>
+      </c>
+      <c r="C1425" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1425" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1425" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1425" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1425" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1425" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1425" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1425" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1425" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1425" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1426" s="2">
+        <v>1424</v>
+      </c>
+      <c r="B1426" s="2">
+        <f t="shared" si="116"/>
+        <v>4.7846300690465887E+211</v>
+      </c>
+      <c r="C1426" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1426" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1426" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1426" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1426" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1426" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1426" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1426" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1426" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1426" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1427" s="2">
+        <v>1425</v>
+      </c>
+      <c r="B1427" s="2">
+        <f t="shared" ref="B1427:B1433" si="119">B1426*1.5</f>
+        <v>7.1769451035698831E+211</v>
+      </c>
+      <c r="C1427" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1427" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1427" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1427" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1427" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1427" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1427" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1427" s="2">
+        <f t="shared" si="117"/>
+        <v>14</v>
+      </c>
+      <c r="K1427" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="L1427" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1428" s="2">
+        <v>1426</v>
+      </c>
+      <c r="B1428" s="2">
+        <f t="shared" si="119"/>
+        <v>1.0765417655354824E+212</v>
+      </c>
+      <c r="C1428" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1428" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1428" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1428" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1428" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1428" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1428" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1428" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1428" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1428" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1429" s="2">
+        <v>1427</v>
+      </c>
+      <c r="B1429" s="2">
+        <f t="shared" si="119"/>
+        <v>1.6148126483032236E+212</v>
+      </c>
+      <c r="C1429" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1429" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1429" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1429" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1429" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1429" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1429" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1429" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1429" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1429" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1430" s="2">
+        <v>1428</v>
+      </c>
+      <c r="B1430" s="2">
+        <f t="shared" si="119"/>
+        <v>2.4222189724548353E+212</v>
+      </c>
+      <c r="C1430" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1430" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1430" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1430" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1430" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1430" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1430" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1430" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1430" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1430" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1431" s="2">
+        <v>1429</v>
+      </c>
+      <c r="B1431" s="2">
+        <f t="shared" si="119"/>
+        <v>3.6333284586822532E+212</v>
+      </c>
+      <c r="C1431" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1431" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1431" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1431" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1431" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1431" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1431" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1431" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1431" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1431" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1432" s="2">
+        <v>1430</v>
+      </c>
+      <c r="B1432" s="2">
+        <f t="shared" si="119"/>
+        <v>5.4499926880233794E+212</v>
+      </c>
+      <c r="C1432" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1432" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1432" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1432" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1432" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1432" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1432" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1432" s="2">
+        <f t="shared" si="117"/>
+        <v>14</v>
+      </c>
+      <c r="K1432" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="L1432" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1433" s="2">
+        <v>1431</v>
+      </c>
+      <c r="B1433" s="2">
+        <f t="shared" si="119"/>
+        <v>8.1749890320350684E+212</v>
+      </c>
+      <c r="C1433" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1433" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1433" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1433" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1433" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1433" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1433" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1433" s="2">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="K1433" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L1433" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C701F0-407C-4045-923A-0242BE021449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2129E49-5EC7-47E4-B3D8-F86F80F5270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -394,9 +394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -434,7 +434,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -540,7 +540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -682,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1433"/>
+  <dimension ref="A1:L1450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1407" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1425" sqref="B1425"/>
+      <pane ySplit="1" topLeftCell="A1432" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1443" sqref="B1443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -58028,7 +58028,7 @@
         <v>1425</v>
       </c>
       <c r="B1427" s="2">
-        <f t="shared" ref="B1427:B1433" si="119">B1426*1.5</f>
+        <f t="shared" ref="B1427:B1450" si="119">B1426*1.5</f>
         <v>7.1769451035698831E+211</v>
       </c>
       <c r="C1427" s="1">
@@ -58307,6 +58307,703 @@
         <v>0</v>
       </c>
       <c r="L1433" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1434" s="2">
+        <v>1432</v>
+      </c>
+      <c r="B1434" s="2">
+        <f t="shared" si="119"/>
+        <v>1.2262483548052603E+213</v>
+      </c>
+      <c r="C1434" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1434" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1434" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1434" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1434" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1434" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1434" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1434" s="2">
+        <f t="shared" ref="J1434:J1450" si="120">IF(MOD(A1434,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1434" s="2">
+        <f t="shared" ref="K1434:K1450" si="121">IF(J1434=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1434" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1435" s="2">
+        <v>1433</v>
+      </c>
+      <c r="B1435" s="2">
+        <f t="shared" si="119"/>
+        <v>1.8393725322078902E+213</v>
+      </c>
+      <c r="C1435" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1435" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1435" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1435" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1435" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1435" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1435" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1435" s="2">
+        <f t="shared" si="120"/>
+        <v>-1</v>
+      </c>
+      <c r="K1435" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L1435" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1436" s="2">
+        <v>1434</v>
+      </c>
+      <c r="B1436" s="2">
+        <f t="shared" si="119"/>
+        <v>2.7590587983118354E+213</v>
+      </c>
+      <c r="C1436" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1436" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1436" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1436" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1436" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1436" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1436" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1436" s="2">
+        <f t="shared" si="120"/>
+        <v>-1</v>
+      </c>
+      <c r="K1436" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L1436" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1437" s="2">
+        <v>1435</v>
+      </c>
+      <c r="B1437" s="2">
+        <f t="shared" si="119"/>
+        <v>4.138588197467753E+213</v>
+      </c>
+      <c r="C1437" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1437" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1437" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1437" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1437" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1437" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1437" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1437" s="2">
+        <f t="shared" si="120"/>
+        <v>14</v>
+      </c>
+      <c r="K1437" s="2">
+        <f t="shared" si="121"/>
+        <v>4</v>
+      </c>
+      <c r="L1437" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1438" s="2">
+        <v>1436</v>
+      </c>
+      <c r="B1438" s="2">
+        <f t="shared" si="119"/>
+        <v>6.2078822962016302E+213</v>
+      </c>
+      <c r="C1438" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1438" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1438" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1438" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1438" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1438" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1438" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1438" s="2">
+        <f t="shared" si="120"/>
+        <v>-1</v>
+      </c>
+      <c r="K1438" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L1438" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1439" s="2">
+        <v>1437</v>
+      </c>
+      <c r="B1439" s="2">
+        <f t="shared" si="119"/>
+        <v>9.3118234443024452E+213</v>
+      </c>
+      <c r="C1439" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1439" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1439" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1439" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1439" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1439" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1439" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1439" s="2">
+        <f t="shared" si="120"/>
+        <v>-1</v>
+      </c>
+      <c r="K1439" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L1439" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1440" s="2">
+        <v>1438</v>
+      </c>
+      <c r="B1440" s="2">
+        <f t="shared" si="119"/>
+        <v>1.3967735166453668E+214</v>
+      </c>
+      <c r="C1440" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1440" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1440" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1440" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1440" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1440" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1440" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1440" s="2">
+        <f t="shared" si="120"/>
+        <v>-1</v>
+      </c>
+      <c r="K1440" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L1440" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1441" s="2">
+        <v>1439</v>
+      </c>
+      <c r="B1441" s="2">
+        <f t="shared" si="119"/>
+        <v>2.0951602749680502E+214</v>
+      </c>
+      <c r="C1441" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1441" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1441" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1441" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1441" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1441" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1441" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1441" s="2">
+        <f t="shared" si="120"/>
+        <v>-1</v>
+      </c>
+      <c r="K1441" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L1441" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1442" s="2">
+        <v>1440</v>
+      </c>
+      <c r="B1442" s="2">
+        <f t="shared" si="119"/>
+        <v>3.1427404124520753E+214</v>
+      </c>
+      <c r="C1442" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1442" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1442" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1442" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1442" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1442" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1442" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1442" s="2">
+        <f t="shared" si="120"/>
+        <v>14</v>
+      </c>
+      <c r="K1442" s="2">
+        <f t="shared" si="121"/>
+        <v>4</v>
+      </c>
+      <c r="L1442" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1443" s="2">
+        <v>1441</v>
+      </c>
+      <c r="B1443" s="2">
+        <f t="shared" si="119"/>
+        <v>4.7141106186781129E+214</v>
+      </c>
+      <c r="C1443" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1443" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1443" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1443" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1443" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1443" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1443" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1443" s="2">
+        <f t="shared" si="120"/>
+        <v>-1</v>
+      </c>
+      <c r="K1443" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L1443" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1444" s="2">
+        <v>1442</v>
+      </c>
+      <c r="B1444" s="2">
+        <f t="shared" si="119"/>
+        <v>7.0711659280171698E+214</v>
+      </c>
+      <c r="C1444" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1444" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1444" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1444" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1444" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1444" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1444" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1444" s="2">
+        <f t="shared" si="120"/>
+        <v>-1</v>
+      </c>
+      <c r="K1444" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L1444" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1445" s="2">
+        <v>1443</v>
+      </c>
+      <c r="B1445" s="2">
+        <f t="shared" si="119"/>
+        <v>1.0606748892025755E+215</v>
+      </c>
+      <c r="C1445" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1445" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1445" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1445" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1445" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1445" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1445" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1445" s="2">
+        <f t="shared" si="120"/>
+        <v>-1</v>
+      </c>
+      <c r="K1445" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L1445" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1446" s="2">
+        <v>1444</v>
+      </c>
+      <c r="B1446" s="2">
+        <f t="shared" si="119"/>
+        <v>1.5910123338038632E+215</v>
+      </c>
+      <c r="C1446" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1446" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1446" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1446" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1446" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1446" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1446" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1446" s="2">
+        <f t="shared" si="120"/>
+        <v>-1</v>
+      </c>
+      <c r="K1446" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L1446" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1447" s="2">
+        <v>1445</v>
+      </c>
+      <c r="B1447" s="2">
+        <f t="shared" si="119"/>
+        <v>2.3865185007057947E+215</v>
+      </c>
+      <c r="C1447" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1447" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1447" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1447" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1447" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1447" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1447" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1447" s="2">
+        <f t="shared" si="120"/>
+        <v>14</v>
+      </c>
+      <c r="K1447" s="2">
+        <f t="shared" si="121"/>
+        <v>4</v>
+      </c>
+      <c r="L1447" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1448" s="2">
+        <v>1446</v>
+      </c>
+      <c r="B1448" s="2">
+        <f t="shared" si="119"/>
+        <v>3.5797777510586923E+215</v>
+      </c>
+      <c r="C1448" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1448" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1448" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1448" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1448" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1448" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1448" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1448" s="2">
+        <f t="shared" si="120"/>
+        <v>-1</v>
+      </c>
+      <c r="K1448" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L1448" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1449" s="2">
+        <v>1447</v>
+      </c>
+      <c r="B1449" s="2">
+        <f t="shared" si="119"/>
+        <v>5.3696666265880388E+215</v>
+      </c>
+      <c r="C1449" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1449" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1449" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1449" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1449" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1449" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1449" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1449" s="2">
+        <f t="shared" si="120"/>
+        <v>-1</v>
+      </c>
+      <c r="K1449" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L1449" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1450" s="2">
+        <v>1448</v>
+      </c>
+      <c r="B1450" s="2">
+        <f t="shared" si="119"/>
+        <v>8.0544999398820582E+215</v>
+      </c>
+      <c r="C1450" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1450" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1450" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1450" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1450" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1450" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1450" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1450" s="2">
+        <f t="shared" si="120"/>
+        <v>-1</v>
+      </c>
+      <c r="K1450" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L1450" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2129E49-5EC7-47E4-B3D8-F86F80F5270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007FB105-94CA-45D0-AEB1-ADF3F3970693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L1450"/>
+  <dimension ref="A1:L1495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1432" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1443" sqref="B1443"/>
+      <pane ySplit="1" topLeftCell="A1468" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1479" sqref="D1478:D1479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -58028,7 +58028,7 @@
         <v>1425</v>
       </c>
       <c r="B1427" s="2">
-        <f t="shared" ref="B1427:B1450" si="119">B1426*1.5</f>
+        <f t="shared" ref="B1427:B1490" si="119">B1426*1.5</f>
         <v>7.1769451035698831E+211</v>
       </c>
       <c r="C1427" s="1">
@@ -59004,6 +59004,1851 @@
         <v>0</v>
       </c>
       <c r="L1450" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1451" s="2">
+        <v>1449</v>
+      </c>
+      <c r="B1451" s="2">
+        <f t="shared" si="119"/>
+        <v>1.2081749909823087E+216</v>
+      </c>
+      <c r="C1451" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1451" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1451" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1451" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1451" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1451" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1451" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1451" s="2">
+        <f t="shared" ref="J1451:J1495" si="122">IF(MOD(A1451,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K1451" s="2">
+        <f t="shared" ref="K1451:K1495" si="123">IF(J1451=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L1451" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1452" s="2">
+        <v>1450</v>
+      </c>
+      <c r="B1452" s="2">
+        <f t="shared" si="119"/>
+        <v>1.812262486473463E+216</v>
+      </c>
+      <c r="C1452" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1452" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1452" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1452" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1452" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1452" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1452" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1452" s="2">
+        <f t="shared" si="122"/>
+        <v>14</v>
+      </c>
+      <c r="K1452" s="2">
+        <f t="shared" si="123"/>
+        <v>4</v>
+      </c>
+      <c r="L1452" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1453" s="2">
+        <v>1451</v>
+      </c>
+      <c r="B1453" s="2">
+        <f t="shared" si="119"/>
+        <v>2.7183937297101947E+216</v>
+      </c>
+      <c r="C1453" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1453" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1453" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1453" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1453" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1453" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1453" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1453" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1453" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1453" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1454" s="2">
+        <v>1452</v>
+      </c>
+      <c r="B1454" s="2">
+        <f t="shared" si="119"/>
+        <v>4.0775905945652917E+216</v>
+      </c>
+      <c r="C1454" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1454" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1454" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1454" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1454" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1454" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1454" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1454" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1454" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1454" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1455" s="2">
+        <v>1453</v>
+      </c>
+      <c r="B1455" s="2">
+        <f t="shared" si="119"/>
+        <v>6.1163858918479382E+216</v>
+      </c>
+      <c r="C1455" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1455" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1455" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1455" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1455" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1455" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1455" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1455" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1455" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1455" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1456" s="2">
+        <v>1454</v>
+      </c>
+      <c r="B1456" s="2">
+        <f t="shared" si="119"/>
+        <v>9.1745788377719073E+216</v>
+      </c>
+      <c r="C1456" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1456" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1456" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1456" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1456" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1456" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1456" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1456" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1456" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1456" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1457" s="2">
+        <v>1455</v>
+      </c>
+      <c r="B1457" s="2">
+        <f t="shared" si="119"/>
+        <v>1.3761868256657862E+217</v>
+      </c>
+      <c r="C1457" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1457" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1457" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1457" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1457" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1457" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1457" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1457" s="2">
+        <f t="shared" si="122"/>
+        <v>14</v>
+      </c>
+      <c r="K1457" s="2">
+        <f t="shared" si="123"/>
+        <v>4</v>
+      </c>
+      <c r="L1457" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1458" s="2">
+        <v>1456</v>
+      </c>
+      <c r="B1458" s="2">
+        <f t="shared" si="119"/>
+        <v>2.0642802384986793E+217</v>
+      </c>
+      <c r="C1458" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1458" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1458" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1458" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1458" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1458" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1458" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1458" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1458" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1458" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1459" s="2">
+        <v>1457</v>
+      </c>
+      <c r="B1459" s="2">
+        <f t="shared" si="119"/>
+        <v>3.0964203577480189E+217</v>
+      </c>
+      <c r="C1459" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1459" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1459" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1459" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1459" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1459" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1459" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1459" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1459" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1459" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1460" s="2">
+        <v>1458</v>
+      </c>
+      <c r="B1460" s="2">
+        <f t="shared" si="119"/>
+        <v>4.6446305366220283E+217</v>
+      </c>
+      <c r="C1460" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1460" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1460" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1460" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1460" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1460" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1460" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1460" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1460" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1460" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1461" s="2">
+        <v>1459</v>
+      </c>
+      <c r="B1461" s="2">
+        <f t="shared" si="119"/>
+        <v>6.9669458049330429E+217</v>
+      </c>
+      <c r="C1461" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1461" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1461" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1461" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1461" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1461" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1461" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1461" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1461" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1461" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1462" s="2">
+        <v>1460</v>
+      </c>
+      <c r="B1462" s="2">
+        <f t="shared" si="119"/>
+        <v>1.0450418707399565E+218</v>
+      </c>
+      <c r="C1462" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1462" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1462" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1462" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1462" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1462" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1462" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1462" s="2">
+        <f t="shared" si="122"/>
+        <v>14</v>
+      </c>
+      <c r="K1462" s="2">
+        <f t="shared" si="123"/>
+        <v>4</v>
+      </c>
+      <c r="L1462" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1463" s="2">
+        <v>1461</v>
+      </c>
+      <c r="B1463" s="2">
+        <f t="shared" si="119"/>
+        <v>1.5675628061099348E+218</v>
+      </c>
+      <c r="C1463" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1463" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1463" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1463" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1463" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1463" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1463" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1463" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1463" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1463" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1464" s="2">
+        <v>1462</v>
+      </c>
+      <c r="B1464" s="2">
+        <f t="shared" si="119"/>
+        <v>2.351344209164902E+218</v>
+      </c>
+      <c r="C1464" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1464" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1464" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1464" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1464" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1464" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1464" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1464" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1464" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1464" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1465" s="2">
+        <v>1463</v>
+      </c>
+      <c r="B1465" s="2">
+        <f t="shared" si="119"/>
+        <v>3.527016313747353E+218</v>
+      </c>
+      <c r="C1465" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1465" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1465" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1465" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1465" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1465" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1465" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1465" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1465" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1465" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1466" s="2">
+        <v>1464</v>
+      </c>
+      <c r="B1466" s="2">
+        <f t="shared" si="119"/>
+        <v>5.2905244706210293E+218</v>
+      </c>
+      <c r="C1466" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1466" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1466" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1466" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1466" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1466" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1466" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1466" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1466" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1466" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1467" s="2">
+        <v>1465</v>
+      </c>
+      <c r="B1467" s="2">
+        <f t="shared" si="119"/>
+        <v>7.9357867059315436E+218</v>
+      </c>
+      <c r="C1467" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1467" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1467" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1467" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1467" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1467" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1467" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1467" s="2">
+        <f t="shared" si="122"/>
+        <v>14</v>
+      </c>
+      <c r="K1467" s="2">
+        <f t="shared" si="123"/>
+        <v>4</v>
+      </c>
+      <c r="L1467" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1468" s="2">
+        <v>1466</v>
+      </c>
+      <c r="B1468" s="2">
+        <f t="shared" si="119"/>
+        <v>1.1903680058897316E+219</v>
+      </c>
+      <c r="C1468" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1468" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1468" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1468" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1468" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1468" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1468" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1468" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1468" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1468" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1469" s="2">
+        <v>1467</v>
+      </c>
+      <c r="B1469" s="2">
+        <f t="shared" si="119"/>
+        <v>1.7855520088345974E+219</v>
+      </c>
+      <c r="C1469" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1469" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1469" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1469" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1469" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1469" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1469" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1469" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1469" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1469" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1470" s="2">
+        <v>1468</v>
+      </c>
+      <c r="B1470" s="2">
+        <f t="shared" si="119"/>
+        <v>2.6783280132518961E+219</v>
+      </c>
+      <c r="C1470" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1470" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1470" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1470" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1470" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1470" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1470" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1470" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1470" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1470" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1471" s="2">
+        <v>1469</v>
+      </c>
+      <c r="B1471" s="2">
+        <f t="shared" si="119"/>
+        <v>4.0174920198778444E+219</v>
+      </c>
+      <c r="C1471" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1471" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1471" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1471" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1471" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1471" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1471" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1471" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1471" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1471" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1472" s="2">
+        <v>1470</v>
+      </c>
+      <c r="B1472" s="2">
+        <f t="shared" si="119"/>
+        <v>6.0262380298167662E+219</v>
+      </c>
+      <c r="C1472" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1472" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1472" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1472" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1472" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1472" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1472" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1472" s="2">
+        <f t="shared" si="122"/>
+        <v>14</v>
+      </c>
+      <c r="K1472" s="2">
+        <f t="shared" si="123"/>
+        <v>4</v>
+      </c>
+      <c r="L1472" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1473" s="2">
+        <v>1471</v>
+      </c>
+      <c r="B1473" s="2">
+        <f t="shared" si="119"/>
+        <v>9.0393570447251493E+219</v>
+      </c>
+      <c r="C1473" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1473" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1473" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1473" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1473" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1473" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1473" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1473" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1473" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1473" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1474" s="2">
+        <v>1472</v>
+      </c>
+      <c r="B1474" s="2">
+        <f t="shared" si="119"/>
+        <v>1.3559035567087723E+220</v>
+      </c>
+      <c r="C1474" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1474" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1474" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1474" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1474" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1474" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1474" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1474" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1474" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1474" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1475" s="2">
+        <v>1473</v>
+      </c>
+      <c r="B1475" s="2">
+        <f t="shared" si="119"/>
+        <v>2.0338553350631585E+220</v>
+      </c>
+      <c r="C1475" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1475" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1475" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1475" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1475" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1475" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1475" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1475" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1475" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1475" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1476" s="2">
+        <v>1474</v>
+      </c>
+      <c r="B1476" s="2">
+        <f t="shared" si="119"/>
+        <v>3.050783002594738E+220</v>
+      </c>
+      <c r="C1476" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1476" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1476" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1476" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1476" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1476" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1476" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1476" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1476" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1476" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1477" s="2">
+        <v>1475</v>
+      </c>
+      <c r="B1477" s="2">
+        <f t="shared" si="119"/>
+        <v>4.5761745038921065E+220</v>
+      </c>
+      <c r="C1477" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1477" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1477" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1477" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1477" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1477" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1477" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1477" s="2">
+        <f t="shared" si="122"/>
+        <v>14</v>
+      </c>
+      <c r="K1477" s="2">
+        <f t="shared" si="123"/>
+        <v>4</v>
+      </c>
+      <c r="L1477" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1478" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B1478" s="2">
+        <f t="shared" si="119"/>
+        <v>6.8642617558381598E+220</v>
+      </c>
+      <c r="C1478" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1478" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1478" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1478" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1478" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1478" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1478" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1478" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1478" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1478" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1479" s="2">
+        <v>1477</v>
+      </c>
+      <c r="B1479" s="2">
+        <f t="shared" si="119"/>
+        <v>1.0296392633757239E+221</v>
+      </c>
+      <c r="C1479" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1479" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1479" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1479" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1479" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1479" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1479" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1479" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1479" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1479" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1480" s="2">
+        <v>1478</v>
+      </c>
+      <c r="B1480" s="2">
+        <f t="shared" si="119"/>
+        <v>1.5444588950635858E+221</v>
+      </c>
+      <c r="C1480" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1480" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1480" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1480" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1480" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1480" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1480" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1480" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1480" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1480" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1481" s="2">
+        <v>1479</v>
+      </c>
+      <c r="B1481" s="2">
+        <f t="shared" si="119"/>
+        <v>2.3166883425953785E+221</v>
+      </c>
+      <c r="C1481" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1481" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1481" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1481" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1481" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1481" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1481" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1481" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1481" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1481" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1482" s="2">
+        <v>1480</v>
+      </c>
+      <c r="B1482" s="2">
+        <f t="shared" si="119"/>
+        <v>3.4750325138930677E+221</v>
+      </c>
+      <c r="C1482" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1482" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1482" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1482" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1482" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1482" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1482" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1482" s="2">
+        <f t="shared" si="122"/>
+        <v>14</v>
+      </c>
+      <c r="K1482" s="2">
+        <f t="shared" si="123"/>
+        <v>4</v>
+      </c>
+      <c r="L1482" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1483" s="2">
+        <v>1481</v>
+      </c>
+      <c r="B1483" s="2">
+        <f t="shared" si="119"/>
+        <v>5.2125487708396011E+221</v>
+      </c>
+      <c r="C1483" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1483" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1483" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1483" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1483" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1483" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1483" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1483" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1483" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1483" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1484" s="2">
+        <v>1482</v>
+      </c>
+      <c r="B1484" s="2">
+        <f t="shared" si="119"/>
+        <v>7.8188231562594017E+221</v>
+      </c>
+      <c r="C1484" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1484" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1484" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1484" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1484" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1484" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1484" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1484" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1484" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1484" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1485" s="2">
+        <v>1483</v>
+      </c>
+      <c r="B1485" s="2">
+        <f t="shared" si="119"/>
+        <v>1.1728234734389102E+222</v>
+      </c>
+      <c r="C1485" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1485" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1485" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1485" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1485" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1485" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1485" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1485" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1485" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1485" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1486" s="2">
+        <v>1484</v>
+      </c>
+      <c r="B1486" s="2">
+        <f t="shared" si="119"/>
+        <v>1.7592352101583653E+222</v>
+      </c>
+      <c r="C1486" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1486" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1486" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1486" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1486" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1486" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1486" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1486" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1486" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1486" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1487" s="2">
+        <v>1485</v>
+      </c>
+      <c r="B1487" s="2">
+        <f t="shared" si="119"/>
+        <v>2.6388528152375479E+222</v>
+      </c>
+      <c r="C1487" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1487" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1487" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1487" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1487" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1487" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1487" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1487" s="2">
+        <f t="shared" si="122"/>
+        <v>14</v>
+      </c>
+      <c r="K1487" s="2">
+        <f t="shared" si="123"/>
+        <v>4</v>
+      </c>
+      <c r="L1487" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1488" s="2">
+        <v>1486</v>
+      </c>
+      <c r="B1488" s="2">
+        <f t="shared" si="119"/>
+        <v>3.958279222856322E+222</v>
+      </c>
+      <c r="C1488" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1488" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1488" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1488" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1488" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1488" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1488" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1488" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1488" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1488" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1489" s="2">
+        <v>1487</v>
+      </c>
+      <c r="B1489" s="2">
+        <f t="shared" si="119"/>
+        <v>5.9374188342844824E+222</v>
+      </c>
+      <c r="C1489" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1489" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1489" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1489" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1489" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1489" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1489" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1489" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1489" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1489" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1490" s="2">
+        <v>1488</v>
+      </c>
+      <c r="B1490" s="2">
+        <f t="shared" si="119"/>
+        <v>8.9061282514267235E+222</v>
+      </c>
+      <c r="C1490" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1490" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1490" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1490" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1490" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1490" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1490" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1490" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1490" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1490" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1491" s="2">
+        <v>1489</v>
+      </c>
+      <c r="B1491" s="2">
+        <f t="shared" ref="B1491:B1495" si="124">B1490*1.5</f>
+        <v>1.3359192377140086E+223</v>
+      </c>
+      <c r="C1491" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1491" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1491" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1491" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1491" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1491" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1491" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1491" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1491" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1491" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1492" s="2">
+        <v>1490</v>
+      </c>
+      <c r="B1492" s="2">
+        <f t="shared" si="124"/>
+        <v>2.0038788565710129E+223</v>
+      </c>
+      <c r="C1492" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1492" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1492" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1492" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1492" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1492" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1492" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1492" s="2">
+        <f t="shared" si="122"/>
+        <v>14</v>
+      </c>
+      <c r="K1492" s="2">
+        <f t="shared" si="123"/>
+        <v>4</v>
+      </c>
+      <c r="L1492" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1493" s="2">
+        <v>1491</v>
+      </c>
+      <c r="B1493" s="2">
+        <f t="shared" si="124"/>
+        <v>3.0058182848565196E+223</v>
+      </c>
+      <c r="C1493" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1493" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1493" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1493" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1493" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1493" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1493" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1493" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1493" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1493" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1494" s="2">
+        <v>1492</v>
+      </c>
+      <c r="B1494" s="2">
+        <f t="shared" si="124"/>
+        <v>4.5087274272847794E+223</v>
+      </c>
+      <c r="C1494" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1494" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1494" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1494" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1494" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1494" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1494" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1494" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1494" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1494" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1495" s="2">
+        <v>1493</v>
+      </c>
+      <c r="B1495" s="2">
+        <f t="shared" si="124"/>
+        <v>6.7630911409271696E+223</v>
+      </c>
+      <c r="C1495" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1495" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E1495" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1495" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1495" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1495" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I1495" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1495" s="2">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="K1495" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L1495" s="1">
         <v>13</v>
       </c>
     </row>
